--- a/atomica/library/tb_framework.xlsx
+++ b/atomica/library/tb_framework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8886B6A9-9027-4DBC-B567-C000E0303278}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E20BFC-0249-4DB2-80D1-8F627124F485}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -866,6 +866,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="A177" authorId="1" shapeId="0" xr:uid="{1F8AAE65-558B-4A5E-B0CD-0E894BC320EB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is the rate at which YLDs are being accumulated - integrate over time to get the number of YLDs</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -908,7 +921,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="825">
   <si>
     <t>Name</t>
   </si>
@@ -3329,13 +3342,67 @@
   </si>
   <si>
     <t>spdd:spdt</t>
+  </si>
+  <si>
+    <t>sh_dalys</t>
+  </si>
+  <si>
+    <t>DALYs</t>
+  </si>
+  <si>
+    <t>life_expectancy</t>
+  </si>
+  <si>
+    <t>Estimated number of years of life remaining</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>YLD weighting for untreated TB</t>
+  </si>
+  <si>
+    <t>treated_yld_weight</t>
+  </si>
+  <si>
+    <t>untreated_yld_weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YLD weighting for TB under treatment </t>
+  </si>
+  <si>
+    <t>untreated_yld_weight*(spdu+spdd+spmu+spmd+spxu+spxd+sndu+sndd+snmu+snmd+snxu+snxd)+treated_yld_weight*(spdt+spmt+spxt+sndt+snmt+snxt)</t>
+  </si>
+  <si>
+    <t>life_expectancy*:ddis</t>
+  </si>
+  <si>
+    <t>Number of people</t>
+  </si>
+  <si>
+    <t>yld_rate</t>
+  </si>
+  <si>
+    <t>yll_rate</t>
+  </si>
+  <si>
+    <t>daly_rate</t>
+  </si>
+  <si>
+    <t>YLL rate</t>
+  </si>
+  <si>
+    <t>YLD rate</t>
+  </si>
+  <si>
+    <t>yll_rate + yld_rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3385,6 +3452,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4169,7 +4242,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4261,8 +4334,12 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -4290,8 +4367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6445,8 +6522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8103,19 +8180,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:L176"/>
+  <dimension ref="A1:L180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="topRight" activeCell="G181" sqref="G181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="21" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="25" bestFit="1" customWidth="1"/>
@@ -8124,9 +8201,9 @@
     <col min="9" max="9" width="24.7109375" style="37" customWidth="1"/>
     <col min="10" max="10" width="13" style="25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="25" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="25"/>
+    <col min="12" max="12" width="14.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="25" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12928,19 +13005,113 @@
       <c r="K173" s="6"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E174" s="6"/>
+      <c r="C174" s="1"/>
       <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
       <c r="I174" s="36"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D175" s="6">
+        <v>1</v>
+      </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="I175" s="36"/>
+      <c r="J175" s="19" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D176" s="6">
+        <v>1</v>
+      </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="I176" s="36"/>
+      <c r="J176" s="19" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C177" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" t="s">
+        <v>816</v>
+      </c>
+      <c r="I177" s="36"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="D178" s="6">
+        <v>30</v>
+      </c>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+      <c r="I178" s="36"/>
+      <c r="J178" s="19" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C179" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="25" t="s">
+        <v>817</v>
+      </c>
+      <c r="I179" s="36"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="C180" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="G180" s="25" t="s">
+        <v>824</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H128:H145 H148:H1048576 H67:H125 H1:H65">
@@ -12963,8 +13134,8 @@
       <formula>NOT(ISERROR(SEARCH("y",H66)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I174:I176" xr:uid="{00000000-0002-0000-0600-000000000000}">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I174:I179" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H2:H173" xr:uid="{00000000-0002-0000-0600-000001000000}">
@@ -12972,8 +13143,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/atomica/library/tb_framework.xlsx
+++ b/atomica/library/tb_framework.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh.abey\Desktop\projects\atomica\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E20BFC-0249-4DB2-80D1-8F627124F485}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="468" windowWidth="16098" windowHeight="9660" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <sheet name="Plots" sheetId="9" r:id="rId9"/>
     <sheet name="#ignore extra plots" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>None</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,13 +86,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>None</author>
     <author>Romesh</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -272,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -308,7 +307,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="J1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -327,13 +326,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>None</author>
     <author>Romesh</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -359,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -386,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -413,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -427,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -441,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -469,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -484,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -504,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -520,7 +519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
+    <comment ref="J1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -539,12 +538,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>None</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -569,7 +568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -595,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -614,14 +613,14 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>None</author>
     <author>Romesh</author>
     <author>Rowan</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -644,7 +643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -668,7 +667,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -682,7 +681,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -696,7 +695,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -710,7 +709,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -724,7 +723,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -738,7 +737,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -756,7 +755,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -771,7 +770,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000A000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -791,7 +790,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000B000000}">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -807,7 +806,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000C000000}">
+    <comment ref="L1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -821,7 +820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G49" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000D000000}">
+    <comment ref="G49" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -836,7 +835,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B57" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000E000000}">
+    <comment ref="B57" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -851,7 +850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D93" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000F000000}">
+    <comment ref="D93" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -866,7 +865,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A177" authorId="1" shapeId="0" xr:uid="{1F8AAE65-558B-4A5E-B0CD-0E894BC320EB}">
+    <comment ref="A176" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -884,12 +883,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>None</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -921,7 +920,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="823">
   <si>
     <t>Name</t>
   </si>
@@ -3359,21 +3358,6 @@
     <t>years</t>
   </si>
   <si>
-    <t>YLD weighting for untreated TB</t>
-  </si>
-  <si>
-    <t>treated_yld_weight</t>
-  </si>
-  <si>
-    <t>untreated_yld_weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YLD weighting for TB under treatment </t>
-  </si>
-  <si>
-    <t>untreated_yld_weight*(spdu+spdd+spmu+spmd+spxu+spxd+sndu+sndd+snmu+snmd+snxu+snxd)+treated_yld_weight*(spdt+spmt+spxt+sndt+snmt+snxt)</t>
-  </si>
-  <si>
     <t>life_expectancy*:ddis</t>
   </si>
   <si>
@@ -3396,12 +3380,21 @@
   </si>
   <si>
     <t>yll_rate + yld_rate</t>
+  </si>
+  <si>
+    <t>disutility_weight</t>
+  </si>
+  <si>
+    <t>Disutility weight for active TB</t>
+  </si>
+  <si>
+    <t>disutility_weight*(spdu+spdd+spmu+spmd+spxu+spxd+sndu+sndd+snmu+snmd+snxu+snxd+spdt+spmt+spxt+sndt+snmt+snxt)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3613,7 +3606,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Neutral 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Neutral 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -3734,23 +3727,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3786,23 +3762,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3978,16 +3937,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3995,7 +3954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -4009,21 +3968,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="65" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.26171875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.15625" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>784</v>
       </c>
@@ -4034,7 +3993,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>786</v>
       </c>
@@ -4045,7 +4004,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>788</v>
       </c>
@@ -4056,7 +4015,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>790</v>
       </c>
@@ -4067,7 +4026,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>792</v>
       </c>
@@ -4078,7 +4037,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>794</v>
       </c>
@@ -4089,7 +4048,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>796</v>
       </c>
@@ -4100,7 +4059,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>798</v>
       </c>
@@ -4111,7 +4070,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>800</v>
       </c>
@@ -4122,7 +4081,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>802</v>
       </c>
@@ -4133,7 +4092,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>802</v>
       </c>
@@ -4144,7 +4103,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>804</v>
       </c>
@@ -4155,7 +4114,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>805</v>
       </c>
@@ -4166,7 +4125,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -4177,7 +4136,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -4188,7 +4147,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -4199,7 +4158,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -4210,7 +4169,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -4221,7 +4180,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>108</v>
       </c>
@@ -4238,22 +4197,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="25.68359375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="34.26171875" style="25" customWidth="1"/>
     <col min="3" max="3" width="9" style="25" customWidth="1"/>
     <col min="4" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4261,7 +4220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -4269,7 +4228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -4277,7 +4236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -4285,7 +4244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -4293,7 +4252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -4301,7 +4260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -4309,7 +4268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -4317,7 +4276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
@@ -4325,7 +4284,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
@@ -4333,7 +4292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
         <v>807</v>
       </c>
@@ -4341,19 +4300,19 @@
         <v>808</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
     </row>
@@ -4364,28 +4323,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.26171875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.68359375" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.41796875" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26171875" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26171875" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.68359375" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26171875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.15625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="94" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -4417,7 +4376,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="34" t="s">
         <v>34</v>
       </c>
@@ -4445,7 +4404,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -4466,7 +4425,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -4487,7 +4446,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -4508,7 +4467,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -4529,7 +4488,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -4550,7 +4509,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -4571,7 +4530,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -4592,7 +4551,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -4613,7 +4572,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="12" t="s">
         <v>55</v>
       </c>
@@ -4636,7 +4595,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -4657,7 +4616,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -4678,7 +4637,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -4699,7 +4658,7 @@
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -4720,7 +4679,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -4741,7 +4700,7 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -4762,7 +4721,7 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -4783,7 +4742,7 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -4804,7 +4763,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -4825,7 +4784,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -4846,7 +4805,7 @@
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -4867,7 +4826,7 @@
       </c>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -4888,7 +4847,7 @@
       </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -4909,7 +4868,7 @@
       </c>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -4930,7 +4889,7 @@
       </c>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -4951,7 +4910,7 @@
       </c>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -4972,7 +4931,7 @@
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -4993,7 +4952,7 @@
       </c>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -5014,7 +4973,7 @@
       </c>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -5035,7 +4994,7 @@
       </c>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -5056,7 +5015,7 @@
       </c>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -5077,7 +5036,7 @@
       </c>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -5098,7 +5057,7 @@
       </c>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -5119,7 +5078,7 @@
       </c>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -5140,7 +5099,7 @@
       </c>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -5161,7 +5120,7 @@
       </c>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -5182,7 +5141,7 @@
       </c>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -5203,7 +5162,7 @@
       </c>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>111</v>
       </c>
@@ -5224,7 +5183,7 @@
       </c>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>113</v>
       </c>
@@ -5245,7 +5204,7 @@
       </c>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="12" t="s">
         <v>115</v>
       </c>
@@ -5268,7 +5227,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>117</v>
       </c>
@@ -5289,7 +5248,7 @@
       </c>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>119</v>
       </c>
@@ -5310,7 +5269,7 @@
       </c>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="12" t="s">
         <v>121</v>
       </c>
@@ -5333,7 +5292,7 @@
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>123</v>
       </c>
@@ -5354,7 +5313,7 @@
       </c>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -5375,7 +5334,7 @@
       </c>
       <c r="G46" s="6"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>127</v>
       </c>
@@ -5396,24 +5355,24 @@
       </c>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G50" s="6"/>
     </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G51" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C3:E47" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C3:E47">
       <formula1>"n,y"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G51" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G51">
       <formula1>"y,n"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5424,7 +5383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5432,60 +5391,60 @@
       <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.26171875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.26171875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.83984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.68359375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.41796875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.15625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26171875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.41796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.15625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.26171875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.68359375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.578125" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="11.15625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.41796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.83984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.68359375" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.578125" style="6" customWidth="1"/>
     <col min="22" max="22" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.42578125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="9.41796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.83984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.83984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.41796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.41796875" style="6" customWidth="1"/>
     <col min="28" max="28" width="5" style="6" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="6" style="6" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.42578125" style="6" customWidth="1"/>
-    <col min="33" max="33" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.41796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.41796875" style="6" customWidth="1"/>
+    <col min="33" max="33" width="6.41796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.41796875" style="6" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8" style="6" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="8" style="6" customWidth="1"/>
-    <col min="37" max="37" width="5.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.42578125" style="6" customWidth="1"/>
-    <col min="41" max="41" width="11.85546875" style="6" customWidth="1"/>
+    <col min="37" max="37" width="5.83984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.83984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.41796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.41796875" style="6" customWidth="1"/>
+    <col min="41" max="41" width="11.83984375" style="6" customWidth="1"/>
     <col min="42" max="42" width="3" style="6" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="4.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4.83984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6.15625" style="10" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="5.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.68359375" style="6" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.83984375" style="6" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="9" style="6" customWidth="1"/>
     <col min="49" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="34" t="s">
         <v>34</v>
       </c>
@@ -5629,7 +5588,7 @@
       <c r="AX1" s="2"/>
       <c r="AY1" s="2"/>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="34" t="s">
         <v>34</v>
       </c>
@@ -5736,7 +5695,7 @@
       <c r="AX2" s="2"/>
       <c r="AY2" s="2"/>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -5754,7 +5713,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
@@ -5769,7 +5728,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -5790,7 +5749,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -5806,7 +5765,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8" t="s">
         <v>47</v>
       </c>
@@ -5819,7 +5778,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -5837,7 +5796,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
@@ -5852,7 +5811,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
         <v>53</v>
       </c>
@@ -5865,7 +5824,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
@@ -5880,7 +5839,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>57</v>
       </c>
@@ -5902,7 +5861,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>59</v>
       </c>
@@ -5917,7 +5876,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>61</v>
       </c>
@@ -5929,7 +5888,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>63</v>
       </c>
@@ -5944,7 +5903,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>65</v>
       </c>
@@ -5965,7 +5924,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>67</v>
       </c>
@@ -5986,7 +5945,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>69</v>
       </c>
@@ -6001,7 +5960,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="8" t="s">
         <v>71</v>
       </c>
@@ -6022,7 +5981,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>73</v>
       </c>
@@ -6043,7 +6002,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
@@ -6064,7 +6023,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
         <v>77</v>
       </c>
@@ -6080,7 +6039,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="8" t="s">
         <v>79</v>
       </c>
@@ -6101,7 +6060,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
         <v>81</v>
       </c>
@@ -6123,7 +6082,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
         <v>83</v>
       </c>
@@ -6144,7 +6103,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
         <v>85</v>
       </c>
@@ -6160,7 +6119,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="8" t="s">
         <v>87</v>
       </c>
@@ -6178,7 +6137,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
         <v>89</v>
       </c>
@@ -6193,7 +6152,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
         <v>91</v>
       </c>
@@ -6214,7 +6173,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
         <v>93</v>
       </c>
@@ -6235,7 +6194,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
@@ -6251,7 +6210,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="8" t="s">
         <v>97</v>
       </c>
@@ -6272,7 +6231,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
         <v>99</v>
       </c>
@@ -6293,7 +6252,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
         <v>101</v>
       </c>
@@ -6314,7 +6273,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
         <v>103</v>
       </c>
@@ -6330,7 +6289,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="8" t="s">
         <v>105</v>
       </c>
@@ -6351,7 +6310,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="s">
         <v>107</v>
       </c>
@@ -6372,7 +6331,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
         <v>109</v>
       </c>
@@ -6393,7 +6352,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
         <v>111</v>
       </c>
@@ -6409,7 +6368,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="8" t="s">
         <v>113</v>
       </c>
@@ -6427,7 +6386,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2" t="s">
         <v>115</v>
       </c>
@@ -6445,7 +6404,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2" t="s">
         <v>117</v>
       </c>
@@ -6454,7 +6413,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="8" t="s">
         <v>119</v>
       </c>
@@ -6463,7 +6422,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="44" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="8" t="s">
         <v>121</v>
       </c>
@@ -6478,37 +6437,37 @@
         <v>246</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
@@ -6519,32 +6478,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.68359375" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.68359375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.41796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.68359375" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26171875" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.41796875" style="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83984375" style="25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="25" customWidth="1"/>
     <col min="11" max="11" width="50" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="53.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="53.68359375" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="25" customWidth="1"/>
     <col min="14" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -6578,7 +6537,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>250</v>
       </c>
@@ -6601,7 +6560,7 @@
       <c r="I2" s="6"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>253</v>
       </c>
@@ -6624,7 +6583,7 @@
       <c r="I3" s="6"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>256</v>
       </c>
@@ -6646,7 +6605,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>259</v>
       </c>
@@ -6669,7 +6628,7 @@
       <c r="I5" s="6"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>262</v>
       </c>
@@ -6692,7 +6651,7 @@
       <c r="I6" s="6"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>265</v>
       </c>
@@ -6715,7 +6674,7 @@
       <c r="I7" s="6"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="24" t="s">
         <v>268</v>
       </c>
@@ -6739,7 +6698,7 @@
       <c r="K8" s="24"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="24" t="s">
         <v>271</v>
       </c>
@@ -6763,7 +6722,7 @@
       <c r="K9" s="24"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="24" t="s">
         <v>274</v>
       </c>
@@ -6787,7 +6746,7 @@
       <c r="K10" s="24"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="24" t="s">
         <v>277</v>
       </c>
@@ -6811,7 +6770,7 @@
       <c r="K11" s="24"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="24" t="s">
         <v>280</v>
       </c>
@@ -6835,7 +6794,7 @@
       <c r="K12" s="24"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="24" t="s">
         <v>283</v>
       </c>
@@ -6859,7 +6818,7 @@
       <c r="K13" s="24"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="24" t="s">
         <v>286</v>
       </c>
@@ -6879,7 +6838,7 @@
       <c r="K14" s="24"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="24" t="s">
         <v>289</v>
       </c>
@@ -6898,7 +6857,7 @@
       <c r="I15" s="6"/>
       <c r="K15" s="24"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="24" t="s">
         <v>292</v>
       </c>
@@ -6922,7 +6881,7 @@
       <c r="K16" s="24"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="24" t="s">
         <v>295</v>
       </c>
@@ -6946,7 +6905,7 @@
       <c r="K17" s="24"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="24" t="s">
         <v>298</v>
       </c>
@@ -6970,7 +6929,7 @@
       <c r="K18" s="24"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="24" t="s">
         <v>301</v>
       </c>
@@ -6994,7 +6953,7 @@
       <c r="K19" s="24"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="24" t="s">
         <v>304</v>
       </c>
@@ -7018,7 +6977,7 @@
       <c r="K20" s="24"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="24" t="s">
         <v>307</v>
       </c>
@@ -7042,7 +7001,7 @@
       <c r="K21" s="24"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="24" t="s">
         <v>310</v>
       </c>
@@ -7065,7 +7024,7 @@
       <c r="I22" s="6"/>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="24" t="s">
         <v>313</v>
       </c>
@@ -7088,7 +7047,7 @@
       <c r="I23" s="6"/>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="24" t="s">
         <v>316</v>
       </c>
@@ -7107,7 +7066,7 @@
       <c r="I24" s="6"/>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="24" t="s">
         <v>319</v>
       </c>
@@ -7126,7 +7085,7 @@
       <c r="I25" s="6"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="24" t="s">
         <v>322</v>
       </c>
@@ -7145,7 +7104,7 @@
       <c r="I26" s="6"/>
       <c r="K26" s="24"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="24" t="s">
         <v>325</v>
       </c>
@@ -7164,7 +7123,7 @@
       <c r="I27" s="6"/>
       <c r="K27" s="24"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="24" t="s">
         <v>328</v>
       </c>
@@ -7187,7 +7146,7 @@
       <c r="I28" s="6"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="24" t="s">
         <v>331</v>
       </c>
@@ -7206,7 +7165,7 @@
       <c r="I29" s="6"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="24" t="s">
         <v>334</v>
       </c>
@@ -7229,7 +7188,7 @@
       <c r="I30" s="6"/>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="24" t="s">
         <v>337</v>
       </c>
@@ -7249,7 +7208,7 @@
       <c r="K31" s="24"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="24" t="s">
         <v>340</v>
       </c>
@@ -7269,7 +7228,7 @@
       <c r="K32" s="24"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="24" t="s">
         <v>343</v>
       </c>
@@ -7289,7 +7248,7 @@
       <c r="K33" s="24"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="24" t="s">
         <v>346</v>
       </c>
@@ -7309,7 +7268,7 @@
       <c r="K34" s="24"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="24" t="s">
         <v>349</v>
       </c>
@@ -7329,7 +7288,7 @@
       <c r="K35" s="24"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="24" t="s">
         <v>352</v>
       </c>
@@ -7349,7 +7308,7 @@
       <c r="K36" s="24"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="24" t="s">
         <v>355</v>
       </c>
@@ -7372,7 +7331,7 @@
       <c r="K37" s="24"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="24" t="s">
         <v>357</v>
       </c>
@@ -7395,7 +7354,7 @@
       <c r="K38" s="24"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="24" t="s">
         <v>359</v>
       </c>
@@ -7418,7 +7377,7 @@
       <c r="K39" s="24"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="24" t="s">
         <v>361</v>
       </c>
@@ -7441,7 +7400,7 @@
       <c r="K40" s="24"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="24" t="s">
         <v>363</v>
       </c>
@@ -7464,7 +7423,7 @@
       <c r="K41" s="24"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="24" t="s">
         <v>365</v>
       </c>
@@ -7487,7 +7446,7 @@
       <c r="K42" s="24"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="24" t="s">
         <v>367</v>
       </c>
@@ -7510,7 +7469,7 @@
       <c r="K43" s="24"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="24" t="s">
         <v>369</v>
       </c>
@@ -7533,7 +7492,7 @@
       <c r="K44" s="24"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="24" t="s">
         <v>371</v>
       </c>
@@ -7556,7 +7515,7 @@
       <c r="K45" s="24"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="24" t="s">
         <v>373</v>
       </c>
@@ -7579,7 +7538,7 @@
       <c r="K46" s="24"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="24" t="s">
         <v>375</v>
       </c>
@@ -7602,7 +7561,7 @@
       <c r="K47" s="24"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="24" t="s">
         <v>377</v>
       </c>
@@ -7625,7 +7584,7 @@
       <c r="K48" s="24"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="24" t="s">
         <v>379</v>
       </c>
@@ -7648,7 +7607,7 @@
       <c r="K49" s="24"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="24" t="s">
         <v>381</v>
       </c>
@@ -7671,7 +7630,7 @@
       <c r="K50" s="24"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="24" t="s">
         <v>383</v>
       </c>
@@ -7694,7 +7653,7 @@
       <c r="K51" s="24"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="24" t="s">
         <v>385</v>
       </c>
@@ -7717,7 +7676,7 @@
       <c r="K52" s="24"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="24" t="s">
         <v>387</v>
       </c>
@@ -7742,7 +7701,7 @@
       <c r="K53" s="24"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="24" t="s">
         <v>389</v>
       </c>
@@ -7765,7 +7724,7 @@
       <c r="K54" s="24"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="24" t="s">
         <v>391</v>
       </c>
@@ -7788,7 +7747,7 @@
       <c r="K55" s="24"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="24" t="s">
         <v>393</v>
       </c>
@@ -7813,7 +7772,7 @@
       <c r="K56" s="24"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="24" t="s">
         <v>395</v>
       </c>
@@ -7837,7 +7796,7 @@
       <c r="K57" s="24"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="24" t="s">
         <v>398</v>
       </c>
@@ -7861,7 +7820,7 @@
       <c r="K58" s="24"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="24" t="s">
         <v>401</v>
       </c>
@@ -7885,7 +7844,7 @@
       <c r="K59" s="24"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="24" t="s">
         <v>404</v>
       </c>
@@ -7904,7 +7863,7 @@
       <c r="I60" s="6"/>
       <c r="K60" s="24"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="24" t="s">
         <v>407</v>
       </c>
@@ -7923,7 +7882,7 @@
       <c r="I61" s="6"/>
       <c r="K61" s="24"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="24" t="s">
         <v>410</v>
       </c>
@@ -7942,7 +7901,7 @@
       <c r="I62" s="6"/>
       <c r="K62" s="24"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="24" t="s">
         <v>413</v>
       </c>
@@ -7966,7 +7925,7 @@
       <c r="K63" s="24"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="24" t="s">
         <v>416</v>
       </c>
@@ -7990,7 +7949,7 @@
       <c r="K64" s="24"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="24" t="s">
         <v>419</v>
       </c>
@@ -8014,7 +7973,7 @@
       <c r="K65" s="24"/>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="24" t="s">
         <v>422</v>
       </c>
@@ -8034,7 +7993,7 @@
       <c r="K66" s="24"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="24" t="s">
         <v>425</v>
       </c>
@@ -8057,7 +8016,7 @@
       <c r="I67" s="6"/>
       <c r="K67" s="24"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>427</v>
       </c>
@@ -8079,7 +8038,7 @@
       <c r="I68" s="6"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="24" t="s">
         <v>429</v>
       </c>
@@ -8101,30 +8060,30 @@
       <c r="K69" s="24"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="G70" s="6"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="G71" s="6"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="G72" s="6"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="G74" s="6"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="G76" s="6"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G76" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G76">
       <formula1>"y,n"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8134,23 +8093,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.15625" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.68359375" style="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="25" customWidth="1"/>
     <col min="5" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -8161,7 +8120,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>431</v>
       </c>
@@ -8179,34 +8138,34 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:L180"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="G181" sqref="G181"/>
+      <selection pane="topRight" activeCell="G176" sqref="G176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="21" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.15625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.68359375" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83984375" style="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="85.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="85.26171875" style="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="25" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="37" customWidth="1"/>
+    <col min="9" max="9" width="24.68359375" style="37" customWidth="1"/>
     <col min="10" max="10" width="13" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83984375" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.26171875" style="25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="25" customWidth="1"/>
     <col min="14" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -8244,7 +8203,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="18" t="s">
         <v>438</v>
       </c>
@@ -8271,7 +8230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="18" t="s">
         <v>442</v>
       </c>
@@ -8298,7 +8257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="18" t="s">
         <v>444</v>
       </c>
@@ -8328,7 +8287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="18" t="s">
         <v>446</v>
       </c>
@@ -8358,7 +8317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="18" t="s">
         <v>448</v>
       </c>
@@ -8387,7 +8346,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="19" t="s">
         <v>450</v>
       </c>
@@ -8416,7 +8375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="19" t="s">
         <v>452</v>
       </c>
@@ -8445,7 +8404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="19" t="s">
         <v>454</v>
       </c>
@@ -8474,7 +8433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>177</v>
       </c>
@@ -8503,7 +8462,7 @@
       </c>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>178</v>
       </c>
@@ -8532,7 +8491,7 @@
       </c>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>179</v>
       </c>
@@ -8561,7 +8520,7 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>180</v>
       </c>
@@ -8590,7 +8549,7 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
         <v>181</v>
       </c>
@@ -8619,7 +8578,7 @@
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4" t="s">
         <v>211</v>
       </c>
@@ -8648,7 +8607,7 @@
       </c>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
         <v>212</v>
       </c>
@@ -8677,7 +8636,7 @@
       </c>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4" t="s">
         <v>213</v>
       </c>
@@ -8706,7 +8665,7 @@
       </c>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4" t="s">
         <v>465</v>
       </c>
@@ -8733,7 +8692,7 @@
       </c>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
         <v>468</v>
       </c>
@@ -8758,7 +8717,7 @@
       </c>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4" t="s">
         <v>470</v>
       </c>
@@ -8783,7 +8742,7 @@
       </c>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4" t="s">
         <v>472</v>
       </c>
@@ -8810,7 +8769,7 @@
       </c>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
         <v>474</v>
       </c>
@@ -8835,7 +8794,7 @@
       </c>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4" t="s">
         <v>476</v>
       </c>
@@ -8860,7 +8819,7 @@
       </c>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4" t="s">
         <v>478</v>
       </c>
@@ -8885,7 +8844,7 @@
       </c>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="19" t="s">
         <v>131</v>
       </c>
@@ -8915,7 +8874,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="19" t="s">
         <v>132</v>
       </c>
@@ -8945,7 +8904,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="19" t="s">
         <v>133</v>
       </c>
@@ -8975,7 +8934,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="19" t="s">
         <v>134</v>
       </c>
@@ -9005,7 +8964,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="19" t="s">
         <v>136</v>
       </c>
@@ -9035,7 +8994,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="19" t="s">
         <v>137</v>
       </c>
@@ -9065,7 +9024,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="19" t="s">
         <v>138</v>
       </c>
@@ -9095,7 +9054,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="19" t="s">
         <v>139</v>
       </c>
@@ -9125,7 +9084,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="19" t="s">
         <v>140</v>
       </c>
@@ -9155,7 +9114,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="19" t="s">
         <v>141</v>
       </c>
@@ -9185,7 +9144,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="19" t="s">
         <v>142</v>
       </c>
@@ -9215,7 +9174,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="19" t="s">
         <v>143</v>
       </c>
@@ -9245,7 +9204,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="19" t="s">
         <v>144</v>
       </c>
@@ -9275,7 +9234,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="19" t="s">
         <v>145</v>
       </c>
@@ -9305,7 +9264,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="19" t="s">
         <v>146</v>
       </c>
@@ -9335,7 +9294,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="19" t="s">
         <v>147</v>
       </c>
@@ -9365,7 +9324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="19" t="s">
         <v>148</v>
       </c>
@@ -9395,7 +9354,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="19" t="s">
         <v>149</v>
       </c>
@@ -9425,7 +9384,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="19" t="s">
         <v>150</v>
       </c>
@@ -9455,7 +9414,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="19" t="s">
         <v>151</v>
       </c>
@@ -9485,7 +9444,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="19" t="s">
         <v>152</v>
       </c>
@@ -9515,7 +9474,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="19" t="s">
         <v>153</v>
       </c>
@@ -9545,7 +9504,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="19" t="s">
         <v>154</v>
       </c>
@@ -9575,7 +9534,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="19" t="s">
         <v>155</v>
       </c>
@@ -9605,7 +9564,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="19" t="s">
         <v>156</v>
       </c>
@@ -9635,7 +9594,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="19" t="s">
         <v>130</v>
       </c>
@@ -9665,7 +9624,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="19" t="s">
         <v>129</v>
       </c>
@@ -9695,7 +9654,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="19" t="s">
         <v>135</v>
       </c>
@@ -9725,7 +9684,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="6" t="s">
         <v>242</v>
       </c>
@@ -9752,7 +9711,7 @@
       </c>
       <c r="K53" s="6"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="6" t="s">
         <v>159</v>
       </c>
@@ -9779,7 +9738,7 @@
       </c>
       <c r="K54" s="6"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="6" t="s">
         <v>243</v>
       </c>
@@ -9808,7 +9767,7 @@
       </c>
       <c r="K55" s="6"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="6" t="s">
         <v>160</v>
       </c>
@@ -9837,7 +9796,7 @@
       </c>
       <c r="K56" s="6"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="6" t="s">
         <v>157</v>
       </c>
@@ -9861,7 +9820,7 @@
       </c>
       <c r="K57" s="6"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="6" t="s">
         <v>543</v>
       </c>
@@ -9887,7 +9846,7 @@
       </c>
       <c r="K58" s="6"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="6" t="s">
         <v>545</v>
       </c>
@@ -9913,7 +9872,7 @@
       </c>
       <c r="K59" s="6"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="6" t="s">
         <v>547</v>
       </c>
@@ -9939,7 +9898,7 @@
       </c>
       <c r="K60" s="6"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="6" t="s">
         <v>550</v>
       </c>
@@ -9967,7 +9926,7 @@
       </c>
       <c r="K61" s="6"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="6" t="s">
         <v>552</v>
       </c>
@@ -9995,7 +9954,7 @@
       </c>
       <c r="K62" s="6"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="6" t="s">
         <v>165</v>
       </c>
@@ -10019,7 +9978,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="6" t="s">
         <v>162</v>
       </c>
@@ -10043,7 +10002,7 @@
       <c r="J64" s="4"/>
       <c r="K64" s="6"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="6" t="s">
         <v>173</v>
       </c>
@@ -10067,7 +10026,7 @@
       <c r="J65" s="4"/>
       <c r="K65" s="6"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="6" t="s">
         <v>168</v>
       </c>
@@ -10093,7 +10052,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="26" t="s">
         <v>167</v>
       </c>
@@ -10121,7 +10080,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="26" t="s">
         <v>166</v>
       </c>
@@ -10149,7 +10108,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="26" t="s">
         <v>171</v>
       </c>
@@ -10177,7 +10136,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="26" t="s">
         <v>170</v>
       </c>
@@ -10205,7 +10164,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="6" t="s">
         <v>567</v>
       </c>
@@ -10234,7 +10193,7 @@
       </c>
       <c r="K71" s="6"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="6" t="s">
         <v>569</v>
       </c>
@@ -10263,7 +10222,7 @@
       </c>
       <c r="K72" s="6"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="6" t="s">
         <v>571</v>
       </c>
@@ -10290,7 +10249,7 @@
       </c>
       <c r="K73" s="6"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="4" t="s">
         <v>163</v>
       </c>
@@ -10318,7 +10277,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="4" t="s">
         <v>174</v>
       </c>
@@ -10346,7 +10305,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="4" t="s">
         <v>164</v>
       </c>
@@ -10374,7 +10333,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="4" t="s">
         <v>175</v>
       </c>
@@ -10402,7 +10361,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="4" t="s">
         <v>169</v>
       </c>
@@ -10430,7 +10389,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="4" t="s">
         <v>176</v>
       </c>
@@ -10458,7 +10417,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="4" t="s">
         <v>581</v>
       </c>
@@ -10482,7 +10441,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="4" t="s">
         <v>584</v>
       </c>
@@ -10506,7 +10465,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="4" t="s">
         <v>587</v>
       </c>
@@ -10530,7 +10489,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="4" t="s">
         <v>590</v>
       </c>
@@ -10554,7 +10513,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="4" t="s">
         <v>593</v>
       </c>
@@ -10578,7 +10537,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="4" t="s">
         <v>596</v>
       </c>
@@ -10602,7 +10561,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="4" t="s">
         <v>599</v>
       </c>
@@ -10626,7 +10585,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="4" t="s">
         <v>602</v>
       </c>
@@ -10650,7 +10609,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="4" t="s">
         <v>605</v>
       </c>
@@ -10673,7 +10632,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="6" t="s">
         <v>158</v>
       </c>
@@ -10701,7 +10660,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="6" t="s">
         <v>161</v>
       </c>
@@ -10729,7 +10688,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="6" t="s">
         <v>172</v>
       </c>
@@ -10757,7 +10716,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="6" t="s">
         <v>241</v>
       </c>
@@ -10788,7 +10747,7 @@
       </c>
       <c r="K92" s="6"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="6" t="s">
         <v>240</v>
       </c>
@@ -10816,7 +10775,7 @@
       </c>
       <c r="K93" s="6"/>
     </row>
-    <row r="94" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="11" t="s">
         <v>245</v>
       </c>
@@ -10844,7 +10803,7 @@
       </c>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
         <v>617</v>
       </c>
@@ -10872,7 +10831,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="11" t="s">
         <v>620</v>
       </c>
@@ -10900,7 +10859,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="11" t="s">
         <v>246</v>
       </c>
@@ -10927,7 +10886,7 @@
       </c>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
         <v>244</v>
       </c>
@@ -10955,7 +10914,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="18" t="s">
         <v>182</v>
       </c>
@@ -10979,7 +10938,7 @@
       </c>
       <c r="K99" s="19"/>
     </row>
-    <row r="100" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="18" t="s">
         <v>192</v>
       </c>
@@ -11003,7 +10962,7 @@
       </c>
       <c r="K100" s="19"/>
     </row>
-    <row r="101" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="18" t="s">
         <v>202</v>
       </c>
@@ -11027,7 +10986,7 @@
       </c>
       <c r="K101" s="19"/>
     </row>
-    <row r="102" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="18" t="s">
         <v>214</v>
       </c>
@@ -11051,7 +11010,7 @@
       </c>
       <c r="K102" s="19"/>
     </row>
-    <row r="103" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="18" t="s">
         <v>223</v>
       </c>
@@ -11075,7 +11034,7 @@
       </c>
       <c r="K103" s="19"/>
     </row>
-    <row r="104" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="18" t="s">
         <v>232</v>
       </c>
@@ -11099,7 +11058,7 @@
       </c>
       <c r="K104" s="19"/>
     </row>
-    <row r="105" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="18" t="s">
         <v>632</v>
       </c>
@@ -11124,7 +11083,7 @@
       </c>
       <c r="K105" s="19"/>
     </row>
-    <row r="106" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="18" t="s">
         <v>185</v>
       </c>
@@ -11149,7 +11108,7 @@
       <c r="J106" s="19"/>
       <c r="K106" s="19"/>
     </row>
-    <row r="107" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="18" t="s">
         <v>217</v>
       </c>
@@ -11174,7 +11133,7 @@
       <c r="J107" s="19"/>
       <c r="K107" s="19"/>
     </row>
-    <row r="108" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="18" t="s">
         <v>637</v>
       </c>
@@ -11201,7 +11160,7 @@
       </c>
       <c r="K108" s="19"/>
     </row>
-    <row r="109" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="18" t="s">
         <v>639</v>
       </c>
@@ -11230,7 +11189,7 @@
       </c>
       <c r="K109" s="19"/>
     </row>
-    <row r="110" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="18" t="s">
         <v>641</v>
       </c>
@@ -11259,7 +11218,7 @@
       </c>
       <c r="K110" s="19"/>
     </row>
-    <row r="111" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="18" t="s">
         <v>643</v>
       </c>
@@ -11288,7 +11247,7 @@
       </c>
       <c r="K111" s="19"/>
     </row>
-    <row r="112" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="18" t="s">
         <v>645</v>
       </c>
@@ -11317,7 +11276,7 @@
       </c>
       <c r="K112" s="19"/>
     </row>
-    <row r="113" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="18" t="s">
         <v>647</v>
       </c>
@@ -11346,7 +11305,7 @@
       </c>
       <c r="K113" s="19"/>
     </row>
-    <row r="114" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="18" t="s">
         <v>186</v>
       </c>
@@ -11370,7 +11329,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="115" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="29" t="s">
         <v>187</v>
       </c>
@@ -11398,7 +11357,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="116" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="29" t="s">
         <v>188</v>
       </c>
@@ -11426,7 +11385,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="29" t="s">
         <v>189</v>
       </c>
@@ -11454,7 +11413,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="118" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="29" t="s">
         <v>190</v>
       </c>
@@ -11482,7 +11441,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="29" t="s">
         <v>191</v>
       </c>
@@ -11510,7 +11469,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="120" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="29" t="s">
         <v>218</v>
       </c>
@@ -11538,7 +11497,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="121" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="29" t="s">
         <v>219</v>
       </c>
@@ -11566,7 +11525,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="29" t="s">
         <v>220</v>
       </c>
@@ -11594,7 +11553,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="123" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="29" t="s">
         <v>221</v>
       </c>
@@ -11622,7 +11581,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="124" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="29" t="s">
         <v>222</v>
       </c>
@@ -11650,7 +11609,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="125" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="18" t="s">
         <v>661</v>
       </c>
@@ -11675,7 +11634,7 @@
       </c>
       <c r="K125" s="19"/>
     </row>
-    <row r="126" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="18" t="s">
         <v>195</v>
       </c>
@@ -11700,7 +11659,7 @@
       <c r="J126" s="19"/>
       <c r="K126" s="19"/>
     </row>
-    <row r="127" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="18" t="s">
         <v>226</v>
       </c>
@@ -11725,7 +11684,7 @@
       <c r="J127" s="19"/>
       <c r="K127" s="19"/>
     </row>
-    <row r="128" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="18" t="s">
         <v>667</v>
       </c>
@@ -11752,7 +11711,7 @@
       </c>
       <c r="K128" s="19"/>
     </row>
-    <row r="129" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="18" t="s">
         <v>669</v>
       </c>
@@ -11781,7 +11740,7 @@
       </c>
       <c r="K129" s="19"/>
     </row>
-    <row r="130" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="18" t="s">
         <v>671</v>
       </c>
@@ -11810,7 +11769,7 @@
       </c>
       <c r="K130" s="19"/>
     </row>
-    <row r="131" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="18" t="s">
         <v>673</v>
       </c>
@@ -11839,7 +11798,7 @@
       </c>
       <c r="K131" s="19"/>
     </row>
-    <row r="132" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="18" t="s">
         <v>675</v>
       </c>
@@ -11868,7 +11827,7 @@
       </c>
       <c r="K132" s="19"/>
     </row>
-    <row r="133" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="18" t="s">
         <v>677</v>
       </c>
@@ -11897,7 +11856,7 @@
       </c>
       <c r="K133" s="19"/>
     </row>
-    <row r="134" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="18" t="s">
         <v>196</v>
       </c>
@@ -11921,7 +11880,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="135" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="29" t="s">
         <v>197</v>
       </c>
@@ -11949,7 +11908,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="136" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="29" t="s">
         <v>198</v>
       </c>
@@ -11977,7 +11936,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="137" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="29" t="s">
         <v>199</v>
       </c>
@@ -12005,7 +11964,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="138" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="29" t="s">
         <v>200</v>
       </c>
@@ -12033,7 +11992,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="29" t="s">
         <v>201</v>
       </c>
@@ -12061,7 +12020,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="140" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="29" t="s">
         <v>227</v>
       </c>
@@ -12089,7 +12048,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="141" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="29" t="s">
         <v>228</v>
       </c>
@@ -12117,7 +12076,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="142" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="29" t="s">
         <v>229</v>
       </c>
@@ -12145,7 +12104,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="143" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="29" t="s">
         <v>230</v>
       </c>
@@ -12173,7 +12132,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="29" t="s">
         <v>231</v>
       </c>
@@ -12201,7 +12160,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="145" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="20" t="s">
         <v>691</v>
       </c>
@@ -12226,7 +12185,7 @@
       </c>
       <c r="K145" s="22"/>
     </row>
-    <row r="146" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="18" t="s">
         <v>205</v>
       </c>
@@ -12251,7 +12210,7 @@
       <c r="J146" s="19"/>
       <c r="K146" s="19"/>
     </row>
-    <row r="147" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="18" t="s">
         <v>235</v>
       </c>
@@ -12276,7 +12235,7 @@
       <c r="J147" s="19"/>
       <c r="K147" s="19"/>
     </row>
-    <row r="148" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="20" t="s">
         <v>697</v>
       </c>
@@ -12303,7 +12262,7 @@
       </c>
       <c r="K148" s="22"/>
     </row>
-    <row r="149" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="20" t="s">
         <v>699</v>
       </c>
@@ -12332,7 +12291,7 @@
       </c>
       <c r="K149" s="22"/>
     </row>
-    <row r="150" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="20" t="s">
         <v>701</v>
       </c>
@@ -12361,7 +12320,7 @@
       </c>
       <c r="K150" s="22"/>
     </row>
-    <row r="151" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="20" t="s">
         <v>703</v>
       </c>
@@ -12390,7 +12349,7 @@
       </c>
       <c r="K151" s="22"/>
     </row>
-    <row r="152" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="20" t="s">
         <v>705</v>
       </c>
@@ -12419,7 +12378,7 @@
       </c>
       <c r="K152" s="22"/>
     </row>
-    <row r="153" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="20" t="s">
         <v>206</v>
       </c>
@@ -12444,7 +12403,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="29" t="s">
         <v>207</v>
       </c>
@@ -12472,7 +12431,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="155" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="29" t="s">
         <v>208</v>
       </c>
@@ -12500,7 +12459,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="156" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="29" t="s">
         <v>209</v>
       </c>
@@ -12528,7 +12487,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="157" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="29" t="s">
         <v>210</v>
       </c>
@@ -12556,7 +12515,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="158" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="29" t="s">
         <v>236</v>
       </c>
@@ -12584,7 +12543,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="159" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="29" t="s">
         <v>237</v>
       </c>
@@ -12612,7 +12571,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="160" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="29" t="s">
         <v>238</v>
       </c>
@@ -12640,7 +12599,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="161" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="29" t="s">
         <v>239</v>
       </c>
@@ -12668,7 +12627,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="4" t="s">
         <v>183</v>
       </c>
@@ -12696,7 +12655,7 @@
       </c>
       <c r="K162" s="6"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="4" t="s">
         <v>193</v>
       </c>
@@ -12724,7 +12683,7 @@
       </c>
       <c r="K163" s="6"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="4" t="s">
         <v>203</v>
       </c>
@@ -12752,7 +12711,7 @@
       </c>
       <c r="K164" s="6"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="4" t="s">
         <v>215</v>
       </c>
@@ -12780,7 +12739,7 @@
       </c>
       <c r="K165" s="6"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="4" t="s">
         <v>224</v>
       </c>
@@ -12808,7 +12767,7 @@
       </c>
       <c r="K166" s="6"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="4" t="s">
         <v>233</v>
       </c>
@@ -12836,7 +12795,7 @@
       </c>
       <c r="K167" s="6"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="4" t="s">
         <v>184</v>
       </c>
@@ -12864,7 +12823,7 @@
       </c>
       <c r="K168" s="6"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="4" t="s">
         <v>194</v>
       </c>
@@ -12892,7 +12851,7 @@
       </c>
       <c r="K169" s="6"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="4" t="s">
         <v>204</v>
       </c>
@@ -12920,7 +12879,7 @@
       </c>
       <c r="K170" s="6"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="4" t="s">
         <v>216</v>
       </c>
@@ -12948,7 +12907,7 @@
       </c>
       <c r="K171" s="6"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="4" t="s">
         <v>225</v>
       </c>
@@ -12976,7 +12935,7 @@
       </c>
       <c r="K172" s="6"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="4" t="s">
         <v>234</v>
       </c>
@@ -13004,18 +12963,18 @@
       </c>
       <c r="K173" s="6"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C174" s="1"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
       <c r="I174" s="36"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="4" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="D175" s="6">
         <v>1</v>
@@ -13027,94 +12986,77 @@
         <v>807</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C176" s="25" t="s">
         <v>813</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="D176" s="6">
-        <v>1</v>
-      </c>
+      <c r="D176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
+      <c r="G176" t="s">
+        <v>822</v>
+      </c>
       <c r="I176" s="36"/>
-      <c r="J176" s="19" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="4" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="C177" s="25" t="s">
-        <v>818</v>
-      </c>
-      <c r="D177" s="6"/>
+        <v>810</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="D177" s="6">
+        <v>30</v>
+      </c>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
-      <c r="G177" t="s">
-        <v>816</v>
-      </c>
       <c r="I177" s="36"/>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J177" s="19" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="4" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>811</v>
-      </c>
-      <c r="D178" s="6">
-        <v>30</v>
+        <v>817</v>
+      </c>
+      <c r="C178" s="25" t="s">
+        <v>813</v>
       </c>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
+      <c r="G178" s="25" t="s">
+        <v>812</v>
+      </c>
       <c r="I178" s="36"/>
-      <c r="J178" s="19" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="4" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="C179" s="25" t="s">
-        <v>818</v>
-      </c>
-      <c r="E179" s="6"/>
-      <c r="F179" s="6"/>
+        <v>813</v>
+      </c>
       <c r="G179" s="25" t="s">
-        <v>817</v>
-      </c>
-      <c r="I179" s="36"/>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="C180" s="25" t="s">
-        <v>818</v>
-      </c>
-      <c r="G180" s="25" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H128:H145 H148:H1048576 H67:H125 H1:H65">
+  <conditionalFormatting sqref="H128:H145 H67:H125 H1:H65 H148:H1048576">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",H1)))</formula>
     </cfRule>
@@ -13135,11 +13077,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I174:I179" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H2:H173">
+      <formula1>"n,y"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I174:I178">
       <formula1>"y,n"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H2:H173" xr:uid="{00000000-0002-0000-0600-000001000000}">
-      <formula1>"n,y"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13149,20 +13091,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.83984375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83984375" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>729</v>
       </c>
@@ -13170,7 +13112,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>731</v>
       </c>
@@ -13178,7 +13120,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>732</v>
       </c>
@@ -13186,7 +13128,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>733</v>
       </c>
@@ -13194,7 +13136,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>734</v>
       </c>
@@ -13202,7 +13144,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>735</v>
       </c>
@@ -13210,7 +13152,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>732</v>
       </c>
@@ -13218,7 +13160,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>733</v>
       </c>
@@ -13226,7 +13168,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>738</v>
       </c>
@@ -13235,7 +13177,7 @@
       </c>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>739</v>
       </c>
@@ -13244,7 +13186,7 @@
       </c>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>732</v>
       </c>
@@ -13253,7 +13195,7 @@
       </c>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>733</v>
       </c>
@@ -13262,16 +13204,16 @@
       </c>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" s="24"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="4"/>
     </row>
   </sheetData>
@@ -13281,21 +13223,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.15625" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="25" customWidth="1"/>
-    <col min="3" max="3" width="104.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104.26171875" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13309,7 +13251,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>335</v>
       </c>
@@ -13323,7 +13265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>746</v>
       </c>
@@ -13337,7 +13279,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>731</v>
       </c>
@@ -13351,7 +13293,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>747</v>
       </c>
@@ -13365,7 +13307,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>748</v>
       </c>
@@ -13379,7 +13321,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>749</v>
       </c>
@@ -13393,7 +13335,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>750</v>
       </c>
@@ -13407,7 +13349,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>752</v>
       </c>
@@ -13421,7 +13363,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>754</v>
       </c>
@@ -13435,7 +13377,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>755</v>
       </c>
@@ -13449,7 +13391,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>756</v>
       </c>
@@ -13463,7 +13405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>758</v>
       </c>
@@ -13477,7 +13419,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -13491,7 +13433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>760</v>
       </c>
@@ -13505,7 +13447,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>761</v>
       </c>
@@ -13519,7 +13461,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>763</v>
       </c>
@@ -13533,7 +13475,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>764</v>
       </c>
@@ -13547,7 +13489,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>765</v>
       </c>
@@ -13561,7 +13503,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>766</v>
       </c>
@@ -13575,7 +13517,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>768</v>
       </c>
@@ -13589,7 +13531,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>770</v>
       </c>
@@ -13603,7 +13545,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>772</v>
       </c>
@@ -13617,7 +13559,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>774</v>
       </c>
@@ -13631,7 +13573,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>776</v>
       </c>
@@ -13645,7 +13587,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>778</v>
       </c>
@@ -13659,7 +13601,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>780</v>
       </c>
@@ -13673,7 +13615,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>782</v>
       </c>

--- a/atomica/library/tb_framework.xlsx
+++ b/atomica/library/tb_framework.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Optima\Optima TB\Applications\Indonesia\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -4345,7 +4345,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4355,12 +4355,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -4395,7 +4389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4432,9 +4426,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4448,6 +4439,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4458,27 +4470,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4494,8 +4485,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4929,9 +4920,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5158,10 +5149,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="9" style="25" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="25"/>
+    <col min="1" max="1" width="25.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9" style="24" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -5284,16 +5275,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="94" style="25" customWidth="1"/>
+    <col min="10" max="10" width="94" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5328,125 +5319,125 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="41" t="s">
+      <c r="C2" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="40">
         <v>1</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="40" t="s">
+      <c r="I2" s="40"/>
+      <c r="J2" s="39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="17">
-        <v>0</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="C3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="17">
-        <v>0</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="C4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="17">
-        <v>0</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="C5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="C6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -5471,51 +5462,51 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="17">
-        <v>0</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="C8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="17">
-        <v>0</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="C9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
@@ -5540,28 +5531,28 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="17">
-        <v>0</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="C11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -6188,74 +6179,74 @@
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+    <row r="41" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F41" s="17">
-        <v>0</v>
-      </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-    </row>
-    <row r="42" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+      <c r="C41" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="16">
+        <v>0</v>
+      </c>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+    </row>
+    <row r="42" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F42" s="17">
-        <v>0</v>
-      </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-    </row>
-    <row r="43" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="D42" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="16">
+        <v>0</v>
+      </c>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+    </row>
+    <row r="43" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F43" s="17">
-        <v>0</v>
-      </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
+      <c r="D43" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="16">
+        <v>0</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
     </row>
     <row r="44" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
@@ -6374,9 +6365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M30" sqref="M30"/>
+      <selection pane="topRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6432,7 +6423,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -6576,99 +6567,99 @@
       <c r="AY1" s="2"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19" t="s">
+      <c r="J2" s="18"/>
+      <c r="K2" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19" t="s">
+      <c r="S2" s="18"/>
+      <c r="T2" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19" t="s">
+      <c r="W2" s="18"/>
+      <c r="X2" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Y2" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="Z2" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="AA2" s="19"/>
-      <c r="AC2" s="19" t="s">
+      <c r="AA2" s="18"/>
+      <c r="AC2" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="AD2" s="19" t="s">
+      <c r="AD2" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="AE2" s="19" t="s">
+      <c r="AE2" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19" t="s">
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="AH2" s="19" t="s">
+      <c r="AH2" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="AI2" s="19" t="s">
+      <c r="AI2" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19" t="s">
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="AL2" s="19" t="s">
+      <c r="AL2" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="AM2" s="19" t="s">
+      <c r="AM2" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19" t="s">
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18" t="s">
         <v>156</v>
       </c>
       <c r="AP2" s="2"/>
@@ -6757,12 +6748,11 @@
         <v>47</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="G7" s="14"/>
+      <c r="E7" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="K7" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
@@ -6803,12 +6793,11 @@
         <v>53</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="H10" s="14"/>
+      <c r="H10" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="K10" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
@@ -7474,20 +7463,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="25" customWidth="1"/>
-    <col min="11" max="11" width="50" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="24" customWidth="1"/>
+    <col min="11" max="11" width="50" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="53.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="25" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="25"/>
+    <col min="13" max="13" width="9" style="24" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -7662,10 +7651,10 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>269</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -7682,14 +7671,14 @@
         <v>18</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="K8" s="24"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>272</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -7706,14 +7695,14 @@
         <v>18</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="K9" s="24"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>275</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -7730,14 +7719,14 @@
         <v>18</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="K10" s="24"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>278</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -7754,14 +7743,14 @@
         <v>18</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="K11" s="24"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>281</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -7778,14 +7767,14 @@
         <v>18</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="K12" s="24"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>284</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -7802,14 +7791,14 @@
         <v>18</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="K13" s="24"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>287</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -7822,14 +7811,14 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="K14" s="24"/>
+      <c r="K14" s="23"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>290</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -7842,13 +7831,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="K15" s="24"/>
+      <c r="K15" s="23"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>293</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -7865,14 +7854,14 @@
         <v>18</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="K16" s="24"/>
+      <c r="K16" s="23"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>296</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -7889,14 +7878,14 @@
         <v>18</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="K17" s="24"/>
+      <c r="K17" s="23"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>299</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -7913,14 +7902,14 @@
         <v>18</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="K18" s="24"/>
+      <c r="K18" s="23"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>302</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -7937,14 +7926,14 @@
         <v>18</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="K19" s="24"/>
+      <c r="K19" s="23"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>305</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -7961,14 +7950,14 @@
         <v>18</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="K20" s="24"/>
+      <c r="K20" s="23"/>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>308</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -7985,14 +7974,14 @@
         <v>18</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="K21" s="24"/>
+      <c r="K21" s="23"/>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>311</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -8009,13 +7998,13 @@
         <v>18</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="K22" s="24"/>
+      <c r="K22" s="23"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>314</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -8032,13 +8021,13 @@
         <v>18</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="K23" s="24"/>
+      <c r="K23" s="23"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>317</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -8051,13 +8040,13 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="K24" s="24"/>
+      <c r="K24" s="23"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>320</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -8070,13 +8059,13 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="K25" s="24"/>
+      <c r="K25" s="23"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>323</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -8089,13 +8078,13 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-      <c r="K26" s="24"/>
+      <c r="K26" s="23"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>326</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -8108,13 +8097,13 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="K27" s="24"/>
+      <c r="K27" s="23"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>329</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -8131,13 +8120,13 @@
         <v>18</v>
       </c>
       <c r="I28" s="6"/>
-      <c r="K28" s="24"/>
+      <c r="K28" s="23"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>332</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -8150,13 +8139,13 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="K29" s="24"/>
+      <c r="K29" s="23"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="23" t="s">
         <v>335</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -8173,13 +8162,13 @@
         <v>6</v>
       </c>
       <c r="I30" s="6"/>
-      <c r="K30" s="24"/>
+      <c r="K30" s="23"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="23" t="s">
         <v>338</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -8192,14 +8181,14 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-      <c r="K31" s="24"/>
+      <c r="K31" s="23"/>
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="23" t="s">
         <v>341</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -8212,14 +8201,14 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="K32" s="24"/>
+      <c r="K32" s="23"/>
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="23" t="s">
         <v>344</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -8232,14 +8221,14 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="K33" s="24"/>
+      <c r="K33" s="23"/>
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="23" t="s">
         <v>347</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -8252,14 +8241,14 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="K34" s="24"/>
+      <c r="K34" s="23"/>
       <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="23" t="s">
         <v>350</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -8272,14 +8261,14 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-      <c r="K35" s="24"/>
+      <c r="K35" s="23"/>
       <c r="L35" s="4"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="23" t="s">
         <v>353</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -8292,14 +8281,14 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
-      <c r="K36" s="24"/>
+      <c r="K36" s="23"/>
       <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="23" t="s">
         <v>356</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -8315,14 +8304,14 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-      <c r="K37" s="24"/>
+      <c r="K37" s="23"/>
       <c r="L37" s="4"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="23" t="s">
         <v>358</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -8338,14 +8327,14 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
-      <c r="K38" s="24"/>
+      <c r="K38" s="23"/>
       <c r="L38" s="4"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="23" t="s">
         <v>360</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -8361,14 +8350,14 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
-      <c r="K39" s="24"/>
+      <c r="K39" s="23"/>
       <c r="L39" s="4"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="23" t="s">
         <v>362</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -8384,14 +8373,14 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
-      <c r="K40" s="24"/>
+      <c r="K40" s="23"/>
       <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="23" t="s">
         <v>364</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -8407,14 +8396,14 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
-      <c r="K41" s="24"/>
+      <c r="K41" s="23"/>
       <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="23" t="s">
         <v>366</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -8430,14 +8419,14 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
-      <c r="K42" s="24"/>
+      <c r="K42" s="23"/>
       <c r="L42" s="4"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="23" t="s">
         <v>368</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -8453,14 +8442,14 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
-      <c r="K43" s="24"/>
+      <c r="K43" s="23"/>
       <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="23" t="s">
         <v>370</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -8476,14 +8465,14 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
-      <c r="K44" s="24"/>
+      <c r="K44" s="23"/>
       <c r="L44" s="4"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="23" t="s">
         <v>372</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -8499,14 +8488,14 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
-      <c r="K45" s="24"/>
+      <c r="K45" s="23"/>
       <c r="L45" s="4"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="23" t="s">
         <v>374</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -8522,14 +8511,14 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
-      <c r="K46" s="24"/>
+      <c r="K46" s="23"/>
       <c r="L46" s="4"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="23" t="s">
         <v>376</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -8545,14 +8534,14 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
-      <c r="K47" s="24"/>
+      <c r="K47" s="23"/>
       <c r="L47" s="4"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="23" t="s">
         <v>378</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -8568,14 +8557,14 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
-      <c r="K48" s="24"/>
+      <c r="K48" s="23"/>
       <c r="L48" s="4"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="23" t="s">
         <v>380</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -8591,14 +8580,14 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
-      <c r="K49" s="24"/>
+      <c r="K49" s="23"/>
       <c r="L49" s="4"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="23" t="s">
         <v>382</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -8614,14 +8603,14 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
-      <c r="K50" s="24"/>
+      <c r="K50" s="23"/>
       <c r="L50" s="4"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="23" t="s">
         <v>384</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -8637,14 +8626,14 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
-      <c r="K51" s="24"/>
+      <c r="K51" s="23"/>
       <c r="L51" s="4"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="23" t="s">
         <v>386</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -8660,14 +8649,14 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
-      <c r="K52" s="24"/>
+      <c r="K52" s="23"/>
       <c r="L52" s="4"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="23" t="s">
         <v>388</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -8685,14 +8674,14 @@
         <v>18</v>
       </c>
       <c r="I53" s="6"/>
-      <c r="K53" s="24"/>
+      <c r="K53" s="23"/>
       <c r="L53" s="4"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="23" t="s">
         <v>390</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -8708,14 +8697,14 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
-      <c r="K54" s="24"/>
+      <c r="K54" s="23"/>
       <c r="L54" s="4"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="23" t="s">
         <v>392</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -8731,14 +8720,14 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
-      <c r="K55" s="24"/>
+      <c r="K55" s="23"/>
       <c r="L55" s="4"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="23" t="s">
         <v>394</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -8756,14 +8745,14 @@
         <v>18</v>
       </c>
       <c r="I56" s="6"/>
-      <c r="K56" s="24"/>
+      <c r="K56" s="23"/>
       <c r="L56" s="4"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="23" t="s">
         <v>396</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -8780,14 +8769,14 @@
         <v>18</v>
       </c>
       <c r="I57" s="6"/>
-      <c r="K57" s="24"/>
+      <c r="K57" s="23"/>
       <c r="L57" s="4"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="23" t="s">
         <v>399</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -8804,14 +8793,14 @@
         <v>18</v>
       </c>
       <c r="I58" s="6"/>
-      <c r="K58" s="24"/>
+      <c r="K58" s="23"/>
       <c r="L58" s="4"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="23" t="s">
         <v>402</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -8828,14 +8817,14 @@
         <v>18</v>
       </c>
       <c r="I59" s="6"/>
-      <c r="K59" s="24"/>
+      <c r="K59" s="23"/>
       <c r="L59" s="4"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="23" t="s">
         <v>405</v>
       </c>
       <c r="C60" s="6" t="s">
@@ -8848,13 +8837,13 @@
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
-      <c r="K60" s="24"/>
+      <c r="K60" s="23"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="23" t="s">
         <v>407</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="23" t="s">
         <v>408</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -8867,13 +8856,13 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
-      <c r="K61" s="24"/>
+      <c r="K61" s="23"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="23" t="s">
         <v>411</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -8886,13 +8875,13 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
-      <c r="K62" s="24"/>
+      <c r="K62" s="23"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="23" t="s">
         <v>414</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -8909,14 +8898,14 @@
         <v>18</v>
       </c>
       <c r="I63" s="6"/>
-      <c r="K63" s="24"/>
+      <c r="K63" s="23"/>
       <c r="L63" s="4"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="23" t="s">
         <v>417</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -8933,14 +8922,14 @@
         <v>18</v>
       </c>
       <c r="I64" s="6"/>
-      <c r="K64" s="24"/>
+      <c r="K64" s="23"/>
       <c r="L64" s="4"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="23" t="s">
         <v>420</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -8957,14 +8946,14 @@
         <v>18</v>
       </c>
       <c r="I65" s="6"/>
-      <c r="K65" s="24"/>
+      <c r="K65" s="23"/>
       <c r="L65" s="4"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="24" t="s">
+      <c r="A66" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="23" t="s">
         <v>423</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -8977,14 +8966,14 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
-      <c r="K66" s="24"/>
+      <c r="K66" s="23"/>
       <c r="L66" s="4"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="24" t="s">
+      <c r="A67" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="23" t="s">
         <v>426</v>
       </c>
       <c r="C67" s="6" t="s">
@@ -9001,7 +8990,7 @@
         <v>18</v>
       </c>
       <c r="I67" s="6"/>
-      <c r="K67" s="24"/>
+      <c r="K67" s="23"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -9026,10 +9015,10 @@
       <c r="K68" s="1"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="24" t="s">
+      <c r="A69" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="23" t="s">
         <v>430</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -9044,7 +9033,7 @@
       </c>
       <c r="G69" s="6"/>
       <c r="I69" s="6"/>
-      <c r="K69" s="24"/>
+      <c r="K69" s="23"/>
       <c r="L69" s="4"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -9083,11 +9072,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="25" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="25"/>
+    <col min="1" max="1" width="10.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="24" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -9105,7 +9094,7 @@
       <c r="A2" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>432</v>
       </c>
       <c r="C2" s="6">
@@ -9131,21 +9120,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.140625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="13" style="25" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="37" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="37" customWidth="1"/>
-    <col min="11" max="11" width="13" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="25" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="25"/>
+    <col min="3" max="3" width="17.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="13" style="24" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="36" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="36" customWidth="1"/>
+    <col min="11" max="11" width="13" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="24" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9173,10 +9162,10 @@
       <c r="H1" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="34" t="s">
         <v>1067</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -9189,233 +9178,233 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>439</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="E2" s="19">
-        <v>0</v>
-      </c>
-      <c r="F2" s="19">
+      <c r="E2" s="18">
+        <v>0</v>
+      </c>
+      <c r="F2" s="18">
         <v>1</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="34" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="E3" s="19">
-        <v>0</v>
-      </c>
-      <c r="F3" s="19">
+      <c r="E3" s="18">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18">
         <v>1</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="34" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="33">
         <v>0.1</v>
       </c>
-      <c r="E4" s="19">
-        <v>0</v>
-      </c>
-      <c r="F4" s="19">
+      <c r="E4" s="18">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
         <v>1</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="34" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D5" s="34">
-        <v>0</v>
-      </c>
-      <c r="E5" s="19">
-        <v>0</v>
-      </c>
-      <c r="F5" s="19">
+      <c r="D5" s="33">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
         <v>1</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="34" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D6" s="34">
-        <v>0</v>
-      </c>
-      <c r="E6" s="19">
-        <v>0</v>
-      </c>
-      <c r="F6" s="19">
+      <c r="D6" s="33">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18">
         <v>1</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="34" t="s">
+      <c r="H6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>450</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>451</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D7" s="34">
-        <v>0</v>
-      </c>
-      <c r="E7" s="19">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="D7" s="33">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
         <v>1</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="34" t="s">
+      <c r="H7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D8" s="34">
-        <v>0</v>
-      </c>
-      <c r="E8" s="19">
-        <v>0</v>
-      </c>
-      <c r="F8" s="19">
+      <c r="D8" s="33">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18">
         <v>1</v>
       </c>
-      <c r="H8" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="34" t="s">
+      <c r="H8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D9" s="34">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19">
-        <v>0</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="D9" s="33">
+        <v>0</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18">
         <v>1</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="34" t="s">
+      <c r="H9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9430,10 +9419,10 @@
         <v>440</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="19">
-        <v>0</v>
-      </c>
-      <c r="F10" s="19">
+      <c r="E10" s="18">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18">
         <v>1</v>
       </c>
       <c r="G10" s="6"/>
@@ -9443,7 +9432,7 @@
       <c r="I10" t="s">
         <v>457</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="24" t="s">
         <v>457</v>
       </c>
       <c r="K10" s="10" t="s">
@@ -9462,10 +9451,10 @@
         <v>440</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="19">
-        <v>0</v>
-      </c>
-      <c r="F11" s="19">
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
         <v>1</v>
       </c>
       <c r="G11" s="6"/>
@@ -9475,7 +9464,7 @@
       <c r="I11" t="s">
         <v>457</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="24" t="s">
         <v>457</v>
       </c>
       <c r="K11" s="10" t="s">
@@ -9494,10 +9483,10 @@
         <v>440</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="19">
-        <v>0</v>
-      </c>
-      <c r="F12" s="19">
+      <c r="E12" s="18">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18">
         <v>1</v>
       </c>
       <c r="G12" s="6"/>
@@ -9507,7 +9496,7 @@
       <c r="I12" t="s">
         <v>457</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="24" t="s">
         <v>457</v>
       </c>
       <c r="K12" s="10" t="s">
@@ -9526,10 +9515,10 @@
         <v>440</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="19">
-        <v>0</v>
-      </c>
-      <c r="F13" s="19">
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
         <v>1</v>
       </c>
       <c r="G13" s="6"/>
@@ -9539,7 +9528,7 @@
       <c r="I13" t="s">
         <v>457</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="24" t="s">
         <v>457</v>
       </c>
       <c r="K13" s="10" t="s">
@@ -9558,10 +9547,10 @@
         <v>440</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="19">
-        <v>0</v>
-      </c>
-      <c r="F14" s="19">
+      <c r="E14" s="18">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
         <v>1</v>
       </c>
       <c r="G14" s="6"/>
@@ -9571,7 +9560,7 @@
       <c r="I14" t="s">
         <v>457</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="24" t="s">
         <v>457</v>
       </c>
       <c r="K14" s="10" t="s">
@@ -9590,10 +9579,10 @@
         <v>440</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="19">
-        <v>0</v>
-      </c>
-      <c r="F15" s="19">
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
         <v>1</v>
       </c>
       <c r="G15" s="6"/>
@@ -9603,7 +9592,7 @@
       <c r="I15" t="s">
         <v>457</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="24" t="s">
         <v>457</v>
       </c>
       <c r="K15" s="10" t="s">
@@ -9622,10 +9611,10 @@
         <v>440</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="19">
-        <v>0</v>
-      </c>
-      <c r="F16" s="19">
+      <c r="E16" s="18">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18">
         <v>1</v>
       </c>
       <c r="G16" s="6"/>
@@ -9635,7 +9624,7 @@
       <c r="I16" t="s">
         <v>457</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="24" t="s">
         <v>457</v>
       </c>
       <c r="K16" s="10" t="s">
@@ -9654,10 +9643,10 @@
         <v>440</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="19">
-        <v>0</v>
-      </c>
-      <c r="F17" s="19">
+      <c r="E17" s="18">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18">
         <v>1</v>
       </c>
       <c r="G17" s="6"/>
@@ -9667,7 +9656,7 @@
       <c r="I17" t="s">
         <v>457</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="24" t="s">
         <v>457</v>
       </c>
       <c r="K17" s="10" t="s">
@@ -9679,14 +9668,14 @@
       <c r="A18" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>466</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6">
         <v>1</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <v>0</v>
       </c>
       <c r="F18" s="6"/>
@@ -9694,10 +9683,10 @@
       <c r="H18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="39" t="s">
+      <c r="I18" s="38" t="s">
         <v>467</v>
       </c>
-      <c r="J18" s="39" t="s">
+      <c r="J18" s="38" t="s">
         <v>1117</v>
       </c>
       <c r="K18" s="6" t="s">
@@ -9709,14 +9698,14 @@
       <c r="A19" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>469</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6">
         <v>0.5</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <v>0</v>
       </c>
       <c r="F19" s="6"/>
@@ -9724,8 +9713,8 @@
       <c r="H19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
       <c r="K19" s="6" t="s">
         <v>20</v>
       </c>
@@ -9735,14 +9724,14 @@
       <c r="A20" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>471</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6">
         <v>0.5</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>0</v>
       </c>
       <c r="F20" s="6"/>
@@ -9750,8 +9739,8 @@
       <c r="H20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
       <c r="K20" s="6" t="s">
         <v>20</v>
       </c>
@@ -9761,14 +9750,14 @@
       <c r="A21" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>473</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6">
         <v>1</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <v>0</v>
       </c>
       <c r="F21" s="6"/>
@@ -9779,7 +9768,7 @@
       <c r="I21" t="s">
         <v>467</v>
       </c>
-      <c r="J21" s="25"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="6" t="s">
         <v>20</v>
       </c>
@@ -9789,14 +9778,14 @@
       <c r="A22" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>475</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6">
         <v>0.22</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="18">
         <v>0</v>
       </c>
       <c r="F22" s="6"/>
@@ -9804,8 +9793,8 @@
       <c r="H22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
       <c r="K22" s="6" t="s">
         <v>20</v>
       </c>
@@ -9815,14 +9804,14 @@
       <c r="A23" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>477</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6">
         <v>1</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="18">
         <v>0</v>
       </c>
       <c r="F23" s="6"/>
@@ -9830,8 +9819,8 @@
       <c r="H23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
       <c r="K23" s="6" t="s">
         <v>20</v>
       </c>
@@ -9841,14 +9830,14 @@
       <c r="A24" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>479</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6">
         <v>1</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="18">
         <v>0</v>
       </c>
       <c r="F24" s="6"/>
@@ -9856,849 +9845,849 @@
       <c r="H24" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
       <c r="K24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="33" t="s">
         <v>480</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D25" s="34">
-        <v>0</v>
-      </c>
-      <c r="E25" s="19">
-        <v>0</v>
-      </c>
-      <c r="F25" s="19">
+      <c r="D25" s="33">
+        <v>0</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0</v>
+      </c>
+      <c r="F25" s="18">
         <v>1</v>
       </c>
       <c r="G25" t="s">
         <v>481</v>
       </c>
-      <c r="H25" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" s="19"/>
+      <c r="H25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="18"/>
       <c r="L25" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="33" t="s">
         <v>482</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D26" s="34">
-        <v>0</v>
-      </c>
-      <c r="E26" s="19">
-        <v>0</v>
-      </c>
-      <c r="F26" s="19">
+      <c r="D26" s="33">
+        <v>0</v>
+      </c>
+      <c r="E26" s="18">
+        <v>0</v>
+      </c>
+      <c r="F26" s="18">
         <v>1</v>
       </c>
       <c r="G26" t="s">
         <v>483</v>
       </c>
-      <c r="H26" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" s="19"/>
+      <c r="H26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="18"/>
       <c r="L26" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D27" s="34">
-        <v>0</v>
-      </c>
-      <c r="E27" s="19">
-        <v>0</v>
-      </c>
-      <c r="F27" s="19">
+      <c r="D27" s="33">
+        <v>0</v>
+      </c>
+      <c r="E27" s="18">
+        <v>0</v>
+      </c>
+      <c r="F27" s="18">
         <v>1</v>
       </c>
       <c r="G27" t="s">
         <v>485</v>
       </c>
-      <c r="H27" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="19"/>
+      <c r="H27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="18"/>
       <c r="L27" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D28" s="34">
-        <v>0</v>
-      </c>
-      <c r="E28" s="19">
-        <v>0</v>
-      </c>
-      <c r="F28" s="19">
+      <c r="D28" s="33">
+        <v>0</v>
+      </c>
+      <c r="E28" s="18">
+        <v>0</v>
+      </c>
+      <c r="F28" s="18">
         <v>1</v>
       </c>
       <c r="G28" t="s">
         <v>487</v>
       </c>
-      <c r="H28" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K28" s="19"/>
+      <c r="H28" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28" s="18"/>
       <c r="L28" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D29" s="34">
-        <v>0</v>
-      </c>
-      <c r="E29" s="19">
-        <v>0</v>
-      </c>
-      <c r="F29" s="19">
+      <c r="D29" s="33">
+        <v>0</v>
+      </c>
+      <c r="E29" s="18">
+        <v>0</v>
+      </c>
+      <c r="F29" s="18">
         <v>1</v>
       </c>
       <c r="G29" t="s">
         <v>489</v>
       </c>
-      <c r="H29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K29" s="19"/>
+      <c r="H29" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" s="18"/>
       <c r="L29" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D30" s="34">
-        <v>0</v>
-      </c>
-      <c r="E30" s="19">
-        <v>0</v>
-      </c>
-      <c r="F30" s="19">
+      <c r="D30" s="33">
+        <v>0</v>
+      </c>
+      <c r="E30" s="18">
+        <v>0</v>
+      </c>
+      <c r="F30" s="18">
         <v>1</v>
       </c>
       <c r="G30" t="s">
         <v>491</v>
       </c>
-      <c r="H30" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K30" s="19"/>
+      <c r="H30" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="18"/>
       <c r="L30" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="33" t="s">
         <v>492</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D31" s="34">
-        <v>0</v>
-      </c>
-      <c r="E31" s="19">
-        <v>0</v>
-      </c>
-      <c r="F31" s="19">
+      <c r="D31" s="33">
+        <v>0</v>
+      </c>
+      <c r="E31" s="18">
+        <v>0</v>
+      </c>
+      <c r="F31" s="18">
         <v>1</v>
       </c>
       <c r="G31" t="s">
         <v>493</v>
       </c>
-      <c r="H31" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K31" s="19"/>
+      <c r="H31" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" s="18"/>
       <c r="L31" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D32" s="34">
-        <v>0</v>
-      </c>
-      <c r="E32" s="19">
-        <v>0</v>
-      </c>
-      <c r="F32" s="19">
+      <c r="D32" s="33">
+        <v>0</v>
+      </c>
+      <c r="E32" s="18">
+        <v>0</v>
+      </c>
+      <c r="F32" s="18">
         <v>1</v>
       </c>
       <c r="G32" t="s">
         <v>495</v>
       </c>
-      <c r="H32" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K32" s="19"/>
+      <c r="H32" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K32" s="18"/>
       <c r="L32" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="33" t="s">
         <v>496</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D33" s="34">
-        <v>0</v>
-      </c>
-      <c r="E33" s="19">
-        <v>0</v>
-      </c>
-      <c r="F33" s="19">
+      <c r="D33" s="33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="18">
+        <v>0</v>
+      </c>
+      <c r="F33" s="18">
         <v>1</v>
       </c>
       <c r="G33" t="s">
         <v>497</v>
       </c>
-      <c r="H33" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K33" s="19"/>
+      <c r="H33" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33" s="18"/>
       <c r="L33" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="33" t="s">
         <v>498</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D34" s="34">
-        <v>0</v>
-      </c>
-      <c r="E34" s="19">
-        <v>0</v>
-      </c>
-      <c r="F34" s="19">
+      <c r="D34" s="33">
+        <v>0</v>
+      </c>
+      <c r="E34" s="18">
+        <v>0</v>
+      </c>
+      <c r="F34" s="18">
         <v>1</v>
       </c>
       <c r="G34" t="s">
         <v>499</v>
       </c>
-      <c r="H34" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K34" s="19"/>
+      <c r="H34" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K34" s="18"/>
       <c r="L34" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="33" t="s">
         <v>500</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D35" s="34">
-        <v>0</v>
-      </c>
-      <c r="E35" s="19">
-        <v>0</v>
-      </c>
-      <c r="F35" s="19">
+      <c r="D35" s="33">
+        <v>0</v>
+      </c>
+      <c r="E35" s="18">
+        <v>0</v>
+      </c>
+      <c r="F35" s="18">
         <v>1</v>
       </c>
       <c r="G35" t="s">
         <v>501</v>
       </c>
-      <c r="H35" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K35" s="19"/>
+      <c r="H35" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K35" s="18"/>
       <c r="L35" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D36" s="34">
-        <v>0</v>
-      </c>
-      <c r="E36" s="19">
-        <v>0</v>
-      </c>
-      <c r="F36" s="19">
+      <c r="D36" s="33">
+        <v>0</v>
+      </c>
+      <c r="E36" s="18">
+        <v>0</v>
+      </c>
+      <c r="F36" s="18">
         <v>1</v>
       </c>
       <c r="G36" t="s">
         <v>503</v>
       </c>
-      <c r="H36" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K36" s="19"/>
+      <c r="H36" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K36" s="18"/>
       <c r="L36" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="33" t="s">
         <v>504</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D37" s="34">
-        <v>0</v>
-      </c>
-      <c r="E37" s="19">
-        <v>0</v>
-      </c>
-      <c r="F37" s="19">
+      <c r="D37" s="33">
+        <v>0</v>
+      </c>
+      <c r="E37" s="18">
+        <v>0</v>
+      </c>
+      <c r="F37" s="18">
         <v>1</v>
       </c>
       <c r="G37" t="s">
         <v>505</v>
       </c>
-      <c r="H37" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K37" s="19"/>
+      <c r="H37" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K37" s="18"/>
       <c r="L37" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="33" t="s">
         <v>506</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D38" s="34">
-        <v>0</v>
-      </c>
-      <c r="E38" s="19">
-        <v>0</v>
-      </c>
-      <c r="F38" s="19">
+      <c r="D38" s="33">
+        <v>0</v>
+      </c>
+      <c r="E38" s="18">
+        <v>0</v>
+      </c>
+      <c r="F38" s="18">
         <v>1</v>
       </c>
       <c r="G38" t="s">
         <v>507</v>
       </c>
-      <c r="H38" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K38" s="19"/>
+      <c r="H38" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K38" s="18"/>
       <c r="L38" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D39" s="34">
-        <v>0</v>
-      </c>
-      <c r="E39" s="19">
-        <v>0</v>
-      </c>
-      <c r="F39" s="19">
+      <c r="D39" s="33">
+        <v>0</v>
+      </c>
+      <c r="E39" s="18">
+        <v>0</v>
+      </c>
+      <c r="F39" s="18">
         <v>1</v>
       </c>
       <c r="G39" t="s">
         <v>509</v>
       </c>
-      <c r="H39" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K39" s="19"/>
+      <c r="H39" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K39" s="18"/>
       <c r="L39" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="33" t="s">
         <v>510</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D40" s="34">
-        <v>0</v>
-      </c>
-      <c r="E40" s="19">
-        <v>0</v>
-      </c>
-      <c r="F40" s="19">
+      <c r="D40" s="33">
+        <v>0</v>
+      </c>
+      <c r="E40" s="18">
+        <v>0</v>
+      </c>
+      <c r="F40" s="18">
         <v>1</v>
       </c>
       <c r="G40" t="s">
         <v>511</v>
       </c>
-      <c r="H40" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K40" s="19"/>
+      <c r="H40" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K40" s="18"/>
       <c r="L40" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="33" t="s">
         <v>512</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D41" s="34">
-        <v>0</v>
-      </c>
-      <c r="E41" s="19">
-        <v>0</v>
-      </c>
-      <c r="F41" s="19">
+      <c r="D41" s="33">
+        <v>0</v>
+      </c>
+      <c r="E41" s="18">
+        <v>0</v>
+      </c>
+      <c r="F41" s="18">
         <v>1</v>
       </c>
       <c r="G41" t="s">
         <v>513</v>
       </c>
-      <c r="H41" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K41" s="19"/>
+      <c r="H41" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K41" s="18"/>
       <c r="L41" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="33" t="s">
         <v>514</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D42" s="34">
-        <v>0</v>
-      </c>
-      <c r="E42" s="19">
-        <v>0</v>
-      </c>
-      <c r="F42" s="19">
+      <c r="D42" s="33">
+        <v>0</v>
+      </c>
+      <c r="E42" s="18">
+        <v>0</v>
+      </c>
+      <c r="F42" s="18">
         <v>1</v>
       </c>
       <c r="G42" t="s">
         <v>515</v>
       </c>
-      <c r="H42" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K42" s="19"/>
+      <c r="H42" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K42" s="18"/>
       <c r="L42" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="33" t="s">
         <v>516</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D43" s="34">
-        <v>0</v>
-      </c>
-      <c r="E43" s="19">
-        <v>0</v>
-      </c>
-      <c r="F43" s="19">
+      <c r="D43" s="33">
+        <v>0</v>
+      </c>
+      <c r="E43" s="18">
+        <v>0</v>
+      </c>
+      <c r="F43" s="18">
         <v>1</v>
       </c>
       <c r="G43" t="s">
         <v>517</v>
       </c>
-      <c r="H43" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K43" s="19"/>
+      <c r="H43" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K43" s="18"/>
       <c r="L43" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="33" t="s">
         <v>518</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D44" s="34">
-        <v>0</v>
-      </c>
-      <c r="E44" s="19">
-        <v>0</v>
-      </c>
-      <c r="F44" s="19">
+      <c r="D44" s="33">
+        <v>0</v>
+      </c>
+      <c r="E44" s="18">
+        <v>0</v>
+      </c>
+      <c r="F44" s="18">
         <v>1</v>
       </c>
       <c r="G44" t="s">
         <v>519</v>
       </c>
-      <c r="H44" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K44" s="19"/>
+      <c r="H44" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K44" s="18"/>
       <c r="L44" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="33" t="s">
         <v>520</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D45" s="34">
-        <v>0</v>
-      </c>
-      <c r="E45" s="19">
-        <v>0</v>
-      </c>
-      <c r="F45" s="19">
+      <c r="D45" s="33">
+        <v>0</v>
+      </c>
+      <c r="E45" s="18">
+        <v>0</v>
+      </c>
+      <c r="F45" s="18">
         <v>1</v>
       </c>
       <c r="G45" t="s">
         <v>521</v>
       </c>
-      <c r="H45" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K45" s="19"/>
+      <c r="H45" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K45" s="18"/>
       <c r="L45" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="33" t="s">
         <v>522</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D46" s="34">
-        <v>0</v>
-      </c>
-      <c r="E46" s="19">
-        <v>0</v>
-      </c>
-      <c r="F46" s="19">
+      <c r="D46" s="33">
+        <v>0</v>
+      </c>
+      <c r="E46" s="18">
+        <v>0</v>
+      </c>
+      <c r="F46" s="18">
         <v>1</v>
       </c>
       <c r="G46" t="s">
         <v>523</v>
       </c>
-      <c r="H46" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K46" s="19"/>
+      <c r="H46" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46" s="18"/>
       <c r="L46" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="33" t="s">
         <v>524</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D47" s="34">
-        <v>0</v>
-      </c>
-      <c r="E47" s="19">
-        <v>0</v>
-      </c>
-      <c r="F47" s="19">
+      <c r="D47" s="33">
+        <v>0</v>
+      </c>
+      <c r="E47" s="18">
+        <v>0</v>
+      </c>
+      <c r="F47" s="18">
         <v>1</v>
       </c>
       <c r="G47" t="s">
         <v>525</v>
       </c>
-      <c r="H47" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K47" s="19"/>
+      <c r="H47" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" s="18"/>
       <c r="L47" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="33" t="s">
         <v>526</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D48" s="34">
-        <v>0</v>
-      </c>
-      <c r="E48" s="19">
-        <v>0</v>
-      </c>
-      <c r="F48" s="19">
+      <c r="D48" s="33">
+        <v>0</v>
+      </c>
+      <c r="E48" s="18">
+        <v>0</v>
+      </c>
+      <c r="F48" s="18">
         <v>1</v>
       </c>
       <c r="G48" t="s">
         <v>527</v>
       </c>
-      <c r="H48" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K48" s="19"/>
+      <c r="H48" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K48" s="18"/>
       <c r="L48" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="33" t="s">
         <v>528</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D49" s="34">
-        <v>0</v>
-      </c>
-      <c r="E49" s="19">
-        <v>0</v>
-      </c>
-      <c r="F49" s="19">
+      <c r="D49" s="33">
+        <v>0</v>
+      </c>
+      <c r="E49" s="18">
+        <v>0</v>
+      </c>
+      <c r="F49" s="18">
         <v>1</v>
       </c>
       <c r="G49" t="s">
         <v>1043</v>
       </c>
-      <c r="H49" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K49" s="19"/>
+      <c r="H49" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K49" s="18"/>
       <c r="L49" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D50" s="34">
-        <v>0</v>
-      </c>
-      <c r="E50" s="19">
-        <v>0</v>
-      </c>
-      <c r="F50" s="19">
+      <c r="D50" s="33">
+        <v>0</v>
+      </c>
+      <c r="E50" s="18">
+        <v>0</v>
+      </c>
+      <c r="F50" s="18">
         <v>1</v>
       </c>
       <c r="G50" t="s">
         <v>530</v>
       </c>
-      <c r="H50" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K50" s="19"/>
+      <c r="H50" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K50" s="18"/>
       <c r="L50" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="33" t="s">
         <v>531</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D51" s="34">
+      <c r="D51" s="33">
         <v>1</v>
       </c>
-      <c r="E51" s="19">
-        <v>0</v>
-      </c>
-      <c r="F51" s="19">
+      <c r="E51" s="18">
+        <v>0</v>
+      </c>
+      <c r="F51" s="18">
         <v>1</v>
       </c>
       <c r="G51" t="s">
         <v>532</v>
       </c>
-      <c r="H51" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K51" s="19"/>
+      <c r="H51" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K51" s="18"/>
       <c r="L51" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="33" t="s">
         <v>533</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D52" s="34">
-        <v>0</v>
-      </c>
-      <c r="E52" s="19">
-        <v>0</v>
-      </c>
-      <c r="F52" s="19">
+      <c r="D52" s="33">
+        <v>0</v>
+      </c>
+      <c r="E52" s="18">
+        <v>0</v>
+      </c>
+      <c r="F52" s="18">
         <v>1</v>
       </c>
       <c r="G52" t="s">
         <v>534</v>
       </c>
-      <c r="H52" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K52" s="19"/>
+      <c r="H52" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52" s="18"/>
       <c r="L52" s="6">
         <v>-1</v>
       </c>
@@ -10725,7 +10714,7 @@
       <c r="I53" t="s">
         <v>7</v>
       </c>
-      <c r="J53" s="25"/>
+      <c r="J53" s="24"/>
       <c r="K53" s="6" t="s">
         <v>6</v>
       </c>
@@ -10753,7 +10742,7 @@
       <c r="I54" t="s">
         <v>7</v>
       </c>
-      <c r="J54" s="25"/>
+      <c r="J54" s="24"/>
       <c r="K54" s="6" t="s">
         <v>6</v>
       </c>
@@ -10783,7 +10772,7 @@
       <c r="I55" t="s">
         <v>7</v>
       </c>
-      <c r="J55" s="25"/>
+      <c r="J55" s="24"/>
       <c r="K55" s="6" t="s">
         <v>6</v>
       </c>
@@ -10813,7 +10802,7 @@
       <c r="I56" t="s">
         <v>7</v>
       </c>
-      <c r="J56" s="25"/>
+      <c r="J56" s="24"/>
       <c r="K56" s="6" t="s">
         <v>6</v>
       </c>
@@ -10838,7 +10827,7 @@
       <c r="H57" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J57" s="37" t="s">
+      <c r="J57" s="36" t="s">
         <v>1117</v>
       </c>
       <c r="K57" s="4" t="s">
@@ -10850,7 +10839,7 @@
       <c r="A58" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="23" t="s">
         <v>543</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -10867,7 +10856,7 @@
       <c r="H58" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J58" s="37" t="s">
+      <c r="J58" s="36" t="s">
         <v>1068</v>
       </c>
       <c r="K58" s="4" t="s">
@@ -10879,7 +10868,7 @@
       <c r="A59" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="23" t="s">
         <v>545</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -10896,7 +10885,7 @@
       <c r="H59" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J59" s="37" t="s">
+      <c r="J59" s="36" t="s">
         <v>1068</v>
       </c>
       <c r="K59" s="4" t="s">
@@ -10908,7 +10897,7 @@
       <c r="A60" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="23" t="s">
         <v>547</v>
       </c>
       <c r="C60" s="6" t="s">
@@ -10934,7 +10923,7 @@
       <c r="A61" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="23" t="s">
         <v>550</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -10962,7 +10951,7 @@
       <c r="A62" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="23" t="s">
         <v>552</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -10990,7 +10979,7 @@
       <c r="A63" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="23" t="s">
         <v>553</v>
       </c>
       <c r="C63" s="6" t="s">
@@ -11014,7 +11003,7 @@
       <c r="A64" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="23" t="s">
         <v>556</v>
       </c>
       <c r="C64" s="6" t="s">
@@ -11038,7 +11027,7 @@
       <c r="A65" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="15" t="s">
         <v>558</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -11062,7 +11051,7 @@
       <c r="A66" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="23" t="s">
         <v>560</v>
       </c>
       <c r="C66" s="6" t="s">
@@ -11084,115 +11073,115 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="26" t="s">
+    <row r="67" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="26" t="s">
         <v>562</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="D67" s="26"/>
+      <c r="D67" s="25"/>
       <c r="E67" s="6">
         <v>0</v>
       </c>
       <c r="F67" s="6">
         <v>1</v>
       </c>
-      <c r="G67" s="26" t="s">
+      <c r="G67" s="25" t="s">
         <v>549</v>
       </c>
-      <c r="H67" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26">
+      <c r="H67" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25">
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="26" t="s">
+    <row r="68" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="D68" s="26"/>
+      <c r="D68" s="25"/>
       <c r="E68" s="6">
         <v>0</v>
       </c>
       <c r="F68" s="6">
         <v>1</v>
       </c>
-      <c r="G68" s="26" t="s">
+      <c r="G68" s="25" t="s">
         <v>551</v>
       </c>
-      <c r="H68" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="K68" s="26"/>
-      <c r="L68" s="26">
+      <c r="H68" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25">
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="26" t="s">
+    <row r="69" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="26" t="s">
         <v>564</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="D69" s="26"/>
+      <c r="D69" s="25"/>
       <c r="E69" s="6">
         <v>0</v>
       </c>
       <c r="F69" s="6">
         <v>1</v>
       </c>
-      <c r="G69" s="26" t="s">
+      <c r="G69" s="25" t="s">
         <v>549</v>
       </c>
-      <c r="H69" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26">
+      <c r="H69" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25">
         <v>-1</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="26" t="s">
+    <row r="70" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="B70" s="27" t="s">
+      <c r="B70" s="26" t="s">
         <v>565</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="D70" s="26"/>
+      <c r="D70" s="25"/>
       <c r="E70" s="6">
         <v>0</v>
       </c>
       <c r="F70" s="6">
         <v>1</v>
       </c>
-      <c r="G70" s="26" t="s">
+      <c r="G70" s="25" t="s">
         <v>551</v>
       </c>
-      <c r="H70" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="K70" s="26"/>
-      <c r="L70" s="26">
+      <c r="H70" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25">
         <v>-1</v>
       </c>
     </row>
@@ -11200,7 +11189,7 @@
       <c r="A71" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="23" t="s">
         <v>567</v>
       </c>
       <c r="C71" s="6"/>
@@ -11220,7 +11209,7 @@
       <c r="I71" t="s">
         <v>467</v>
       </c>
-      <c r="J71" s="25"/>
+      <c r="J71" s="24"/>
       <c r="K71" s="4" t="s">
         <v>22</v>
       </c>
@@ -11230,7 +11219,7 @@
       <c r="A72" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="23" t="s">
         <v>569</v>
       </c>
       <c r="C72" s="6"/>
@@ -11250,7 +11239,7 @@
       <c r="I72" t="s">
         <v>467</v>
       </c>
-      <c r="J72" s="25" t="s">
+      <c r="J72" s="24" t="s">
         <v>1117</v>
       </c>
       <c r="K72" s="4" t="s">
@@ -11262,7 +11251,7 @@
       <c r="A73" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="B73" s="24" t="s">
+      <c r="B73" s="23" t="s">
         <v>571</v>
       </c>
       <c r="C73" s="6"/>
@@ -11280,7 +11269,7 @@
       <c r="I73" t="s">
         <v>467</v>
       </c>
-      <c r="J73" s="25" t="s">
+      <c r="J73" s="24" t="s">
         <v>1117</v>
       </c>
       <c r="K73" s="4" t="s">
@@ -11292,7 +11281,7 @@
       <c r="A74" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B74" s="24" t="s">
+      <c r="B74" s="23" t="s">
         <v>572</v>
       </c>
       <c r="C74" s="6" t="s">
@@ -11320,7 +11309,7 @@
       <c r="A75" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B75" s="24" t="s">
+      <c r="B75" s="23" t="s">
         <v>574</v>
       </c>
       <c r="C75" s="6" t="s">
@@ -11348,7 +11337,7 @@
       <c r="A76" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="23" t="s">
         <v>575</v>
       </c>
       <c r="C76" s="6" t="s">
@@ -11376,7 +11365,7 @@
       <c r="A77" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="23" t="s">
         <v>577</v>
       </c>
       <c r="C77" s="6" t="s">
@@ -11404,7 +11393,7 @@
       <c r="A78" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="23" t="s">
         <v>578</v>
       </c>
       <c r="C78" s="6" t="s">
@@ -11432,7 +11421,7 @@
       <c r="A79" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="23" t="s">
         <v>579</v>
       </c>
       <c r="C79" s="6" t="s">
@@ -11460,7 +11449,7 @@
       <c r="A80" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="B80" s="24" t="s">
+      <c r="B80" s="23" t="s">
         <v>581</v>
       </c>
       <c r="C80" s="6"/>
@@ -11484,7 +11473,7 @@
       <c r="A81" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="B81" s="24" t="s">
+      <c r="B81" s="23" t="s">
         <v>584</v>
       </c>
       <c r="C81" s="6"/>
@@ -11508,7 +11497,7 @@
       <c r="A82" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="B82" s="24" t="s">
+      <c r="B82" s="23" t="s">
         <v>587</v>
       </c>
       <c r="C82" s="6"/>
@@ -11532,7 +11521,7 @@
       <c r="A83" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="23" t="s">
         <v>590</v>
       </c>
       <c r="C83" s="6"/>
@@ -11556,7 +11545,7 @@
       <c r="A84" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="23" t="s">
         <v>593</v>
       </c>
       <c r="C84" s="6"/>
@@ -11580,7 +11569,7 @@
       <c r="A85" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="B85" s="24" t="s">
+      <c r="B85" s="23" t="s">
         <v>596</v>
       </c>
       <c r="C85" s="6"/>
@@ -11604,7 +11593,7 @@
       <c r="A86" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="B86" s="24" t="s">
+      <c r="B86" s="23" t="s">
         <v>599</v>
       </c>
       <c r="C86" s="6"/>
@@ -11628,7 +11617,7 @@
       <c r="A87" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="23" t="s">
         <v>602</v>
       </c>
       <c r="C87" s="6"/>
@@ -11652,7 +11641,7 @@
       <c r="A88" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="B88" s="24" t="s">
+      <c r="B88" s="23" t="s">
         <v>605</v>
       </c>
       <c r="C88" s="6"/>
@@ -11781,10 +11770,10 @@
       <c r="I92" t="s">
         <v>467</v>
       </c>
-      <c r="J92" s="25" t="s">
+      <c r="J92" s="24" t="s">
         <v>1117</v>
       </c>
-      <c r="K92" s="19" t="s">
+      <c r="K92" s="18" t="s">
         <v>22</v>
       </c>
       <c r="L92" s="6"/>
@@ -11812,7 +11801,7 @@
       <c r="H93" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K93" s="19" t="s">
+      <c r="K93" s="18" t="s">
         <v>22</v>
       </c>
       <c r="L93" s="6"/>
@@ -11956,289 +11945,289 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="18" t="s">
+    <row r="99" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="B99" s="33" t="s">
+      <c r="B99" s="32" t="s">
         <v>625</v>
       </c>
-      <c r="C99" s="19" t="s">
+      <c r="C99" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18">
-        <v>0</v>
-      </c>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19" t="s">
+      <c r="D99" s="17"/>
+      <c r="E99" s="17">
+        <v>0</v>
+      </c>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J99" s="34" t="s">
+      <c r="J99" s="33" t="s">
         <v>1072</v>
       </c>
-      <c r="K99" s="19" t="s">
+      <c r="K99" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L99" s="19"/>
-    </row>
-    <row r="100" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="18" t="s">
+      <c r="L99" s="18"/>
+    </row>
+    <row r="100" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="B100" s="33" t="s">
+      <c r="B100" s="32" t="s">
         <v>626</v>
       </c>
-      <c r="C100" s="19" t="s">
+      <c r="C100" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18">
-        <v>0</v>
-      </c>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19" t="s">
+      <c r="D100" s="17"/>
+      <c r="E100" s="17">
+        <v>0</v>
+      </c>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J100" s="34" t="s">
+      <c r="J100" s="33" t="s">
         <v>1072</v>
       </c>
-      <c r="K100" s="19" t="s">
+      <c r="K100" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="19"/>
-    </row>
-    <row r="101" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="18" t="s">
+      <c r="L100" s="18"/>
+    </row>
+    <row r="101" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="B101" s="33" t="s">
+      <c r="B101" s="32" t="s">
         <v>627</v>
       </c>
-      <c r="C101" s="19" t="s">
+      <c r="C101" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18">
-        <v>0</v>
-      </c>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="19" t="s">
+      <c r="D101" s="17"/>
+      <c r="E101" s="17">
+        <v>0</v>
+      </c>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J101" s="34" t="s">
+      <c r="J101" s="33" t="s">
         <v>1072</v>
       </c>
-      <c r="K101" s="19" t="s">
+      <c r="K101" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="19"/>
-    </row>
-    <row r="102" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="18" t="s">
+      <c r="L101" s="18"/>
+    </row>
+    <row r="102" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="B102" s="33" t="s">
+      <c r="B102" s="32" t="s">
         <v>628</v>
       </c>
-      <c r="C102" s="19" t="s">
+      <c r="C102" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18">
-        <v>0</v>
-      </c>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="19" t="s">
+      <c r="D102" s="17"/>
+      <c r="E102" s="17">
+        <v>0</v>
+      </c>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J102" s="34" t="s">
+      <c r="J102" s="33" t="s">
         <v>1072</v>
       </c>
-      <c r="K102" s="19" t="s">
+      <c r="K102" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L102" s="19"/>
-    </row>
-    <row r="103" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="18" t="s">
+      <c r="L102" s="18"/>
+    </row>
+    <row r="103" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="B103" s="33" t="s">
+      <c r="B103" s="32" t="s">
         <v>629</v>
       </c>
-      <c r="C103" s="19" t="s">
+      <c r="C103" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18">
-        <v>0</v>
-      </c>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19" t="s">
+      <c r="D103" s="17"/>
+      <c r="E103" s="17">
+        <v>0</v>
+      </c>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J103" s="34" t="s">
+      <c r="J103" s="33" t="s">
         <v>1072</v>
       </c>
-      <c r="K103" s="19" t="s">
+      <c r="K103" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L103" s="19"/>
-    </row>
-    <row r="104" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="18" t="s">
+      <c r="L103" s="18"/>
+    </row>
+    <row r="104" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="B104" s="33" t="s">
+      <c r="B104" s="32" t="s">
         <v>630</v>
       </c>
-      <c r="C104" s="19" t="s">
+      <c r="C104" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18">
-        <v>0</v>
-      </c>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="19" t="s">
+      <c r="D104" s="17"/>
+      <c r="E104" s="17">
+        <v>0</v>
+      </c>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J104" s="34" t="s">
+      <c r="J104" s="33" t="s">
         <v>1072</v>
       </c>
-      <c r="K104" s="19" t="s">
+      <c r="K104" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L104" s="19"/>
-    </row>
-    <row r="105" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="18" t="s">
+      <c r="L104" s="18"/>
+    </row>
+    <row r="105" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="17" t="s">
         <v>631</v>
       </c>
-      <c r="B105" s="33" t="s">
+      <c r="B105" s="32" t="s">
         <v>632</v>
       </c>
-      <c r="C105" s="19" t="s">
+      <c r="C105" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18">
-        <v>0</v>
-      </c>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I105" s="38"/>
-      <c r="J105" s="37" t="s">
+      <c r="D105" s="17"/>
+      <c r="E105" s="17">
+        <v>0</v>
+      </c>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I105" s="37"/>
+      <c r="J105" s="36" t="s">
         <v>1068</v>
       </c>
-      <c r="K105" s="19" t="s">
+      <c r="K105" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L105" s="19"/>
-    </row>
-    <row r="106" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="18" t="s">
+      <c r="L105" s="18"/>
+    </row>
+    <row r="106" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="B106" s="33" t="s">
+      <c r="B106" s="32" t="s">
         <v>633</v>
       </c>
-      <c r="C106" s="19" t="s">
+      <c r="C106" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18">
-        <v>0</v>
-      </c>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19" t="s">
+      <c r="D106" s="17"/>
+      <c r="E106" s="17">
+        <v>0</v>
+      </c>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18" t="s">
         <v>634</v>
       </c>
-      <c r="H106" s="19" t="s">
+      <c r="H106" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I106" s="38"/>
-      <c r="J106" s="38"/>
-      <c r="K106" s="19"/>
-      <c r="L106" s="19"/>
-    </row>
-    <row r="107" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="18" t="s">
+      <c r="I106" s="37"/>
+      <c r="J106" s="37"/>
+      <c r="K106" s="18"/>
+      <c r="L106" s="18"/>
+    </row>
+    <row r="107" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="B107" s="33" t="s">
+      <c r="B107" s="32" t="s">
         <v>635</v>
       </c>
-      <c r="C107" s="19" t="s">
+      <c r="C107" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18">
-        <v>0</v>
-      </c>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19" t="s">
+      <c r="D107" s="17"/>
+      <c r="E107" s="17">
+        <v>0</v>
+      </c>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18" t="s">
         <v>822</v>
       </c>
-      <c r="H107" s="19" t="s">
+      <c r="H107" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I107" s="38"/>
-      <c r="J107" s="38"/>
-      <c r="K107" s="19"/>
-      <c r="L107" s="19"/>
-    </row>
-    <row r="108" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="18" t="s">
+      <c r="I107" s="37"/>
+      <c r="J107" s="37"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="18"/>
+    </row>
+    <row r="108" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="B108" s="33" t="s">
+      <c r="B108" s="32" t="s">
         <v>637</v>
       </c>
-      <c r="C108" s="19" t="s">
+      <c r="C108" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="D108" s="18">
+      <c r="D108" s="17">
         <v>180</v>
       </c>
-      <c r="E108" s="18">
+      <c r="E108" s="17">
         <v>1</v>
       </c>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19" t="s">
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I108" s="38"/>
-      <c r="J108" s="38" t="s">
+      <c r="I108" s="37"/>
+      <c r="J108" s="37" t="s">
         <v>1069</v>
       </c>
-      <c r="K108" s="19" t="s">
+      <c r="K108" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L108" s="19"/>
-    </row>
-    <row r="109" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="18" t="s">
+      <c r="L108" s="18"/>
+    </row>
+    <row r="109" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="17" t="s">
         <v>638</v>
       </c>
-      <c r="B109" s="33" t="s">
+      <c r="B109" s="32" t="s">
         <v>639</v>
       </c>
-      <c r="C109" s="19" t="s">
+      <c r="C109" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D109" s="18">
+      <c r="D109" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E109" s="6">
@@ -12247,30 +12236,30 @@
       <c r="F109" s="6">
         <v>1</v>
       </c>
-      <c r="G109" s="19"/>
-      <c r="H109" s="19" t="s">
+      <c r="G109" s="18"/>
+      <c r="H109" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I109" s="38"/>
-      <c r="J109" s="38" t="s">
+      <c r="I109" s="37"/>
+      <c r="J109" s="37" t="s">
         <v>1069</v>
       </c>
-      <c r="K109" s="19" t="s">
+      <c r="K109" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L109" s="19"/>
-    </row>
-    <row r="110" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="18" t="s">
+      <c r="L109" s="18"/>
+    </row>
+    <row r="110" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="B110" s="33" t="s">
+      <c r="B110" s="32" t="s">
         <v>641</v>
       </c>
-      <c r="C110" s="19" t="s">
+      <c r="C110" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D110" s="18">
+      <c r="D110" s="17">
         <v>0.02</v>
       </c>
       <c r="E110" s="6">
@@ -12279,30 +12268,30 @@
       <c r="F110" s="6">
         <v>1</v>
       </c>
-      <c r="G110" s="19"/>
-      <c r="H110" s="19" t="s">
+      <c r="G110" s="18"/>
+      <c r="H110" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I110" s="38"/>
-      <c r="J110" s="38" t="s">
+      <c r="I110" s="37"/>
+      <c r="J110" s="37" t="s">
         <v>1069</v>
       </c>
-      <c r="K110" s="19" t="s">
+      <c r="K110" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L110" s="19"/>
-    </row>
-    <row r="111" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="18" t="s">
+      <c r="L110" s="18"/>
+    </row>
+    <row r="111" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="B111" s="33" t="s">
+      <c r="B111" s="32" t="s">
         <v>643</v>
       </c>
-      <c r="C111" s="19" t="s">
+      <c r="C111" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D111" s="18">
+      <c r="D111" s="17">
         <v>0.02</v>
       </c>
       <c r="E111" s="6">
@@ -12311,30 +12300,30 @@
       <c r="F111" s="6">
         <v>1</v>
       </c>
-      <c r="G111" s="19"/>
-      <c r="H111" s="19" t="s">
+      <c r="G111" s="18"/>
+      <c r="H111" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I111" s="38"/>
-      <c r="J111" s="38" t="s">
+      <c r="I111" s="37"/>
+      <c r="J111" s="37" t="s">
         <v>1069</v>
       </c>
-      <c r="K111" s="19" t="s">
+      <c r="K111" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L111" s="19"/>
-    </row>
-    <row r="112" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="18" t="s">
+      <c r="L111" s="18"/>
+    </row>
+    <row r="112" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="17" t="s">
         <v>644</v>
       </c>
-      <c r="B112" s="33" t="s">
+      <c r="B112" s="32" t="s">
         <v>645</v>
       </c>
-      <c r="C112" s="19" t="s">
+      <c r="C112" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D112" s="18">
+      <c r="D112" s="17">
         <v>0.83</v>
       </c>
       <c r="E112" s="6">
@@ -12343,30 +12332,30 @@
       <c r="F112" s="6">
         <v>1</v>
       </c>
-      <c r="G112" s="19"/>
-      <c r="H112" s="19" t="s">
+      <c r="G112" s="18"/>
+      <c r="H112" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I112" s="38"/>
-      <c r="J112" s="38" t="s">
+      <c r="I112" s="37"/>
+      <c r="J112" s="37" t="s">
         <v>1069</v>
       </c>
-      <c r="K112" s="19" t="s">
+      <c r="K112" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L112" s="19"/>
-    </row>
-    <row r="113" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="18" t="s">
+      <c r="L112" s="18"/>
+    </row>
+    <row r="113" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="17" t="s">
         <v>646</v>
       </c>
-      <c r="B113" s="33" t="s">
+      <c r="B113" s="32" t="s">
         <v>647</v>
       </c>
-      <c r="C113" s="19" t="s">
+      <c r="C113" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D113" s="18">
+      <c r="D113" s="17">
         <v>0.06</v>
       </c>
       <c r="E113" s="6">
@@ -12375,444 +12364,444 @@
       <c r="F113" s="6">
         <v>1</v>
       </c>
-      <c r="G113" s="19"/>
-      <c r="H113" s="19" t="s">
+      <c r="G113" s="18"/>
+      <c r="H113" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I113" s="38"/>
-      <c r="J113" s="38" t="s">
+      <c r="I113" s="37"/>
+      <c r="J113" s="37" t="s">
         <v>1069</v>
       </c>
-      <c r="K113" s="19" t="s">
+      <c r="K113" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L113" s="19"/>
-    </row>
-    <row r="114" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="18" t="s">
+      <c r="L113" s="18"/>
+    </row>
+    <row r="114" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="B114" s="33" t="s">
+      <c r="B114" s="32" t="s">
         <v>648</v>
       </c>
-      <c r="C114" s="19" t="s">
+      <c r="C114" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19" t="s">
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18" t="s">
         <v>649</v>
       </c>
-      <c r="H114" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K114" s="19"/>
+      <c r="H114" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K114" s="18"/>
       <c r="L114" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="115" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="29" t="s">
+    <row r="115" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="B115" s="30" t="s">
+      <c r="B115" s="29" t="s">
         <v>650</v>
       </c>
-      <c r="C115" s="31" t="s">
+      <c r="C115" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D115" s="29"/>
+      <c r="D115" s="28"/>
       <c r="E115" s="6">
         <v>0</v>
       </c>
       <c r="F115" s="6">
         <v>1</v>
       </c>
-      <c r="G115" s="29" t="s">
+      <c r="G115" s="28" t="s">
         <v>638</v>
       </c>
-      <c r="H115" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K115" s="31"/>
+      <c r="H115" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K115" s="30"/>
       <c r="L115" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="116" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="29" t="s">
+    <row r="116" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="B116" s="30" t="s">
+      <c r="B116" s="29" t="s">
         <v>651</v>
       </c>
-      <c r="C116" s="31" t="s">
+      <c r="C116" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D116" s="29"/>
+      <c r="D116" s="28"/>
       <c r="E116" s="6">
         <v>0</v>
       </c>
       <c r="F116" s="6">
         <v>1</v>
       </c>
-      <c r="G116" s="29" t="s">
+      <c r="G116" s="28" t="s">
         <v>640</v>
       </c>
-      <c r="H116" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K116" s="31"/>
+      <c r="H116" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K116" s="30"/>
       <c r="L116" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="117" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="29" t="s">
+    <row r="117" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="B117" s="30" t="s">
+      <c r="B117" s="29" t="s">
         <v>652</v>
       </c>
-      <c r="C117" s="31" t="s">
+      <c r="C117" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D117" s="29"/>
+      <c r="D117" s="28"/>
       <c r="E117" s="6">
         <v>0</v>
       </c>
       <c r="F117" s="6">
         <v>1</v>
       </c>
-      <c r="G117" s="29" t="s">
+      <c r="G117" s="28" t="s">
         <v>642</v>
       </c>
-      <c r="H117" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K117" s="31"/>
+      <c r="H117" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K117" s="30"/>
       <c r="L117" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="118" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="29" t="s">
+    <row r="118" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="B118" s="30" t="s">
+      <c r="B118" s="29" t="s">
         <v>653</v>
       </c>
-      <c r="C118" s="31" t="s">
+      <c r="C118" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D118" s="29"/>
+      <c r="D118" s="28"/>
       <c r="E118" s="6">
         <v>0</v>
       </c>
       <c r="F118" s="6">
         <v>1</v>
       </c>
-      <c r="G118" s="29" t="s">
+      <c r="G118" s="28" t="s">
         <v>644</v>
       </c>
-      <c r="H118" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K118" s="31"/>
+      <c r="H118" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K118" s="30"/>
       <c r="L118" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="119" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="29" t="s">
+    <row r="119" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="B119" s="30" t="s">
+      <c r="B119" s="29" t="s">
         <v>654</v>
       </c>
-      <c r="C119" s="31" t="s">
+      <c r="C119" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D119" s="29"/>
+      <c r="D119" s="28"/>
       <c r="E119" s="6">
         <v>0</v>
       </c>
       <c r="F119" s="6">
         <v>1</v>
       </c>
-      <c r="G119" s="29" t="s">
+      <c r="G119" s="28" t="s">
         <v>646</v>
       </c>
-      <c r="H119" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K119" s="31"/>
+      <c r="H119" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K119" s="30"/>
       <c r="L119" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="120" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="29" t="s">
+    <row r="120" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="B120" s="30" t="s">
+      <c r="B120" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="C120" s="31" t="s">
+      <c r="C120" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D120" s="29"/>
+      <c r="D120" s="28"/>
       <c r="E120" s="6">
         <v>0</v>
       </c>
       <c r="F120" s="6">
         <v>1</v>
       </c>
-      <c r="G120" s="29" t="s">
+      <c r="G120" s="28" t="s">
         <v>638</v>
       </c>
-      <c r="H120" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K120" s="31"/>
+      <c r="H120" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K120" s="30"/>
       <c r="L120" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="121" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="29" t="s">
+    <row r="121" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="C121" s="31" t="s">
+      <c r="C121" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D121" s="29"/>
+      <c r="D121" s="28"/>
       <c r="E121" s="6">
         <v>0</v>
       </c>
       <c r="F121" s="6">
         <v>1</v>
       </c>
-      <c r="G121" s="29" t="s">
+      <c r="G121" s="28" t="s">
         <v>640</v>
       </c>
-      <c r="H121" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K121" s="31"/>
+      <c r="H121" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K121" s="30"/>
       <c r="L121" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="122" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="29" t="s">
+    <row r="122" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B122" s="30" t="s">
+      <c r="B122" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="C122" s="31" t="s">
+      <c r="C122" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D122" s="29"/>
+      <c r="D122" s="28"/>
       <c r="E122" s="6">
         <v>0</v>
       </c>
       <c r="F122" s="6">
         <v>1</v>
       </c>
-      <c r="G122" s="29" t="s">
+      <c r="G122" s="28" t="s">
         <v>642</v>
       </c>
-      <c r="H122" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K122" s="31"/>
+      <c r="H122" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K122" s="30"/>
       <c r="L122" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="123" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="29" t="s">
+    <row r="123" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B123" s="30" t="s">
+      <c r="B123" s="29" t="s">
         <v>658</v>
       </c>
-      <c r="C123" s="31" t="s">
+      <c r="C123" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D123" s="29"/>
+      <c r="D123" s="28"/>
       <c r="E123" s="6">
         <v>0</v>
       </c>
       <c r="F123" s="6">
         <v>1</v>
       </c>
-      <c r="G123" s="29" t="s">
+      <c r="G123" s="28" t="s">
         <v>644</v>
       </c>
-      <c r="H123" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K123" s="31"/>
+      <c r="H123" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K123" s="30"/>
       <c r="L123" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="124" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="29" t="s">
+    <row r="124" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="B124" s="30" t="s">
+      <c r="B124" s="29" t="s">
         <v>659</v>
       </c>
-      <c r="C124" s="31" t="s">
+      <c r="C124" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D124" s="29"/>
+      <c r="D124" s="28"/>
       <c r="E124" s="6">
         <v>0</v>
       </c>
       <c r="F124" s="6">
         <v>1</v>
       </c>
-      <c r="G124" s="29" t="s">
+      <c r="G124" s="28" t="s">
         <v>646</v>
       </c>
-      <c r="H124" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K124" s="31"/>
+      <c r="H124" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K124" s="30"/>
       <c r="L124" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="125" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="18" t="s">
+    <row r="125" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="17" t="s">
         <v>660</v>
       </c>
-      <c r="B125" s="33" t="s">
+      <c r="B125" s="32" t="s">
         <v>661</v>
       </c>
-      <c r="C125" s="19" t="s">
+      <c r="C125" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18">
-        <v>0</v>
-      </c>
-      <c r="F125" s="19"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I125" s="38"/>
-      <c r="J125" s="37" t="s">
+      <c r="D125" s="17"/>
+      <c r="E125" s="17">
+        <v>0</v>
+      </c>
+      <c r="F125" s="18"/>
+      <c r="G125" s="18"/>
+      <c r="H125" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I125" s="37"/>
+      <c r="J125" s="36" t="s">
         <v>1068</v>
       </c>
-      <c r="K125" s="19" t="s">
+      <c r="K125" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L125" s="19"/>
-    </row>
-    <row r="126" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="18" t="s">
+      <c r="L125" s="18"/>
+    </row>
+    <row r="126" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="B126" s="33" t="s">
+      <c r="B126" s="32" t="s">
         <v>662</v>
       </c>
-      <c r="C126" s="19" t="s">
+      <c r="C126" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18">
-        <v>0</v>
-      </c>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19" t="s">
+      <c r="D126" s="17"/>
+      <c r="E126" s="17">
+        <v>0</v>
+      </c>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18" t="s">
         <v>663</v>
       </c>
-      <c r="H126" s="19" t="s">
+      <c r="H126" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I126" s="38"/>
-      <c r="J126" s="38"/>
-      <c r="K126" s="19"/>
-      <c r="L126" s="19"/>
-    </row>
-    <row r="127" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="18" t="s">
+      <c r="I126" s="37"/>
+      <c r="J126" s="37"/>
+      <c r="K126" s="18"/>
+      <c r="L126" s="18"/>
+    </row>
+    <row r="127" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B127" s="33" t="s">
+      <c r="B127" s="32" t="s">
         <v>664</v>
       </c>
-      <c r="C127" s="19" t="s">
+      <c r="C127" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18">
-        <v>0</v>
-      </c>
-      <c r="F127" s="19"/>
-      <c r="G127" s="19" t="s">
+      <c r="D127" s="17"/>
+      <c r="E127" s="17">
+        <v>0</v>
+      </c>
+      <c r="F127" s="18"/>
+      <c r="G127" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="H127" s="19" t="s">
+      <c r="H127" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I127" s="38"/>
-      <c r="J127" s="38"/>
-      <c r="K127" s="19"/>
-      <c r="L127" s="19"/>
-    </row>
-    <row r="128" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="18" t="s">
+      <c r="I127" s="37"/>
+      <c r="J127" s="37"/>
+      <c r="K127" s="18"/>
+      <c r="L127" s="18"/>
+    </row>
+    <row r="128" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="17" t="s">
         <v>666</v>
       </c>
-      <c r="B128" s="33" t="s">
+      <c r="B128" s="32" t="s">
         <v>667</v>
       </c>
-      <c r="C128" s="19" t="s">
+      <c r="C128" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="D128" s="18">
+      <c r="D128" s="17">
         <v>540</v>
       </c>
-      <c r="E128" s="18">
+      <c r="E128" s="17">
         <v>1</v>
       </c>
-      <c r="F128" s="19"/>
-      <c r="G128" s="19"/>
-      <c r="H128" s="19" t="s">
+      <c r="F128" s="18"/>
+      <c r="G128" s="18"/>
+      <c r="H128" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I128" s="38"/>
-      <c r="J128" s="38" t="s">
+      <c r="I128" s="37"/>
+      <c r="J128" s="37" t="s">
         <v>1070</v>
       </c>
-      <c r="K128" s="19" t="s">
+      <c r="K128" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L128" s="19"/>
-    </row>
-    <row r="129" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="18" t="s">
+      <c r="L128" s="18"/>
+    </row>
+    <row r="129" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="17" t="s">
         <v>668</v>
       </c>
-      <c r="B129" s="33" t="s">
+      <c r="B129" s="32" t="s">
         <v>669</v>
       </c>
-      <c r="C129" s="19" t="s">
+      <c r="C129" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D129" s="18">
+      <c r="D129" s="17">
         <v>0.14699999999999999</v>
       </c>
       <c r="E129" s="6">
@@ -12821,30 +12810,30 @@
       <c r="F129" s="6">
         <v>1</v>
       </c>
-      <c r="G129" s="19"/>
-      <c r="H129" s="19" t="s">
+      <c r="G129" s="18"/>
+      <c r="H129" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I129" s="38"/>
-      <c r="J129" s="38" t="s">
+      <c r="I129" s="37"/>
+      <c r="J129" s="37" t="s">
         <v>1070</v>
       </c>
-      <c r="K129" s="19" t="s">
+      <c r="K129" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L129" s="19"/>
-    </row>
-    <row r="130" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="18" t="s">
+      <c r="L129" s="18"/>
+    </row>
+    <row r="130" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="17" t="s">
         <v>670</v>
       </c>
-      <c r="B130" s="33" t="s">
+      <c r="B130" s="32" t="s">
         <v>671</v>
       </c>
-      <c r="C130" s="19" t="s">
+      <c r="C130" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D130" s="18">
+      <c r="D130" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E130" s="6">
@@ -12853,30 +12842,30 @@
       <c r="F130" s="6">
         <v>1</v>
       </c>
-      <c r="G130" s="19"/>
-      <c r="H130" s="19" t="s">
+      <c r="G130" s="18"/>
+      <c r="H130" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I130" s="38"/>
-      <c r="J130" s="38" t="s">
+      <c r="I130" s="37"/>
+      <c r="J130" s="37" t="s">
         <v>1070</v>
       </c>
-      <c r="K130" s="19" t="s">
+      <c r="K130" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L130" s="19"/>
-    </row>
-    <row r="131" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="18" t="s">
+      <c r="L130" s="18"/>
+    </row>
+    <row r="131" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="17" t="s">
         <v>672</v>
       </c>
-      <c r="B131" s="33" t="s">
+      <c r="B131" s="32" t="s">
         <v>673</v>
       </c>
-      <c r="C131" s="19" t="s">
+      <c r="C131" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D131" s="18">
+      <c r="D131" s="17">
         <v>0.02</v>
       </c>
       <c r="E131" s="6">
@@ -12885,30 +12874,30 @@
       <c r="F131" s="6">
         <v>1</v>
       </c>
-      <c r="G131" s="19"/>
-      <c r="H131" s="19" t="s">
+      <c r="G131" s="18"/>
+      <c r="H131" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I131" s="38"/>
-      <c r="J131" s="38" t="s">
+      <c r="I131" s="37"/>
+      <c r="J131" s="37" t="s">
         <v>1070</v>
       </c>
-      <c r="K131" s="19" t="s">
+      <c r="K131" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L131" s="19"/>
-    </row>
-    <row r="132" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="18" t="s">
+      <c r="L131" s="18"/>
+    </row>
+    <row r="132" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="17" t="s">
         <v>674</v>
       </c>
-      <c r="B132" s="33" t="s">
+      <c r="B132" s="32" t="s">
         <v>675</v>
       </c>
-      <c r="C132" s="19" t="s">
+      <c r="C132" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D132" s="18">
+      <c r="D132" s="17">
         <v>0.63400000000000001</v>
       </c>
       <c r="E132" s="6">
@@ -12917,30 +12906,30 @@
       <c r="F132" s="6">
         <v>1</v>
       </c>
-      <c r="G132" s="19"/>
-      <c r="H132" s="19" t="s">
+      <c r="G132" s="18"/>
+      <c r="H132" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I132" s="38"/>
-      <c r="J132" s="38" t="s">
+      <c r="I132" s="37"/>
+      <c r="J132" s="37" t="s">
         <v>1070</v>
       </c>
-      <c r="K132" s="19" t="s">
+      <c r="K132" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L132" s="19"/>
-    </row>
-    <row r="133" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="18" t="s">
+      <c r="L132" s="18"/>
+    </row>
+    <row r="133" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="17" t="s">
         <v>676</v>
       </c>
-      <c r="B133" s="33" t="s">
+      <c r="B133" s="32" t="s">
         <v>677</v>
       </c>
-      <c r="C133" s="19" t="s">
+      <c r="C133" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D133" s="18">
+      <c r="D133" s="17">
         <v>0.129</v>
       </c>
       <c r="E133" s="6">
@@ -12949,444 +12938,444 @@
       <c r="F133" s="6">
         <v>1</v>
       </c>
-      <c r="G133" s="19"/>
-      <c r="H133" s="19" t="s">
+      <c r="G133" s="18"/>
+      <c r="H133" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I133" s="38"/>
-      <c r="J133" s="38" t="s">
+      <c r="I133" s="37"/>
+      <c r="J133" s="37" t="s">
         <v>1070</v>
       </c>
-      <c r="K133" s="19" t="s">
+      <c r="K133" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L133" s="19"/>
-    </row>
-    <row r="134" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="18" t="s">
+      <c r="L133" s="18"/>
+    </row>
+    <row r="134" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="B134" s="33" t="s">
+      <c r="B134" s="32" t="s">
         <v>678</v>
       </c>
-      <c r="C134" s="19" t="s">
+      <c r="C134" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="19" t="s">
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="H134" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K134" s="19"/>
+      <c r="H134" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K134" s="18"/>
       <c r="L134" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="135" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="29" t="s">
+    <row r="135" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="B135" s="30" t="s">
+      <c r="B135" s="29" t="s">
         <v>680</v>
       </c>
-      <c r="C135" s="31" t="s">
+      <c r="C135" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D135" s="29"/>
+      <c r="D135" s="28"/>
       <c r="E135" s="6">
         <v>0</v>
       </c>
       <c r="F135" s="6">
         <v>1</v>
       </c>
-      <c r="G135" s="29" t="s">
+      <c r="G135" s="28" t="s">
         <v>668</v>
       </c>
-      <c r="H135" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K135" s="31"/>
+      <c r="H135" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K135" s="30"/>
       <c r="L135" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="136" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="29" t="s">
+    <row r="136" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="B136" s="30" t="s">
+      <c r="B136" s="29" t="s">
         <v>681</v>
       </c>
-      <c r="C136" s="31" t="s">
+      <c r="C136" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D136" s="29"/>
+      <c r="D136" s="28"/>
       <c r="E136" s="6">
         <v>0</v>
       </c>
       <c r="F136" s="6">
         <v>1</v>
       </c>
-      <c r="G136" s="29" t="s">
+      <c r="G136" s="28" t="s">
         <v>670</v>
       </c>
-      <c r="H136" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K136" s="31"/>
+      <c r="H136" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K136" s="30"/>
       <c r="L136" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="137" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="29" t="s">
+    <row r="137" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="B137" s="30" t="s">
+      <c r="B137" s="29" t="s">
         <v>682</v>
       </c>
-      <c r="C137" s="31" t="s">
+      <c r="C137" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D137" s="29"/>
+      <c r="D137" s="28"/>
       <c r="E137" s="6">
         <v>0</v>
       </c>
       <c r="F137" s="6">
         <v>1</v>
       </c>
-      <c r="G137" s="29" t="s">
+      <c r="G137" s="28" t="s">
         <v>672</v>
       </c>
-      <c r="H137" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K137" s="31"/>
+      <c r="H137" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K137" s="30"/>
       <c r="L137" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="138" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="29" t="s">
+    <row r="138" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="B138" s="30" t="s">
+      <c r="B138" s="29" t="s">
         <v>683</v>
       </c>
-      <c r="C138" s="31" t="s">
+      <c r="C138" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D138" s="29"/>
+      <c r="D138" s="28"/>
       <c r="E138" s="6">
         <v>0</v>
       </c>
       <c r="F138" s="6">
         <v>1</v>
       </c>
-      <c r="G138" s="29" t="s">
+      <c r="G138" s="28" t="s">
         <v>674</v>
       </c>
-      <c r="H138" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K138" s="31"/>
+      <c r="H138" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K138" s="30"/>
       <c r="L138" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="139" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="29" t="s">
+    <row r="139" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="B139" s="30" t="s">
+      <c r="B139" s="29" t="s">
         <v>684</v>
       </c>
-      <c r="C139" s="31" t="s">
+      <c r="C139" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D139" s="29"/>
+      <c r="D139" s="28"/>
       <c r="E139" s="6">
         <v>0</v>
       </c>
       <c r="F139" s="6">
         <v>1</v>
       </c>
-      <c r="G139" s="29" t="s">
+      <c r="G139" s="28" t="s">
         <v>676</v>
       </c>
-      <c r="H139" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K139" s="31"/>
+      <c r="H139" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K139" s="30"/>
       <c r="L139" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="140" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="29" t="s">
+    <row r="140" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="B140" s="30" t="s">
+      <c r="B140" s="29" t="s">
         <v>685</v>
       </c>
-      <c r="C140" s="31" t="s">
+      <c r="C140" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D140" s="29"/>
+      <c r="D140" s="28"/>
       <c r="E140" s="6">
         <v>0</v>
       </c>
       <c r="F140" s="6">
         <v>1</v>
       </c>
-      <c r="G140" s="29" t="s">
+      <c r="G140" s="28" t="s">
         <v>668</v>
       </c>
-      <c r="H140" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K140" s="31"/>
+      <c r="H140" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K140" s="30"/>
       <c r="L140" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="141" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="29" t="s">
+    <row r="141" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="B141" s="30" t="s">
+      <c r="B141" s="29" t="s">
         <v>686</v>
       </c>
-      <c r="C141" s="31" t="s">
+      <c r="C141" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D141" s="29"/>
+      <c r="D141" s="28"/>
       <c r="E141" s="6">
         <v>0</v>
       </c>
       <c r="F141" s="6">
         <v>1</v>
       </c>
-      <c r="G141" s="29" t="s">
+      <c r="G141" s="28" t="s">
         <v>670</v>
       </c>
-      <c r="H141" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K141" s="31"/>
+      <c r="H141" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K141" s="30"/>
       <c r="L141" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="142" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="29" t="s">
+    <row r="142" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="B142" s="30" t="s">
+      <c r="B142" s="29" t="s">
         <v>687</v>
       </c>
-      <c r="C142" s="31" t="s">
+      <c r="C142" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D142" s="29"/>
+      <c r="D142" s="28"/>
       <c r="E142" s="6">
         <v>0</v>
       </c>
       <c r="F142" s="6">
         <v>1</v>
       </c>
-      <c r="G142" s="29" t="s">
+      <c r="G142" s="28" t="s">
         <v>672</v>
       </c>
-      <c r="H142" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K142" s="31"/>
+      <c r="H142" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K142" s="30"/>
       <c r="L142" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="143" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="29" t="s">
+    <row r="143" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="B143" s="30" t="s">
+      <c r="B143" s="29" t="s">
         <v>688</v>
       </c>
-      <c r="C143" s="31" t="s">
+      <c r="C143" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D143" s="29"/>
+      <c r="D143" s="28"/>
       <c r="E143" s="6">
         <v>0</v>
       </c>
       <c r="F143" s="6">
         <v>1</v>
       </c>
-      <c r="G143" s="29" t="s">
+      <c r="G143" s="28" t="s">
         <v>674</v>
       </c>
-      <c r="H143" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K143" s="31"/>
+      <c r="H143" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K143" s="30"/>
       <c r="L143" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="144" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="29" t="s">
+    <row r="144" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="B144" s="30" t="s">
+      <c r="B144" s="29" t="s">
         <v>689</v>
       </c>
-      <c r="C144" s="31" t="s">
+      <c r="C144" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D144" s="29"/>
+      <c r="D144" s="28"/>
       <c r="E144" s="6">
         <v>0</v>
       </c>
       <c r="F144" s="6">
         <v>1</v>
       </c>
-      <c r="G144" s="29" t="s">
+      <c r="G144" s="28" t="s">
         <v>676</v>
       </c>
-      <c r="H144" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K144" s="31"/>
+      <c r="H144" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K144" s="30"/>
       <c r="L144" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="145" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="20" t="s">
+    <row r="145" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="19" t="s">
         <v>690</v>
       </c>
-      <c r="B145" s="21" t="s">
+      <c r="B145" s="20" t="s">
         <v>691</v>
       </c>
-      <c r="C145" s="22" t="s">
+      <c r="C145" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="D145" s="20"/>
-      <c r="E145" s="20">
-        <v>0</v>
-      </c>
-      <c r="F145" s="22"/>
-      <c r="G145" s="22"/>
-      <c r="H145" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I145" s="38"/>
-      <c r="J145" s="37" t="s">
+      <c r="D145" s="19"/>
+      <c r="E145" s="19">
+        <v>0</v>
+      </c>
+      <c r="F145" s="21"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I145" s="37"/>
+      <c r="J145" s="36" t="s">
         <v>1068</v>
       </c>
-      <c r="K145" s="22" t="s">
+      <c r="K145" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L145" s="22"/>
-    </row>
-    <row r="146" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="18" t="s">
+      <c r="L145" s="21"/>
+    </row>
+    <row r="146" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="B146" s="33" t="s">
+      <c r="B146" s="32" t="s">
         <v>692</v>
       </c>
-      <c r="C146" s="19" t="s">
+      <c r="C146" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D146" s="18"/>
-      <c r="E146" s="18">
-        <v>0</v>
-      </c>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19" t="s">
+      <c r="D146" s="17"/>
+      <c r="E146" s="17">
+        <v>0</v>
+      </c>
+      <c r="F146" s="18"/>
+      <c r="G146" s="18" t="s">
         <v>693</v>
       </c>
-      <c r="H146" s="19" t="s">
+      <c r="H146" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I146" s="38"/>
-      <c r="J146" s="38"/>
-      <c r="K146" s="19"/>
-      <c r="L146" s="19"/>
-    </row>
-    <row r="147" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="18" t="s">
+      <c r="I146" s="37"/>
+      <c r="J146" s="37"/>
+      <c r="K146" s="18"/>
+      <c r="L146" s="18"/>
+    </row>
+    <row r="147" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="B147" s="33" t="s">
+      <c r="B147" s="32" t="s">
         <v>694</v>
       </c>
-      <c r="C147" s="19" t="s">
+      <c r="C147" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D147" s="18"/>
-      <c r="E147" s="18">
-        <v>0</v>
-      </c>
-      <c r="F147" s="19"/>
-      <c r="G147" s="19" t="s">
+      <c r="D147" s="17"/>
+      <c r="E147" s="17">
+        <v>0</v>
+      </c>
+      <c r="F147" s="18"/>
+      <c r="G147" s="18" t="s">
         <v>695</v>
       </c>
-      <c r="H147" s="19" t="s">
+      <c r="H147" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I147" s="38"/>
-      <c r="J147" s="38"/>
-      <c r="K147" s="19"/>
-      <c r="L147" s="19"/>
-    </row>
-    <row r="148" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="20" t="s">
+      <c r="I147" s="37"/>
+      <c r="J147" s="37"/>
+      <c r="K147" s="18"/>
+      <c r="L147" s="18"/>
+    </row>
+    <row r="148" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="19" t="s">
         <v>696</v>
       </c>
-      <c r="B148" s="21" t="s">
+      <c r="B148" s="20" t="s">
         <v>697</v>
       </c>
-      <c r="C148" s="22" t="s">
+      <c r="C148" s="21" t="s">
         <v>548</v>
       </c>
-      <c r="D148" s="20">
+      <c r="D148" s="19">
         <v>720</v>
       </c>
-      <c r="E148" s="20">
+      <c r="E148" s="19">
         <v>1</v>
       </c>
-      <c r="F148" s="22"/>
-      <c r="G148" s="22"/>
-      <c r="H148" s="22" t="s">
+      <c r="F148" s="21"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I148" s="38"/>
-      <c r="J148" s="38" t="s">
+      <c r="I148" s="37"/>
+      <c r="J148" s="37" t="s">
         <v>1071</v>
       </c>
-      <c r="K148" s="22" t="s">
+      <c r="K148" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L148" s="22"/>
-    </row>
-    <row r="149" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="20" t="s">
+      <c r="L148" s="21"/>
+    </row>
+    <row r="149" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="19" t="s">
         <v>698</v>
       </c>
-      <c r="B149" s="21" t="s">
+      <c r="B149" s="20" t="s">
         <v>699</v>
       </c>
-      <c r="C149" s="22" t="s">
+      <c r="C149" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="D149" s="20">
+      <c r="D149" s="19">
         <v>0.21</v>
       </c>
       <c r="E149" s="6">
@@ -13395,30 +13384,30 @@
       <c r="F149" s="6">
         <v>1</v>
       </c>
-      <c r="G149" s="22"/>
-      <c r="H149" s="22" t="s">
+      <c r="G149" s="21"/>
+      <c r="H149" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I149" s="38"/>
-      <c r="J149" s="38" t="s">
+      <c r="I149" s="37"/>
+      <c r="J149" s="37" t="s">
         <v>1071</v>
       </c>
-      <c r="K149" s="22" t="s">
+      <c r="K149" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L149" s="22"/>
-    </row>
-    <row r="150" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="20" t="s">
+      <c r="L149" s="21"/>
+    </row>
+    <row r="150" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="19" t="s">
         <v>700</v>
       </c>
-      <c r="B150" s="21" t="s">
+      <c r="B150" s="20" t="s">
         <v>701</v>
       </c>
-      <c r="C150" s="22" t="s">
+      <c r="C150" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="D150" s="20">
+      <c r="D150" s="19">
         <v>0.21</v>
       </c>
       <c r="E150" s="6">
@@ -13427,30 +13416,30 @@
       <c r="F150" s="6">
         <v>1</v>
       </c>
-      <c r="G150" s="22"/>
-      <c r="H150" s="22" t="s">
+      <c r="G150" s="21"/>
+      <c r="H150" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I150" s="38"/>
-      <c r="J150" s="38" t="s">
+      <c r="I150" s="37"/>
+      <c r="J150" s="37" t="s">
         <v>1071</v>
       </c>
-      <c r="K150" s="22" t="s">
+      <c r="K150" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L150" s="22"/>
-    </row>
-    <row r="151" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="20" t="s">
+      <c r="L150" s="21"/>
+    </row>
+    <row r="151" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="19" t="s">
         <v>702</v>
       </c>
-      <c r="B151" s="21" t="s">
+      <c r="B151" s="20" t="s">
         <v>703</v>
       </c>
-      <c r="C151" s="22" t="s">
+      <c r="C151" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="D151" s="20">
+      <c r="D151" s="19">
         <v>0.3</v>
       </c>
       <c r="E151" s="6">
@@ -13459,30 +13448,30 @@
       <c r="F151" s="6">
         <v>1</v>
       </c>
-      <c r="G151" s="22"/>
-      <c r="H151" s="22" t="s">
+      <c r="G151" s="21"/>
+      <c r="H151" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I151" s="38"/>
-      <c r="J151" s="38" t="s">
+      <c r="I151" s="37"/>
+      <c r="J151" s="37" t="s">
         <v>1071</v>
       </c>
-      <c r="K151" s="22" t="s">
+      <c r="K151" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L151" s="22"/>
-    </row>
-    <row r="152" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="20" t="s">
+      <c r="L151" s="21"/>
+    </row>
+    <row r="152" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="19" t="s">
         <v>704</v>
       </c>
-      <c r="B152" s="21" t="s">
+      <c r="B152" s="20" t="s">
         <v>705</v>
       </c>
-      <c r="C152" s="22" t="s">
+      <c r="C152" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="D152" s="20">
+      <c r="D152" s="19">
         <v>0.28000000000000003</v>
       </c>
       <c r="E152" s="6">
@@ -13491,265 +13480,265 @@
       <c r="F152" s="6">
         <v>1</v>
       </c>
-      <c r="G152" s="22"/>
-      <c r="H152" s="22" t="s">
+      <c r="G152" s="21"/>
+      <c r="H152" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I152" s="38"/>
-      <c r="J152" s="38" t="s">
+      <c r="I152" s="37"/>
+      <c r="J152" s="37" t="s">
         <v>1071</v>
       </c>
-      <c r="K152" s="22" t="s">
+      <c r="K152" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L152" s="22"/>
-    </row>
-    <row r="153" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="20" t="s">
+      <c r="L152" s="21"/>
+    </row>
+    <row r="153" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="B153" s="21" t="s">
+      <c r="B153" s="20" t="s">
         <v>706</v>
       </c>
-      <c r="C153" s="22" t="s">
+      <c r="C153" s="21" t="s">
         <v>554</v>
       </c>
-      <c r="D153" s="20"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="22"/>
-      <c r="G153" s="22" t="s">
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="21" t="s">
         <v>707</v>
       </c>
-      <c r="H153" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I153" s="34"/>
-      <c r="J153" s="34"/>
-      <c r="K153" s="22"/>
+      <c r="H153" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I153" s="33"/>
+      <c r="J153" s="33"/>
+      <c r="K153" s="21"/>
       <c r="L153" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="154" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="29" t="s">
+    <row r="154" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="B154" s="30" t="s">
+      <c r="B154" s="29" t="s">
         <v>708</v>
       </c>
-      <c r="C154" s="31" t="s">
+      <c r="C154" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D154" s="29"/>
+      <c r="D154" s="28"/>
       <c r="E154" s="6">
         <v>0</v>
       </c>
       <c r="F154" s="6">
         <v>1</v>
       </c>
-      <c r="G154" s="29" t="s">
+      <c r="G154" s="28" t="s">
         <v>698</v>
       </c>
-      <c r="H154" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K154" s="31"/>
+      <c r="H154" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K154" s="30"/>
       <c r="L154" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="155" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="29" t="s">
+    <row r="155" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="B155" s="30" t="s">
+      <c r="B155" s="29" t="s">
         <v>709</v>
       </c>
-      <c r="C155" s="31" t="s">
+      <c r="C155" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D155" s="29"/>
+      <c r="D155" s="28"/>
       <c r="E155" s="6">
         <v>0</v>
       </c>
       <c r="F155" s="6">
         <v>1</v>
       </c>
-      <c r="G155" s="29" t="s">
+      <c r="G155" s="28" t="s">
         <v>700</v>
       </c>
-      <c r="H155" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K155" s="31"/>
+      <c r="H155" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K155" s="30"/>
       <c r="L155" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="156" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="29" t="s">
+    <row r="156" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="B156" s="30" t="s">
+      <c r="B156" s="29" t="s">
         <v>710</v>
       </c>
-      <c r="C156" s="31" t="s">
+      <c r="C156" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D156" s="29"/>
+      <c r="D156" s="28"/>
       <c r="E156" s="6">
         <v>0</v>
       </c>
       <c r="F156" s="6">
         <v>1</v>
       </c>
-      <c r="G156" s="29" t="s">
+      <c r="G156" s="28" t="s">
         <v>702</v>
       </c>
-      <c r="H156" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K156" s="31"/>
+      <c r="H156" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K156" s="30"/>
       <c r="L156" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="157" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="29" t="s">
+    <row r="157" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="B157" s="30" t="s">
+      <c r="B157" s="29" t="s">
         <v>711</v>
       </c>
-      <c r="C157" s="31" t="s">
+      <c r="C157" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D157" s="29"/>
+      <c r="D157" s="28"/>
       <c r="E157" s="6">
         <v>0</v>
       </c>
       <c r="F157" s="6">
         <v>1</v>
       </c>
-      <c r="G157" s="29" t="s">
+      <c r="G157" s="28" t="s">
         <v>704</v>
       </c>
-      <c r="H157" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K157" s="31"/>
+      <c r="H157" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K157" s="30"/>
       <c r="L157" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="158" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="29" t="s">
+    <row r="158" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="B158" s="30" t="s">
+      <c r="B158" s="29" t="s">
         <v>712</v>
       </c>
-      <c r="C158" s="31" t="s">
+      <c r="C158" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D158" s="29"/>
+      <c r="D158" s="28"/>
       <c r="E158" s="6">
         <v>0</v>
       </c>
       <c r="F158" s="6">
         <v>1</v>
       </c>
-      <c r="G158" s="29" t="s">
+      <c r="G158" s="28" t="s">
         <v>698</v>
       </c>
-      <c r="H158" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K158" s="31"/>
+      <c r="H158" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K158" s="30"/>
       <c r="L158" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="159" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="29" t="s">
+    <row r="159" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="B159" s="30" t="s">
+      <c r="B159" s="29" t="s">
         <v>713</v>
       </c>
-      <c r="C159" s="31" t="s">
+      <c r="C159" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D159" s="29"/>
+      <c r="D159" s="28"/>
       <c r="E159" s="6">
         <v>0</v>
       </c>
       <c r="F159" s="6">
         <v>1</v>
       </c>
-      <c r="G159" s="29" t="s">
+      <c r="G159" s="28" t="s">
         <v>700</v>
       </c>
-      <c r="H159" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K159" s="31"/>
+      <c r="H159" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K159" s="30"/>
       <c r="L159" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="160" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="29" t="s">
+    <row r="160" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="B160" s="30" t="s">
+      <c r="B160" s="29" t="s">
         <v>714</v>
       </c>
-      <c r="C160" s="31" t="s">
+      <c r="C160" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D160" s="29"/>
+      <c r="D160" s="28"/>
       <c r="E160" s="6">
         <v>0</v>
       </c>
       <c r="F160" s="6">
         <v>1</v>
       </c>
-      <c r="G160" s="29" t="s">
+      <c r="G160" s="28" t="s">
         <v>702</v>
       </c>
-      <c r="H160" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K160" s="31"/>
+      <c r="H160" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K160" s="30"/>
       <c r="L160" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="161" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="29" t="s">
+    <row r="161" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="B161" s="30" t="s">
+      <c r="B161" s="29" t="s">
         <v>715</v>
       </c>
-      <c r="C161" s="31" t="s">
+      <c r="C161" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D161" s="29"/>
+      <c r="D161" s="28"/>
       <c r="E161" s="6">
         <v>0</v>
       </c>
       <c r="F161" s="6">
         <v>1</v>
       </c>
-      <c r="G161" s="29" t="s">
+      <c r="G161" s="28" t="s">
         <v>704</v>
       </c>
-      <c r="H161" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K161" s="31"/>
+      <c r="H161" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K161" s="30"/>
       <c r="L161" s="6">
         <v>-1</v>
       </c>
@@ -13773,11 +13762,11 @@
       <c r="F162" s="6">
         <v>1</v>
       </c>
-      <c r="G162" s="17"/>
+      <c r="G162" s="16"/>
       <c r="H162" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K162" s="19" t="s">
+      <c r="K162" s="18" t="s">
         <v>22</v>
       </c>
       <c r="L162" s="6"/>
@@ -13801,11 +13790,11 @@
       <c r="F163" s="6">
         <v>1</v>
       </c>
-      <c r="G163" s="17"/>
+      <c r="G163" s="16"/>
       <c r="H163" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K163" s="19" t="s">
+      <c r="K163" s="18" t="s">
         <v>22</v>
       </c>
       <c r="L163" s="6"/>
@@ -13829,11 +13818,11 @@
       <c r="F164" s="6">
         <v>1</v>
       </c>
-      <c r="G164" s="17"/>
+      <c r="G164" s="16"/>
       <c r="H164" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K164" s="19" t="s">
+      <c r="K164" s="18" t="s">
         <v>22</v>
       </c>
       <c r="L164" s="6"/>
@@ -13857,11 +13846,11 @@
       <c r="F165" s="6">
         <v>1</v>
       </c>
-      <c r="G165" s="17"/>
+      <c r="G165" s="16"/>
       <c r="H165" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K165" s="19" t="s">
+      <c r="K165" s="18" t="s">
         <v>22</v>
       </c>
       <c r="L165" s="6"/>
@@ -13885,11 +13874,11 @@
       <c r="F166" s="6">
         <v>1</v>
       </c>
-      <c r="G166" s="17"/>
+      <c r="G166" s="16"/>
       <c r="H166" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K166" s="19" t="s">
+      <c r="K166" s="18" t="s">
         <v>22</v>
       </c>
       <c r="L166" s="6"/>
@@ -13913,11 +13902,11 @@
       <c r="F167" s="6">
         <v>1</v>
       </c>
-      <c r="G167" s="17"/>
+      <c r="G167" s="16"/>
       <c r="H167" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K167" s="19" t="s">
+      <c r="K167" s="18" t="s">
         <v>22</v>
       </c>
       <c r="L167" s="6"/>
@@ -13941,11 +13930,11 @@
       <c r="F168" s="6">
         <v>1</v>
       </c>
-      <c r="G168" s="17"/>
+      <c r="G168" s="16"/>
       <c r="H168" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K168" s="19" t="s">
+      <c r="K168" s="18" t="s">
         <v>22</v>
       </c>
       <c r="L168" s="6"/>
@@ -13969,11 +13958,11 @@
       <c r="F169" s="6">
         <v>1</v>
       </c>
-      <c r="G169" s="17"/>
+      <c r="G169" s="16"/>
       <c r="H169" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K169" s="19" t="s">
+      <c r="K169" s="18" t="s">
         <v>22</v>
       </c>
       <c r="L169" s="6"/>
@@ -13997,11 +13986,11 @@
       <c r="F170" s="6">
         <v>1</v>
       </c>
-      <c r="G170" s="17"/>
+      <c r="G170" s="16"/>
       <c r="H170" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K170" s="19" t="s">
+      <c r="K170" s="18" t="s">
         <v>22</v>
       </c>
       <c r="L170" s="6"/>
@@ -14025,11 +14014,11 @@
       <c r="F171" s="6">
         <v>1</v>
       </c>
-      <c r="G171" s="17"/>
+      <c r="G171" s="16"/>
       <c r="H171" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K171" s="19" t="s">
+      <c r="K171" s="18" t="s">
         <v>22</v>
       </c>
       <c r="L171" s="6"/>
@@ -14053,11 +14042,11 @@
       <c r="F172" s="6">
         <v>1</v>
       </c>
-      <c r="G172" s="17"/>
+      <c r="G172" s="16"/>
       <c r="H172" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K172" s="19" t="s">
+      <c r="K172" s="18" t="s">
         <v>22</v>
       </c>
       <c r="L172" s="6"/>
@@ -14081,11 +14070,11 @@
       <c r="F173" s="6">
         <v>1</v>
       </c>
-      <c r="G173" s="17"/>
+      <c r="G173" s="16"/>
       <c r="H173" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K173" s="19" t="s">
+      <c r="K173" s="18" t="s">
         <v>22</v>
       </c>
       <c r="L173" s="6"/>
@@ -14094,8 +14083,8 @@
       <c r="C174" s="1"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
-      <c r="I174" s="36"/>
-      <c r="J174" s="36"/>
+      <c r="I174" s="35"/>
+      <c r="J174" s="35"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
@@ -14109,9 +14098,9 @@
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
-      <c r="I175" s="36"/>
-      <c r="J175" s="36"/>
-      <c r="K175" s="19" t="s">
+      <c r="I175" s="35"/>
+      <c r="J175" s="35"/>
+      <c r="K175" s="18" t="s">
         <v>806</v>
       </c>
     </row>
@@ -14122,7 +14111,7 @@
       <c r="B176" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="C176" s="25" t="s">
+      <c r="C176" s="24" t="s">
         <v>812</v>
       </c>
       <c r="D176" s="6"/>
@@ -14131,8 +14120,8 @@
       <c r="G176" t="s">
         <v>821</v>
       </c>
-      <c r="I176" s="36"/>
-      <c r="J176" s="36"/>
+      <c r="I176" s="35"/>
+      <c r="J176" s="35"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
@@ -14149,9 +14138,9 @@
       </c>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
-      <c r="I177" s="36"/>
-      <c r="J177" s="36"/>
-      <c r="K177" s="19" t="s">
+      <c r="I177" s="35"/>
+      <c r="J177" s="35"/>
+      <c r="K177" s="18" t="s">
         <v>806</v>
       </c>
     </row>
@@ -14162,16 +14151,16 @@
       <c r="B178" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="C178" s="25" t="s">
+      <c r="C178" s="24" t="s">
         <v>812</v>
       </c>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
-      <c r="G178" s="25" t="s">
+      <c r="G178" s="24" t="s">
         <v>811</v>
       </c>
-      <c r="I178" s="36"/>
-      <c r="J178" s="36"/>
+      <c r="I178" s="35"/>
+      <c r="J178" s="35"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
@@ -14180,18 +14169,18 @@
       <c r="B179" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="C179" s="25" t="s">
+      <c r="C179" s="24" t="s">
         <v>812</v>
       </c>
-      <c r="G179" s="25" t="s">
+      <c r="G179" s="24" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="24" t="s">
+      <c r="A181" s="23" t="s">
         <v>824</v>
       </c>
-      <c r="B181" s="24" t="s">
+      <c r="B181" s="23" t="s">
         <v>826</v>
       </c>
       <c r="C181" s="6" t="s">
@@ -14200,20 +14189,20 @@
       <c r="D181" s="6">
         <v>0</v>
       </c>
-      <c r="E181" s="25">
+      <c r="E181" s="24">
         <v>0</v>
       </c>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
-      <c r="K181" s="25" t="s">
+      <c r="K181" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="24" t="s">
+      <c r="A182" s="23" t="s">
         <v>823</v>
       </c>
-      <c r="B182" s="24" t="s">
+      <c r="B182" s="23" t="s">
         <v>827</v>
       </c>
       <c r="C182" s="6" t="s">
@@ -14222,20 +14211,20 @@
       <c r="D182" s="6">
         <v>0</v>
       </c>
-      <c r="E182" s="25">
+      <c r="E182" s="24">
         <v>0</v>
       </c>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
-      <c r="K182" s="25" t="s">
+      <c r="K182" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="24" t="s">
+      <c r="A183" s="23" t="s">
         <v>825</v>
       </c>
-      <c r="B183" s="24" t="s">
+      <c r="B183" s="23" t="s">
         <v>828</v>
       </c>
       <c r="C183" s="6" t="s">
@@ -14244,20 +14233,20 @@
       <c r="D183" s="6">
         <v>0</v>
       </c>
-      <c r="E183" s="25">
+      <c r="E183" s="24">
         <v>0</v>
       </c>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
-      <c r="K183" s="25" t="s">
+      <c r="K183" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="24" t="s">
+      <c r="A184" s="23" t="s">
         <v>1111</v>
       </c>
-      <c r="B184" s="24" t="s">
+      <c r="B184" s="23" t="s">
         <v>1112</v>
       </c>
       <c r="C184" s="6" t="s">
@@ -14266,20 +14255,20 @@
       <c r="D184" s="6">
         <v>0</v>
       </c>
-      <c r="E184" s="25">
+      <c r="E184" s="24">
         <v>0</v>
       </c>
       <c r="F184" s="6"/>
-      <c r="J184" s="25"/>
-      <c r="K184" s="25" t="s">
+      <c r="J184" s="24"/>
+      <c r="K184" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="24" t="s">
+      <c r="A185" s="23" t="s">
         <v>1113</v>
       </c>
-      <c r="B185" s="24" t="s">
+      <c r="B185" s="23" t="s">
         <v>1114</v>
       </c>
       <c r="C185" s="6" t="s">
@@ -14288,20 +14277,20 @@
       <c r="D185" s="6">
         <v>0</v>
       </c>
-      <c r="E185" s="25">
+      <c r="E185" s="24">
         <v>0</v>
       </c>
       <c r="F185" s="6"/>
-      <c r="J185" s="25"/>
-      <c r="K185" s="25" t="s">
+      <c r="J185" s="24"/>
+      <c r="K185" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="24" t="s">
+      <c r="A186" s="23" t="s">
         <v>1115</v>
       </c>
-      <c r="B186" s="24" t="s">
+      <c r="B186" s="23" t="s">
         <v>1116</v>
       </c>
       <c r="C186" s="6" t="s">
@@ -14310,20 +14299,20 @@
       <c r="D186" s="6">
         <v>0</v>
       </c>
-      <c r="E186" s="25">
+      <c r="E186" s="24">
         <v>0</v>
       </c>
       <c r="F186" s="6"/>
-      <c r="J186" s="25"/>
-      <c r="K186" s="25" t="s">
+      <c r="J186" s="24"/>
+      <c r="K186" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="24" t="s">
+      <c r="A187" s="23" t="s">
         <v>1064</v>
       </c>
-      <c r="B187" s="24" t="s">
+      <c r="B187" s="23" t="s">
         <v>1062</v>
       </c>
       <c r="C187" s="6" t="s">
@@ -14331,12 +14320,12 @@
       </c>
       <c r="D187" s="6"/>
       <c r="F187" s="6"/>
-      <c r="G187" s="25" t="s">
+      <c r="G187" s="24" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="24" t="s">
+      <c r="A188" s="23" t="s">
         <v>829</v>
       </c>
       <c r="B188" s="1" t="s">
@@ -14346,12 +14335,12 @@
         <v>536</v>
       </c>
       <c r="D188" s="6"/>
-      <c r="G188" s="25" t="s">
+      <c r="G188" s="24" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="24" t="s">
+      <c r="A189" s="23" t="s">
         <v>832</v>
       </c>
       <c r="B189" s="1" t="s">
@@ -14360,12 +14349,12 @@
       <c r="C189" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G189" s="25" t="s">
+      <c r="G189" s="24" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="24" t="s">
+      <c r="A190" s="23" t="s">
         <v>1040</v>
       </c>
       <c r="B190" s="1" t="s">
@@ -14374,12 +14363,12 @@
       <c r="C190" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G190" s="25" t="s">
+      <c r="G190" s="24" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="24" t="s">
+      <c r="A191" s="23" t="s">
         <v>834</v>
       </c>
       <c r="B191" s="1" t="s">
@@ -14388,12 +14377,12 @@
       <c r="C191" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G191" s="25" t="s">
+      <c r="G191" s="24" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="24" t="s">
+      <c r="A193" s="23" t="s">
         <v>845</v>
       </c>
       <c r="B193" s="1" t="s">
@@ -14402,12 +14391,12 @@
       <c r="C193" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G193" s="25" t="s">
+      <c r="G193" s="24" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="24" t="s">
+      <c r="A194" s="23" t="s">
         <v>848</v>
       </c>
       <c r="B194" s="1" t="s">
@@ -14416,12 +14405,12 @@
       <c r="C194" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G194" s="25" t="s">
+      <c r="G194" s="24" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="24" t="s">
+      <c r="A195" s="23" t="s">
         <v>846</v>
       </c>
       <c r="B195" s="1" t="s">
@@ -14430,12 +14419,12 @@
       <c r="C195" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G195" s="25" t="s">
+      <c r="G195" s="24" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="24" t="s">
+      <c r="A196" s="23" t="s">
         <v>844</v>
       </c>
       <c r="B196" s="1" t="s">
@@ -14444,12 +14433,12 @@
       <c r="C196" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G196" s="25" t="s">
+      <c r="G196" s="24" t="s">
         <v>998</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="24" t="s">
+      <c r="A197" s="23" t="s">
         <v>847</v>
       </c>
       <c r="B197" s="1" t="s">
@@ -14458,12 +14447,12 @@
       <c r="C197" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G197" s="25" t="s">
+      <c r="G197" s="24" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="24" t="s">
+      <c r="A198" s="23" t="s">
         <v>843</v>
       </c>
       <c r="B198" s="1" t="s">
@@ -14472,12 +14461,12 @@
       <c r="C198" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G198" s="25" t="s">
+      <c r="G198" s="24" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="24" t="s">
+      <c r="A199" s="23" t="s">
         <v>849</v>
       </c>
       <c r="B199" s="1" t="s">
@@ -14486,12 +14475,12 @@
       <c r="C199" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G199" s="25" t="s">
+      <c r="G199" s="24" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="24" t="s">
+      <c r="A200" s="23" t="s">
         <v>850</v>
       </c>
       <c r="B200" s="1" t="s">
@@ -14500,12 +14489,12 @@
       <c r="C200" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G200" s="25" t="s">
+      <c r="G200" s="24" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="24" t="s">
+      <c r="A201" s="23" t="s">
         <v>853</v>
       </c>
       <c r="B201" s="1" t="s">
@@ -14514,12 +14503,12 @@
       <c r="C201" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G201" s="25" t="s">
+      <c r="G201" s="24" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="24" t="s">
+      <c r="A202" s="23" t="s">
         <v>859</v>
       </c>
       <c r="B202" s="1" t="s">
@@ -14528,12 +14517,12 @@
       <c r="C202" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G202" s="25" t="s">
+      <c r="G202" s="24" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="24" t="s">
+      <c r="A203" s="23" t="s">
         <v>860</v>
       </c>
       <c r="B203" s="1" t="s">
@@ -14542,12 +14531,12 @@
       <c r="C203" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G203" s="25" t="s">
+      <c r="G203" s="24" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="24" t="s">
+      <c r="A204" s="23" t="s">
         <v>861</v>
       </c>
       <c r="B204" s="1" t="s">
@@ -14556,12 +14545,12 @@
       <c r="C204" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G204" s="25" t="s">
+      <c r="G204" s="24" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="24" t="s">
+      <c r="A205" s="23" t="s">
         <v>862</v>
       </c>
       <c r="B205" s="1" t="s">
@@ -14570,12 +14559,12 @@
       <c r="C205" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G205" s="25" t="s">
+      <c r="G205" s="24" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="24" t="s">
+      <c r="A206" s="23" t="s">
         <v>863</v>
       </c>
       <c r="B206" s="1" t="s">
@@ -14584,12 +14573,12 @@
       <c r="C206" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G206" s="25" t="s">
+      <c r="G206" s="24" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="24" t="s">
+      <c r="A207" s="23" t="s">
         <v>864</v>
       </c>
       <c r="B207" s="1" t="s">
@@ -14598,12 +14587,12 @@
       <c r="C207" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G207" s="25" t="s">
+      <c r="G207" s="24" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="24" t="s">
+      <c r="A208" s="23" t="s">
         <v>865</v>
       </c>
       <c r="B208" s="1" t="s">
@@ -14612,12 +14601,12 @@
       <c r="C208" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G208" s="25" t="s">
+      <c r="G208" s="24" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="24" t="s">
+      <c r="A209" s="23" t="s">
         <v>867</v>
       </c>
       <c r="B209" s="1" t="s">
@@ -14626,12 +14615,12 @@
       <c r="C209" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G209" s="25" t="s">
+      <c r="G209" s="24" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="24" t="s">
+      <c r="A210" s="23" t="s">
         <v>869</v>
       </c>
       <c r="B210" s="1" t="s">
@@ -14640,16 +14629,16 @@
       <c r="C210" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G210" s="25" t="s">
+      <c r="G210" s="24" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="24"/>
+      <c r="A211" s="23"/>
       <c r="C211" s="6"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="24" t="s">
+      <c r="A212" s="23" t="s">
         <v>898</v>
       </c>
       <c r="B212" s="1" t="s">
@@ -14658,12 +14647,12 @@
       <c r="C212" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G212" s="25" t="s">
+      <c r="G212" s="24" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="24" t="s">
+      <c r="A213" s="23" t="s">
         <v>899</v>
       </c>
       <c r="B213" s="1" t="s">
@@ -14672,12 +14661,12 @@
       <c r="C213" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G213" s="25" t="s">
+      <c r="G213" s="24" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="24" t="s">
+      <c r="A214" s="23" t="s">
         <v>900</v>
       </c>
       <c r="B214" s="1" t="s">
@@ -14686,12 +14675,12 @@
       <c r="C214" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G214" s="25" t="s">
+      <c r="G214" s="24" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="24" t="s">
+      <c r="A215" s="23" t="s">
         <v>901</v>
       </c>
       <c r="B215" s="1" t="s">
@@ -14700,12 +14689,12 @@
       <c r="C215" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G215" s="25" t="s">
+      <c r="G215" s="24" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="24" t="s">
+      <c r="A216" s="23" t="s">
         <v>902</v>
       </c>
       <c r="B216" s="1" t="s">
@@ -14714,12 +14703,12 @@
       <c r="C216" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G216" s="25" t="s">
+      <c r="G216" s="24" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="24" t="s">
+      <c r="A217" s="23" t="s">
         <v>903</v>
       </c>
       <c r="B217" s="1" t="s">
@@ -14728,12 +14717,12 @@
       <c r="C217" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G217" s="25" t="s">
+      <c r="G217" s="24" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="24" t="s">
+      <c r="A218" s="23" t="s">
         <v>904</v>
       </c>
       <c r="B218" s="1" t="s">
@@ -14742,12 +14731,12 @@
       <c r="C218" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G218" s="25" t="s">
+      <c r="G218" s="24" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="24" t="s">
+      <c r="A219" s="23" t="s">
         <v>906</v>
       </c>
       <c r="B219" s="1" t="s">
@@ -14756,12 +14745,12 @@
       <c r="C219" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G219" s="25" t="s">
+      <c r="G219" s="24" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="24" t="s">
+      <c r="A220" s="23" t="s">
         <v>908</v>
       </c>
       <c r="B220" s="1" t="s">
@@ -14770,12 +14759,12 @@
       <c r="C220" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G220" s="25" t="s">
+      <c r="G220" s="24" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="24" t="s">
+      <c r="A221" s="23" t="s">
         <v>910</v>
       </c>
       <c r="B221" s="1" t="s">
@@ -14784,12 +14773,12 @@
       <c r="C221" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G221" s="25" t="s">
+      <c r="G221" s="24" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="24" t="s">
+      <c r="A222" s="23" t="s">
         <v>911</v>
       </c>
       <c r="B222" s="1" t="s">
@@ -14798,12 +14787,12 @@
       <c r="C222" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G222" s="25" t="s">
+      <c r="G222" s="24" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="24" t="s">
+      <c r="A223" s="23" t="s">
         <v>912</v>
       </c>
       <c r="B223" s="1" t="s">
@@ -14812,12 +14801,12 @@
       <c r="C223" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G223" s="25" t="s">
+      <c r="G223" s="24" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="24" t="s">
+      <c r="A224" s="23" t="s">
         <v>913</v>
       </c>
       <c r="B224" s="1" t="s">
@@ -14826,12 +14815,12 @@
       <c r="C224" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G224" s="25" t="s">
+      <c r="G224" s="24" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="24" t="s">
+      <c r="A225" s="23" t="s">
         <v>914</v>
       </c>
       <c r="B225" s="1" t="s">
@@ -14840,12 +14829,12 @@
       <c r="C225" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G225" s="25" t="s">
+      <c r="G225" s="24" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="24" t="s">
+      <c r="A226" s="23" t="s">
         <v>915</v>
       </c>
       <c r="B226" s="1" t="s">
@@ -14854,12 +14843,12 @@
       <c r="C226" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G226" s="25" t="s">
+      <c r="G226" s="24" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="24" t="s">
+      <c r="A227" s="23" t="s">
         <v>916</v>
       </c>
       <c r="B227" s="1" t="s">
@@ -14868,12 +14857,12 @@
       <c r="C227" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G227" s="25" t="s">
+      <c r="G227" s="24" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="24" t="s">
+      <c r="A228" s="23" t="s">
         <v>918</v>
       </c>
       <c r="B228" s="1" t="s">
@@ -14882,12 +14871,12 @@
       <c r="C228" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G228" s="25" t="s">
+      <c r="G228" s="24" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="24" t="s">
+      <c r="A229" s="23" t="s">
         <v>920</v>
       </c>
       <c r="B229" s="1" t="s">
@@ -14896,16 +14885,16 @@
       <c r="C229" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G229" s="25" t="s">
+      <c r="G229" s="24" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="24"/>
+      <c r="A230" s="23"/>
       <c r="C230" s="6"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="24" t="s">
+      <c r="A231" s="23" t="s">
         <v>934</v>
       </c>
       <c r="B231" s="1" t="s">
@@ -14914,12 +14903,12 @@
       <c r="C231" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G231" s="25" t="s">
+      <c r="G231" s="24" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="24" t="s">
+      <c r="A232" s="23" t="s">
         <v>935</v>
       </c>
       <c r="B232" s="1" t="s">
@@ -14928,12 +14917,12 @@
       <c r="C232" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G232" s="25" t="s">
+      <c r="G232" s="24" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="24" t="s">
+      <c r="A233" s="23" t="s">
         <v>936</v>
       </c>
       <c r="B233" s="1" t="s">
@@ -14942,12 +14931,12 @@
       <c r="C233" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G233" s="25" t="s">
+      <c r="G233" s="24" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="24" t="s">
+      <c r="A234" s="23" t="s">
         <v>937</v>
       </c>
       <c r="B234" s="1" t="s">
@@ -14956,12 +14945,12 @@
       <c r="C234" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G234" s="25" t="s">
+      <c r="G234" s="24" t="s">
         <v>1022</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="24" t="s">
+      <c r="A235" s="23" t="s">
         <v>938</v>
       </c>
       <c r="B235" s="1" t="s">
@@ -14970,12 +14959,12 @@
       <c r="C235" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G235" s="25" t="s">
+      <c r="G235" s="24" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="24" t="s">
+      <c r="A236" s="23" t="s">
         <v>939</v>
       </c>
       <c r="B236" s="1" t="s">
@@ -14984,12 +14973,12 @@
       <c r="C236" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G236" s="25" t="s">
+      <c r="G236" s="24" t="s">
         <v>1024</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="24" t="s">
+      <c r="A237" s="23" t="s">
         <v>940</v>
       </c>
       <c r="B237" s="1" t="s">
@@ -14998,12 +14987,12 @@
       <c r="C237" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G237" s="25" t="s">
+      <c r="G237" s="24" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="24" t="s">
+      <c r="A238" s="23" t="s">
         <v>942</v>
       </c>
       <c r="B238" s="1" t="s">
@@ -15012,12 +15001,12 @@
       <c r="C238" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G238" s="25" t="s">
+      <c r="G238" s="24" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="24" t="s">
+      <c r="A239" s="23" t="s">
         <v>944</v>
       </c>
       <c r="B239" s="1" t="s">
@@ -15026,12 +15015,12 @@
       <c r="C239" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G239" s="25" t="s">
+      <c r="G239" s="24" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="24" t="s">
+      <c r="A240" s="23" t="s">
         <v>922</v>
       </c>
       <c r="B240" s="1" t="s">
@@ -15040,12 +15029,12 @@
       <c r="C240" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G240" s="25" t="s">
+      <c r="G240" s="24" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="24" t="s">
+      <c r="A241" s="23" t="s">
         <v>923</v>
       </c>
       <c r="B241" s="1" t="s">
@@ -15054,12 +15043,12 @@
       <c r="C241" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G241" s="25" t="s">
+      <c r="G241" s="24" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="24" t="s">
+      <c r="A242" s="23" t="s">
         <v>924</v>
       </c>
       <c r="B242" s="1" t="s">
@@ -15068,12 +15057,12 @@
       <c r="C242" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G242" s="25" t="s">
+      <c r="G242" s="24" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="24" t="s">
+      <c r="A243" s="23" t="s">
         <v>925</v>
       </c>
       <c r="B243" s="1" t="s">
@@ -15082,12 +15071,12 @@
       <c r="C243" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G243" s="25" t="s">
+      <c r="G243" s="24" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="24" t="s">
+      <c r="A244" s="23" t="s">
         <v>926</v>
       </c>
       <c r="B244" s="1" t="s">
@@ -15096,12 +15085,12 @@
       <c r="C244" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G244" s="25" t="s">
+      <c r="G244" s="24" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="24" t="s">
+      <c r="A245" s="23" t="s">
         <v>927</v>
       </c>
       <c r="B245" s="1" t="s">
@@ -15110,12 +15099,12 @@
       <c r="C245" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G245" s="25" t="s">
+      <c r="G245" s="24" t="s">
         <v>1030</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="24" t="s">
+      <c r="A246" s="23" t="s">
         <v>928</v>
       </c>
       <c r="B246" s="1" t="s">
@@ -15124,12 +15113,12 @@
       <c r="C246" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G246" s="25" t="s">
+      <c r="G246" s="24" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" s="24" t="s">
+      <c r="A247" s="23" t="s">
         <v>930</v>
       </c>
       <c r="B247" s="1" t="s">
@@ -15138,12 +15127,12 @@
       <c r="C247" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G247" s="25" t="s">
+      <c r="G247" s="24" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" s="24" t="s">
+      <c r="A248" s="23" t="s">
         <v>932</v>
       </c>
       <c r="B248" s="1" t="s">
@@ -15152,16 +15141,16 @@
       <c r="C248" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G248" s="25" t="s">
+      <c r="G248" s="24" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="24"/>
+      <c r="A249" s="23"/>
       <c r="C249" s="6"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="24" t="s">
+      <c r="A250" s="23" t="s">
         <v>964</v>
       </c>
       <c r="B250" s="1" t="s">
@@ -15170,12 +15159,12 @@
       <c r="C250" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G250" s="25" t="s">
+      <c r="G250" s="24" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="24" t="s">
+      <c r="A251" s="23" t="s">
         <v>965</v>
       </c>
       <c r="B251" s="1" t="s">
@@ -15184,12 +15173,12 @@
       <c r="C251" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G251" s="25" t="s">
+      <c r="G251" s="24" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="24" t="s">
+      <c r="A252" s="23" t="s">
         <v>966</v>
       </c>
       <c r="B252" s="1" t="s">
@@ -15198,12 +15187,12 @@
       <c r="C252" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G252" s="25" t="s">
+      <c r="G252" s="24" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="24" t="s">
+      <c r="A253" s="23" t="s">
         <v>967</v>
       </c>
       <c r="B253" s="1" t="s">
@@ -15212,12 +15201,12 @@
       <c r="C253" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G253" s="25" t="s">
+      <c r="G253" s="24" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="24" t="s">
+      <c r="A254" s="23" t="s">
         <v>968</v>
       </c>
       <c r="B254" s="1" t="s">
@@ -15226,12 +15215,12 @@
       <c r="C254" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G254" s="25" t="s">
+      <c r="G254" s="24" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="24" t="s">
+      <c r="A255" s="23" t="s">
         <v>969</v>
       </c>
       <c r="B255" s="1" t="s">
@@ -15240,12 +15229,12 @@
       <c r="C255" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G255" s="25" t="s">
+      <c r="G255" s="24" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" s="24" t="s">
+      <c r="A256" s="23" t="s">
         <v>970</v>
       </c>
       <c r="B256" s="1" t="s">
@@ -15254,12 +15243,12 @@
       <c r="C256" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G256" s="25" t="s">
+      <c r="G256" s="24" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="24" t="s">
+      <c r="A257" s="23" t="s">
         <v>971</v>
       </c>
       <c r="B257" s="1" t="s">
@@ -15268,12 +15257,12 @@
       <c r="C257" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G257" s="25" t="s">
+      <c r="G257" s="24" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="24" t="s">
+      <c r="A258" s="23" t="s">
         <v>972</v>
       </c>
       <c r="B258" s="1" t="s">
@@ -15282,12 +15271,12 @@
       <c r="C258" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G258" s="25" t="s">
+      <c r="G258" s="24" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="24" t="s">
+      <c r="A259" s="23" t="s">
         <v>992</v>
       </c>
       <c r="B259" s="1" t="s">
@@ -15296,12 +15285,12 @@
       <c r="C259" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G259" s="25" t="s">
+      <c r="G259" s="24" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="24" t="s">
+      <c r="A260" s="23" t="s">
         <v>991</v>
       </c>
       <c r="B260" s="1" t="s">
@@ -15310,16 +15299,16 @@
       <c r="C260" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G260" s="25" t="s">
+      <c r="G260" s="24" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="24"/>
+      <c r="A261" s="23"/>
       <c r="C261" s="6"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="24" t="s">
+      <c r="A262" s="23" t="s">
         <v>1033</v>
       </c>
       <c r="B262" s="1" t="s">
@@ -15328,12 +15317,12 @@
       <c r="C262" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="G262" s="25" t="s">
+      <c r="G262" s="24" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="24" t="s">
+      <c r="A263" s="23" t="s">
         <v>1034</v>
       </c>
       <c r="B263" s="1" t="s">
@@ -15342,12 +15331,12 @@
       <c r="C263" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="G263" s="25" t="s">
+      <c r="G263" s="24" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" s="24" t="s">
+      <c r="A264" s="23" t="s">
         <v>1035</v>
       </c>
       <c r="B264" s="1" t="s">
@@ -15356,12 +15345,12 @@
       <c r="C264" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="G264" s="25" t="s">
+      <c r="G264" s="24" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="24" t="s">
+      <c r="A265" s="23" t="s">
         <v>1036</v>
       </c>
       <c r="B265" s="1" t="s">
@@ -15370,12 +15359,12 @@
       <c r="C265" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="G265" s="25" t="s">
+      <c r="G265" s="24" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267" s="24" t="s">
+      <c r="A267" s="23" t="s">
         <v>1045</v>
       </c>
       <c r="B267" s="1" t="s">
@@ -15384,12 +15373,12 @@
       <c r="C267" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G267" s="25" t="s">
+      <c r="G267" s="24" t="s">
         <v>1066</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="24" t="s">
+      <c r="A269" s="23" t="s">
         <v>1054</v>
       </c>
       <c r="B269" s="1" t="s">
@@ -15398,12 +15387,12 @@
       <c r="C269" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="G269" s="25" t="s">
+      <c r="G269" s="24" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="25" t="s">
+      <c r="A270" s="24" t="s">
         <v>1053</v>
       </c>
       <c r="B270" s="1" t="s">
@@ -15412,12 +15401,12 @@
       <c r="C270" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="G270" s="25" t="s">
+      <c r="G270" s="24" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="25" t="s">
+      <c r="A271" s="24" t="s">
         <v>1055</v>
       </c>
       <c r="B271" s="1" t="s">
@@ -15426,12 +15415,12 @@
       <c r="C271" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="G271" s="25" t="s">
+      <c r="G271" s="24" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="25" t="s">
+      <c r="A272" s="24" t="s">
         <v>1060</v>
       </c>
       <c r="B272" s="1" t="s">
@@ -15440,12 +15429,12 @@
       <c r="C272" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="G272" s="25" t="s">
+      <c r="G272" s="24" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A274" s="18" t="s">
+      <c r="A274" s="17" t="s">
         <v>1073</v>
       </c>
       <c r="B274" s="1" t="s">
@@ -15454,18 +15443,18 @@
       <c r="C274" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="E274" s="25">
-        <v>0</v>
-      </c>
-      <c r="F274" s="25">
+      <c r="E274" s="24">
+        <v>0</v>
+      </c>
+      <c r="F274" s="24">
         <v>1</v>
       </c>
-      <c r="G274" s="18" t="s">
+      <c r="G274" s="17" t="s">
         <v>1099</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A275" s="18" t="s">
+      <c r="A275" s="17" t="s">
         <v>1074</v>
       </c>
       <c r="B275" s="1" t="s">
@@ -15474,18 +15463,18 @@
       <c r="C275" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="E275" s="25">
-        <v>0</v>
-      </c>
-      <c r="F275" s="25">
+      <c r="E275" s="24">
+        <v>0</v>
+      </c>
+      <c r="F275" s="24">
         <v>1</v>
       </c>
-      <c r="G275" s="18" t="s">
+      <c r="G275" s="17" t="s">
         <v>1100</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A276" s="18" t="s">
+      <c r="A276" s="17" t="s">
         <v>1075</v>
       </c>
       <c r="B276" s="1" t="s">
@@ -15494,18 +15483,18 @@
       <c r="C276" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="E276" s="25">
-        <v>0</v>
-      </c>
-      <c r="F276" s="25">
+      <c r="E276" s="24">
+        <v>0</v>
+      </c>
+      <c r="F276" s="24">
         <v>1</v>
       </c>
-      <c r="G276" s="18" t="s">
+      <c r="G276" s="17" t="s">
         <v>1101</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A277" s="18" t="s">
+      <c r="A277" s="17" t="s">
         <v>1076</v>
       </c>
       <c r="B277" s="1" t="s">
@@ -15514,18 +15503,18 @@
       <c r="C277" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="E277" s="25">
-        <v>0</v>
-      </c>
-      <c r="F277" s="25">
+      <c r="E277" s="24">
+        <v>0</v>
+      </c>
+      <c r="F277" s="24">
         <v>1</v>
       </c>
-      <c r="G277" s="18" t="s">
+      <c r="G277" s="17" t="s">
         <v>1102</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A278" s="18" t="s">
+      <c r="A278" s="17" t="s">
         <v>1077</v>
       </c>
       <c r="B278" s="1" t="s">
@@ -15534,18 +15523,18 @@
       <c r="C278" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="E278" s="25">
-        <v>0</v>
-      </c>
-      <c r="F278" s="25">
+      <c r="E278" s="24">
+        <v>0</v>
+      </c>
+      <c r="F278" s="24">
         <v>1</v>
       </c>
-      <c r="G278" s="18" t="s">
+      <c r="G278" s="17" t="s">
         <v>1103</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A279" s="18" t="s">
+      <c r="A279" s="17" t="s">
         <v>1078</v>
       </c>
       <c r="B279" s="1" t="s">
@@ -15554,18 +15543,18 @@
       <c r="C279" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="E279" s="25">
-        <v>0</v>
-      </c>
-      <c r="F279" s="25">
+      <c r="E279" s="24">
+        <v>0</v>
+      </c>
+      <c r="F279" s="24">
         <v>1</v>
       </c>
-      <c r="G279" s="18" t="s">
+      <c r="G279" s="17" t="s">
         <v>1104</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A280" s="18" t="s">
+      <c r="A280" s="17" t="s">
         <v>1079</v>
       </c>
       <c r="B280" s="1" t="s">
@@ -15574,18 +15563,18 @@
       <c r="C280" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="E280" s="25">
-        <v>0</v>
-      </c>
-      <c r="F280" s="25">
+      <c r="E280" s="24">
+        <v>0</v>
+      </c>
+      <c r="F280" s="24">
         <v>1</v>
       </c>
-      <c r="G280" s="18" t="s">
+      <c r="G280" s="17" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A281" s="18" t="s">
+      <c r="A281" s="17" t="s">
         <v>1080</v>
       </c>
       <c r="B281" s="1" t="s">
@@ -15594,18 +15583,18 @@
       <c r="C281" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="E281" s="25">
-        <v>0</v>
-      </c>
-      <c r="F281" s="25">
+      <c r="E281" s="24">
+        <v>0</v>
+      </c>
+      <c r="F281" s="24">
         <v>1</v>
       </c>
-      <c r="G281" s="18" t="s">
+      <c r="G281" s="17" t="s">
         <v>1106</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A282" s="18" t="s">
+      <c r="A282" s="17" t="s">
         <v>1081</v>
       </c>
       <c r="B282" s="1" t="s">
@@ -15614,18 +15603,18 @@
       <c r="C282" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="E282" s="25">
-        <v>0</v>
-      </c>
-      <c r="F282" s="25">
+      <c r="E282" s="24">
+        <v>0</v>
+      </c>
+      <c r="F282" s="24">
         <v>1</v>
       </c>
-      <c r="G282" s="18" t="s">
+      <c r="G282" s="17" t="s">
         <v>1107</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A283" s="18" t="s">
+      <c r="A283" s="17" t="s">
         <v>1082</v>
       </c>
       <c r="B283" s="1" t="s">
@@ -15634,18 +15623,18 @@
       <c r="C283" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="E283" s="25">
-        <v>0</v>
-      </c>
-      <c r="F283" s="25">
+      <c r="E283" s="24">
+        <v>0</v>
+      </c>
+      <c r="F283" s="24">
         <v>1</v>
       </c>
-      <c r="G283" s="18" t="s">
+      <c r="G283" s="17" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A284" s="18" t="s">
+      <c r="A284" s="17" t="s">
         <v>1083</v>
       </c>
       <c r="B284" s="1" t="s">
@@ -15654,18 +15643,18 @@
       <c r="C284" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="E284" s="25">
-        <v>0</v>
-      </c>
-      <c r="F284" s="25">
+      <c r="E284" s="24">
+        <v>0</v>
+      </c>
+      <c r="F284" s="24">
         <v>1</v>
       </c>
-      <c r="G284" s="18" t="s">
+      <c r="G284" s="17" t="s">
         <v>1109</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A285" s="18" t="s">
+      <c r="A285" s="17" t="s">
         <v>1084</v>
       </c>
       <c r="B285" s="1" t="s">
@@ -15674,16 +15663,16 @@
       <c r="C285" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="E285" s="25">
-        <v>0</v>
-      </c>
-      <c r="F285" s="25">
+      <c r="E285" s="24">
+        <v>0</v>
+      </c>
+      <c r="F285" s="24">
         <v>1</v>
       </c>
-      <c r="G285" s="18" t="s">
+      <c r="G285" s="17" t="s">
         <v>1110</v>
       </c>
-      <c r="K285" s="25" t="s">
+      <c r="K285" s="24" t="s">
         <v>18</v>
       </c>
     </row>
@@ -15772,8 +15761,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -15847,7 +15836,7 @@
       <c r="B11" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -15856,7 +15845,7 @@
       <c r="B12" t="s">
         <v>313</v>
       </c>
-      <c r="E12" s="24"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -15865,7 +15854,7 @@
       <c r="B13" t="s">
         <v>739</v>
       </c>
-      <c r="E13" s="24"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -15874,18 +15863,18 @@
       <c r="B14" t="s">
         <v>740</v>
       </c>
-      <c r="E14" s="24"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="24"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
-      <c r="E16" s="24"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
+      <c r="B18" s="23"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
@@ -15903,15 +15892,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="25" customWidth="1"/>
-    <col min="3" max="3" width="104.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="24" customWidth="1"/>
+    <col min="3" max="3" width="104.28515625" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -16307,13 +16296,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="24" t="s">
         <v>1085</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>744</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="24" t="s">
         <v>1084</v>
       </c>
       <c r="D29" t="s">

--- a/atomica/library/tb_framework.xlsx
+++ b/atomica/library/tb_framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -920,7 +920,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="1117">
   <si>
     <t>Name</t>
   </si>
@@ -4175,9 +4175,6 @@
   </si>
   <si>
     <t>ac_diag_rate</t>
-  </si>
-  <si>
-    <t>WHO Diagnosis rate</t>
   </si>
   <si>
     <t>TB treatment</t>
@@ -6365,7 +6362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K21" sqref="K21"/>
     </sheetView>
@@ -9687,7 +9684,7 @@
         <v>467</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>20</v>
@@ -10828,7 +10825,7 @@
         <v>37</v>
       </c>
       <c r="J57" s="36" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>12</v>
@@ -11240,7 +11237,7 @@
         <v>467</v>
       </c>
       <c r="J72" s="24" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K72" s="4" t="s">
         <v>22</v>
@@ -11270,7 +11267,7 @@
         <v>467</v>
       </c>
       <c r="J73" s="24" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K73" s="4" t="s">
         <v>22</v>
@@ -11771,7 +11768,7 @@
         <v>467</v>
       </c>
       <c r="J92" s="24" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K92" s="18" t="s">
         <v>22</v>
@@ -14244,10 +14241,10 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B184" s="23" t="s">
         <v>1111</v>
-      </c>
-      <c r="B184" s="23" t="s">
-        <v>1112</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>536</v>
@@ -14266,10 +14263,10 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B185" s="23" t="s">
         <v>1113</v>
-      </c>
-      <c r="B185" s="23" t="s">
-        <v>1114</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>536</v>
@@ -14288,10 +14285,10 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B186" s="23" t="s">
         <v>1115</v>
-      </c>
-      <c r="B186" s="23" t="s">
-        <v>1116</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>536</v>
@@ -15438,7 +15435,7 @@
         <v>1073</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C274" s="6" t="s">
         <v>440</v>
@@ -15450,7 +15447,7 @@
         <v>1</v>
       </c>
       <c r="G274" s="17" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
@@ -15458,7 +15455,7 @@
         <v>1074</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C275" s="6" t="s">
         <v>440</v>
@@ -15470,7 +15467,7 @@
         <v>1</v>
       </c>
       <c r="G275" s="17" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
@@ -15478,7 +15475,7 @@
         <v>1075</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C276" s="6" t="s">
         <v>440</v>
@@ -15490,7 +15487,7 @@
         <v>1</v>
       </c>
       <c r="G276" s="17" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
@@ -15498,7 +15495,7 @@
         <v>1076</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C277" s="6" t="s">
         <v>440</v>
@@ -15510,7 +15507,7 @@
         <v>1</v>
       </c>
       <c r="G277" s="17" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -15518,7 +15515,7 @@
         <v>1077</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C278" s="6" t="s">
         <v>440</v>
@@ -15530,7 +15527,7 @@
         <v>1</v>
       </c>
       <c r="G278" s="17" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
@@ -15538,7 +15535,7 @@
         <v>1078</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C279" s="6" t="s">
         <v>440</v>
@@ -15550,7 +15547,7 @@
         <v>1</v>
       </c>
       <c r="G279" s="17" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
@@ -15558,7 +15555,7 @@
         <v>1079</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C280" s="6" t="s">
         <v>440</v>
@@ -15570,7 +15567,7 @@
         <v>1</v>
       </c>
       <c r="G280" s="17" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
@@ -15578,7 +15575,7 @@
         <v>1080</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C281" s="6" t="s">
         <v>440</v>
@@ -15590,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="G281" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
@@ -15598,7 +15595,7 @@
         <v>1081</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C282" s="6" t="s">
         <v>440</v>
@@ -15610,7 +15607,7 @@
         <v>1</v>
       </c>
       <c r="G282" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
@@ -15618,7 +15615,7 @@
         <v>1082</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C283" s="6" t="s">
         <v>440</v>
@@ -15630,7 +15627,7 @@
         <v>1</v>
       </c>
       <c r="G283" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
@@ -15638,7 +15635,7 @@
         <v>1083</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C284" s="6" t="s">
         <v>440</v>
@@ -15650,7 +15647,7 @@
         <v>1</v>
       </c>
       <c r="G284" s="17" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
@@ -15658,7 +15655,7 @@
         <v>1084</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>440</v>
@@ -15670,7 +15667,7 @@
         <v>1</v>
       </c>
       <c r="G285" s="17" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="K285" s="24" t="s">
         <v>18</v>
@@ -15892,8 +15889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16297,7 +16294,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>744</v>
@@ -16306,7 +16303,7 @@
         <v>1084</v>
       </c>
       <c r="D29" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
   </sheetData>

--- a/atomica/library/tb_framework.xlsx
+++ b/atomica/library/tb_framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -9108,11 +9108,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M285"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B262" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E165" sqref="E165"/>
+      <selection pane="bottomRight" activeCell="E295" sqref="E295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15444,7 +15444,7 @@
         <v>0</v>
       </c>
       <c r="F274" s="24">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G274" s="17" t="s">
         <v>1098</v>
@@ -15464,7 +15464,7 @@
         <v>0</v>
       </c>
       <c r="F275" s="24">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G275" s="17" t="s">
         <v>1099</v>
@@ -15484,7 +15484,7 @@
         <v>0</v>
       </c>
       <c r="F276" s="24">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G276" s="17" t="s">
         <v>1100</v>
@@ -15504,7 +15504,7 @@
         <v>0</v>
       </c>
       <c r="F277" s="24">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G277" s="17" t="s">
         <v>1101</v>
@@ -15524,7 +15524,7 @@
         <v>0</v>
       </c>
       <c r="F278" s="24">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G278" s="17" t="s">
         <v>1102</v>
@@ -15544,7 +15544,7 @@
         <v>0</v>
       </c>
       <c r="F279" s="24">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G279" s="17" t="s">
         <v>1103</v>
@@ -15564,7 +15564,7 @@
         <v>0</v>
       </c>
       <c r="F280" s="24">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G280" s="17" t="s">
         <v>1104</v>
@@ -15584,7 +15584,7 @@
         <v>0</v>
       </c>
       <c r="F281" s="24">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G281" s="17" t="s">
         <v>1105</v>
@@ -15604,7 +15604,7 @@
         <v>0</v>
       </c>
       <c r="F282" s="24">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G282" s="17" t="s">
         <v>1106</v>
@@ -15624,7 +15624,7 @@
         <v>0</v>
       </c>
       <c r="F283" s="24">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G283" s="17" t="s">
         <v>1107</v>
@@ -15644,7 +15644,7 @@
         <v>0</v>
       </c>
       <c r="F284" s="24">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G284" s="17" t="s">
         <v>1108</v>
@@ -15660,11 +15660,14 @@
       <c r="C285" s="6" t="s">
         <v>440</v>
       </c>
+      <c r="D285" s="24">
+        <v>0</v>
+      </c>
       <c r="E285" s="24">
         <v>0</v>
       </c>
       <c r="F285" s="24">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G285" s="17" t="s">
         <v>1109</v>
@@ -15889,7 +15892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>

--- a/atomica/library/tb_framework.xlsx
+++ b/atomica/library/tb_framework.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george.chadderdon\GitRepos\OptimaRepos\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="470" windowWidth="16100" windowHeight="9660" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -4270,13 +4270,13 @@
     <t>Estimated TB incidence (high)</t>
   </si>
   <si>
-    <t>Public health</t>
+    <t>Other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4884,9 +4884,9 @@
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -4915,14 +4915,14 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="65" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>783</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>785</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>787</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>789</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>791</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>793</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>795</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>797</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>799</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>801</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>801</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>803</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>804</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>108</v>
       </c>
@@ -5144,15 +5144,15 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="34.26953125" style="24" customWidth="1"/>
     <col min="3" max="3" width="9" style="24" customWidth="1"/>
     <col min="4" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>806</v>
       </c>
@@ -5240,19 +5240,19 @@
         <v>807</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
     </row>
@@ -5270,21 +5270,21 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7265625" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="94" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="39" t="s">
         <v>34</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>39</v>
       </c>
@@ -5367,7 +5367,7 @@
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>41</v>
       </c>
@@ -5390,7 +5390,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>43</v>
       </c>
@@ -5413,7 +5413,7 @@
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>45</v>
       </c>
@@ -5436,7 +5436,7 @@
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>47</v>
       </c>
@@ -5459,7 +5459,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>49</v>
       </c>
@@ -5482,7 +5482,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>51</v>
       </c>
@@ -5505,7 +5505,7 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>53</v>
       </c>
@@ -5528,7 +5528,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>55</v>
       </c>
@@ -5551,7 +5551,7 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>61</v>
       </c>
@@ -5616,7 +5616,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>63</v>
       </c>
@@ -5639,7 +5639,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -5660,7 +5660,7 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>71</v>
       </c>
@@ -5725,7 +5725,7 @@
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>79</v>
       </c>
@@ -5811,7 +5811,7 @@
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -5832,7 +5832,7 @@
       </c>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -5874,7 +5874,7 @@
       </c>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>87</v>
       </c>
@@ -5897,7 +5897,7 @@
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -5939,7 +5939,7 @@
       </c>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -5960,7 +5960,7 @@
       </c>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -5981,7 +5981,7 @@
       </c>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>97</v>
       </c>
@@ -6004,7 +6004,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>105</v>
       </c>
@@ -6090,7 +6090,7 @@
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -6132,7 +6132,7 @@
       </c>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>111</v>
       </c>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>113</v>
       </c>
@@ -6176,7 +6176,7 @@
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
         <v>115</v>
       </c>
@@ -6199,7 +6199,7 @@
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
     </row>
-    <row r="42" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
         <v>117</v>
       </c>
@@ -6222,7 +6222,7 @@
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
         <v>119</v>
       </c>
@@ -6245,7 +6245,7 @@
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
     </row>
-    <row r="44" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>121</v>
       </c>
@@ -6268,7 +6268,7 @@
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>123</v>
       </c>
@@ -6289,7 +6289,7 @@
       </c>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -6310,7 +6310,7 @@
       </c>
       <c r="G46" s="6"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>127</v>
       </c>
@@ -6331,16 +6331,16 @@
       </c>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G50" s="6"/>
     </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G51" s="6"/>
     </row>
   </sheetData>
@@ -6363,63 +6363,63 @@
   <dimension ref="A1:AY51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="7.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.81640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.453125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="11.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.54296875" style="6" customWidth="1"/>
     <col min="22" max="22" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.42578125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="9.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.453125" style="6" customWidth="1"/>
     <col min="28" max="28" width="5" style="6" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="6" style="6" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.42578125" style="6" customWidth="1"/>
-    <col min="33" max="33" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.453125" style="6" customWidth="1"/>
+    <col min="33" max="33" width="6.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.453125" style="6" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8" style="6" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="8" style="6" customWidth="1"/>
-    <col min="37" max="37" width="5.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.42578125" style="6" customWidth="1"/>
-    <col min="41" max="41" width="11.85546875" style="6" customWidth="1"/>
+    <col min="37" max="37" width="5.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.453125" style="6" customWidth="1"/>
+    <col min="41" max="41" width="11.81640625" style="6" customWidth="1"/>
     <col min="42" max="42" width="3" style="6" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="4.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6.1796875" style="10" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="5.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.81640625" style="6" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="9" style="6" customWidth="1"/>
     <col min="49" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
       <c r="B1" s="33" t="s">
         <v>34</v>
       </c>
@@ -6563,7 +6563,7 @@
       <c r="AX1" s="2"/>
       <c r="AY1" s="2"/>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
         <v>34</v>
       </c>
@@ -6670,7 +6670,7 @@
       <c r="AX2" s="2"/>
       <c r="AY2" s="2"/>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>47</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>53</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>57</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>59</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>61</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>63</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>65</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>67</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>69</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>71</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>73</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>77</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>79</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>81</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>83</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>85</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>87</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>89</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>91</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>93</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>97</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>99</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>101</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>103</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>105</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>107</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>109</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>111</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>113</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>115</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>117</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>119</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="44" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>121</v>
       </c>
@@ -7410,37 +7410,37 @@
         <v>246</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
@@ -7454,29 +7454,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="24" customWidth="1"/>
     <col min="11" max="11" width="50" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="53.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="53.7265625" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="24" customWidth="1"/>
     <col min="14" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -7510,7 +7510,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>250</v>
       </c>
@@ -7533,7 +7533,7 @@
       <c r="I2" s="6"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>253</v>
       </c>
@@ -7556,7 +7556,7 @@
       <c r="I3" s="6"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>256</v>
       </c>
@@ -7578,7 +7578,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>259</v>
       </c>
@@ -7601,7 +7601,7 @@
       <c r="I5" s="6"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>262</v>
       </c>
@@ -7624,7 +7624,7 @@
       <c r="I6" s="6"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>265</v>
       </c>
@@ -7647,7 +7647,7 @@
       <c r="I7" s="6"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
         <v>268</v>
       </c>
@@ -7671,7 +7671,7 @@
       <c r="K8" s="23"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
         <v>271</v>
       </c>
@@ -7695,7 +7695,7 @@
       <c r="K9" s="23"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
         <v>274</v>
       </c>
@@ -7719,7 +7719,7 @@
       <c r="K10" s="23"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>277</v>
       </c>
@@ -7743,7 +7743,7 @@
       <c r="K11" s="23"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
         <v>280</v>
       </c>
@@ -7767,7 +7767,7 @@
       <c r="K12" s="23"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
         <v>283</v>
       </c>
@@ -7791,7 +7791,7 @@
       <c r="K13" s="23"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
         <v>286</v>
       </c>
@@ -7811,7 +7811,7 @@
       <c r="K14" s="23"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
         <v>289</v>
       </c>
@@ -7830,7 +7830,7 @@
       <c r="I15" s="6"/>
       <c r="K15" s="23"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
         <v>292</v>
       </c>
@@ -7854,7 +7854,7 @@
       <c r="K16" s="23"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
         <v>295</v>
       </c>
@@ -7878,7 +7878,7 @@
       <c r="K17" s="23"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
         <v>298</v>
       </c>
@@ -7902,7 +7902,7 @@
       <c r="K18" s="23"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
         <v>301</v>
       </c>
@@ -7926,7 +7926,7 @@
       <c r="K19" s="23"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
         <v>304</v>
       </c>
@@ -7950,7 +7950,7 @@
       <c r="K20" s="23"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
         <v>307</v>
       </c>
@@ -7974,7 +7974,7 @@
       <c r="K21" s="23"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
         <v>310</v>
       </c>
@@ -7997,7 +7997,7 @@
       <c r="I22" s="6"/>
       <c r="K22" s="23"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
         <v>313</v>
       </c>
@@ -8020,7 +8020,7 @@
       <c r="I23" s="6"/>
       <c r="K23" s="23"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
         <v>316</v>
       </c>
@@ -8039,7 +8039,7 @@
       <c r="I24" s="6"/>
       <c r="K24" s="23"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
         <v>319</v>
       </c>
@@ -8058,7 +8058,7 @@
       <c r="I25" s="6"/>
       <c r="K25" s="23"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
         <v>322</v>
       </c>
@@ -8077,7 +8077,7 @@
       <c r="I26" s="6"/>
       <c r="K26" s="23"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
         <v>325</v>
       </c>
@@ -8096,7 +8096,7 @@
       <c r="I27" s="6"/>
       <c r="K27" s="23"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
         <v>328</v>
       </c>
@@ -8119,7 +8119,7 @@
       <c r="I28" s="6"/>
       <c r="K28" s="23"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
         <v>331</v>
       </c>
@@ -8138,7 +8138,7 @@
       <c r="I29" s="6"/>
       <c r="K29" s="23"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
         <v>334</v>
       </c>
@@ -8161,7 +8161,7 @@
       <c r="I30" s="6"/>
       <c r="K30" s="23"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
         <v>337</v>
       </c>
@@ -8181,7 +8181,7 @@
       <c r="K31" s="23"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
         <v>340</v>
       </c>
@@ -8201,7 +8201,7 @@
       <c r="K32" s="23"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
         <v>343</v>
       </c>
@@ -8221,7 +8221,7 @@
       <c r="K33" s="23"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
         <v>346</v>
       </c>
@@ -8241,7 +8241,7 @@
       <c r="K34" s="23"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
         <v>349</v>
       </c>
@@ -8261,7 +8261,7 @@
       <c r="K35" s="23"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
         <v>352</v>
       </c>
@@ -8281,7 +8281,7 @@
       <c r="K36" s="23"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
         <v>355</v>
       </c>
@@ -8304,7 +8304,7 @@
       <c r="K37" s="23"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
         <v>357</v>
       </c>
@@ -8327,7 +8327,7 @@
       <c r="K38" s="23"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
         <v>359</v>
       </c>
@@ -8350,7 +8350,7 @@
       <c r="K39" s="23"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="23" t="s">
         <v>361</v>
       </c>
@@ -8373,7 +8373,7 @@
       <c r="K40" s="23"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="23" t="s">
         <v>363</v>
       </c>
@@ -8396,7 +8396,7 @@
       <c r="K41" s="23"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="23" t="s">
         <v>365</v>
       </c>
@@ -8419,7 +8419,7 @@
       <c r="K42" s="23"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
         <v>367</v>
       </c>
@@ -8442,7 +8442,7 @@
       <c r="K43" s="23"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
         <v>369</v>
       </c>
@@ -8465,7 +8465,7 @@
       <c r="K44" s="23"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
         <v>371</v>
       </c>
@@ -8488,7 +8488,7 @@
       <c r="K45" s="23"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
         <v>373</v>
       </c>
@@ -8511,7 +8511,7 @@
       <c r="K46" s="23"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
         <v>375</v>
       </c>
@@ -8534,7 +8534,7 @@
       <c r="K47" s="23"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
         <v>377</v>
       </c>
@@ -8557,7 +8557,7 @@
       <c r="K48" s="23"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
         <v>379</v>
       </c>
@@ -8580,7 +8580,7 @@
       <c r="K49" s="23"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="23" t="s">
         <v>381</v>
       </c>
@@ -8603,7 +8603,7 @@
       <c r="K50" s="23"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="23" t="s">
         <v>383</v>
       </c>
@@ -8626,7 +8626,7 @@
       <c r="K51" s="23"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="23" t="s">
         <v>385</v>
       </c>
@@ -8649,7 +8649,7 @@
       <c r="K52" s="23"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="23" t="s">
         <v>387</v>
       </c>
@@ -8674,7 +8674,7 @@
       <c r="K53" s="23"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="23" t="s">
         <v>389</v>
       </c>
@@ -8697,7 +8697,7 @@
       <c r="K54" s="23"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="23" t="s">
         <v>391</v>
       </c>
@@ -8720,7 +8720,7 @@
       <c r="K55" s="23"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="23" t="s">
         <v>393</v>
       </c>
@@ -8745,7 +8745,7 @@
       <c r="K56" s="23"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="23" t="s">
         <v>395</v>
       </c>
@@ -8769,7 +8769,7 @@
       <c r="K57" s="23"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
         <v>398</v>
       </c>
@@ -8793,7 +8793,7 @@
       <c r="K58" s="23"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="23" t="s">
         <v>401</v>
       </c>
@@ -8817,7 +8817,7 @@
       <c r="K59" s="23"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="23" t="s">
         <v>404</v>
       </c>
@@ -8836,7 +8836,7 @@
       <c r="I60" s="6"/>
       <c r="K60" s="23"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="23" t="s">
         <v>407</v>
       </c>
@@ -8855,7 +8855,7 @@
       <c r="I61" s="6"/>
       <c r="K61" s="23"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="23" t="s">
         <v>410</v>
       </c>
@@ -8874,7 +8874,7 @@
       <c r="I62" s="6"/>
       <c r="K62" s="23"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="23" t="s">
         <v>413</v>
       </c>
@@ -8898,7 +8898,7 @@
       <c r="K63" s="23"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="23" t="s">
         <v>416</v>
       </c>
@@ -8922,7 +8922,7 @@
       <c r="K64" s="23"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="23" t="s">
         <v>419</v>
       </c>
@@ -8946,7 +8946,7 @@
       <c r="K65" s="23"/>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="23" t="s">
         <v>422</v>
       </c>
@@ -8966,7 +8966,7 @@
       <c r="K66" s="23"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="23" t="s">
         <v>425</v>
       </c>
@@ -8989,7 +8989,7 @@
       <c r="I67" s="6"/>
       <c r="K67" s="23"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>427</v>
       </c>
@@ -9011,7 +9011,7 @@
       <c r="I68" s="6"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="23" t="s">
         <v>429</v>
       </c>
@@ -9033,19 +9033,19 @@
       <c r="K69" s="23"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="G72" s="6"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="G74" s="6"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="G76" s="6"/>
     </row>
   </sheetData>
@@ -9067,16 +9067,16 @@
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="24" customWidth="1"/>
     <col min="5" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>431</v>
       </c>
@@ -9109,32 +9109,32 @@
   <dimension ref="A1:M285"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B262" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E295" sqref="E295"/>
+      <selection pane="bottomRight" activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.140625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="39.1796875" style="24" customWidth="1"/>
     <col min="8" max="8" width="13" style="24" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="36" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="36" customWidth="1"/>
+    <col min="9" max="9" width="24.7265625" style="36" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" style="36" customWidth="1"/>
     <col min="11" max="11" width="13" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.81640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.26953125" style="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="24" customWidth="1"/>
     <col min="15" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>438</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>442</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>444</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>446</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>448</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>450</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>452</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>454</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>177</v>
       </c>
@@ -9437,7 +9437,7 @@
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>178</v>
       </c>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>179</v>
       </c>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>180</v>
       </c>
@@ -9533,7 +9533,7 @@
       </c>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>181</v>
       </c>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>211</v>
       </c>
@@ -9597,7 +9597,7 @@
       </c>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>212</v>
       </c>
@@ -9629,7 +9629,7 @@
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>213</v>
       </c>
@@ -9661,7 +9661,7 @@
       </c>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>465</v>
       </c>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>468</v>
       </c>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>470</v>
       </c>
@@ -9743,7 +9743,7 @@
       </c>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>472</v>
       </c>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>474</v>
       </c>
@@ -9797,7 +9797,7 @@
       </c>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>476</v>
       </c>
@@ -9823,7 +9823,7 @@
       </c>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>478</v>
       </c>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>131</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>132</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>133</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>134</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>136</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>137</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
         <v>138</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
         <v>139</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
         <v>140</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>141</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
         <v>142</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>143</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>144</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>145</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>146</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>147</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>148</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
         <v>149</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
         <v>150</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
         <v>151</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
         <v>152</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
         <v>153</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
         <v>154</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
         <v>155</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
         <v>156</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
         <v>130</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
         <v>129</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
         <v>135</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>242</v>
       </c>
@@ -10717,7 +10717,7 @@
       </c>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>159</v>
       </c>
@@ -10745,7 +10745,7 @@
       </c>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>243</v>
       </c>
@@ -10775,7 +10775,7 @@
       </c>
       <c r="L55" s="6"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>160</v>
       </c>
@@ -10805,7 +10805,7 @@
       </c>
       <c r="L56" s="6"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>157</v>
       </c>
@@ -10832,7 +10832,7 @@
       </c>
       <c r="L57" s="6"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>542</v>
       </c>
@@ -10861,7 +10861,7 @@
       </c>
       <c r="L58" s="6"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>544</v>
       </c>
@@ -10890,7 +10890,7 @@
       </c>
       <c r="L59" s="6"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>546</v>
       </c>
@@ -10916,7 +10916,7 @@
       </c>
       <c r="L60" s="6"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>549</v>
       </c>
@@ -10944,7 +10944,7 @@
       </c>
       <c r="L61" s="6"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>551</v>
       </c>
@@ -10972,7 +10972,7 @@
       </c>
       <c r="L62" s="6"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>165</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>162</v>
       </c>
@@ -11020,7 +11020,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="6"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>173</v>
       </c>
@@ -11044,7 +11044,7 @@
       <c r="K65" s="4"/>
       <c r="L65" s="6"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>168</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="25" t="s">
         <v>167</v>
       </c>
@@ -11098,7 +11098,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="25" t="s">
         <v>166</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="25" t="s">
         <v>171</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="25" t="s">
         <v>170</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>566</v>
       </c>
@@ -11212,7 +11212,7 @@
       </c>
       <c r="L71" s="6"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>568</v>
       </c>
@@ -11244,7 +11244,7 @@
       </c>
       <c r="L72" s="6"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>570</v>
       </c>
@@ -11274,7 +11274,7 @@
       </c>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>163</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>174</v>
       </c>
@@ -11330,7 +11330,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>164</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>175</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>169</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>176</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>580</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>583</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>586</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>589</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>592</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>595</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>598</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>601</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>604</v>
       </c>
@@ -11657,7 +11657,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>158</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>161</v>
       </c>
@@ -11713,7 +11713,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>172</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>241</v>
       </c>
@@ -11775,7 +11775,7 @@
       </c>
       <c r="L92" s="6"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>240</v>
       </c>
@@ -11803,7 +11803,7 @@
       </c>
       <c r="L93" s="6"/>
     </row>
-    <row r="94" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="11" t="s">
         <v>245</v>
       </c>
@@ -11831,7 +11831,7 @@
       </c>
       <c r="L94" s="10"/>
     </row>
-    <row r="95" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="s">
         <v>616</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="96" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="11" t="s">
         <v>619</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="11" t="s">
         <v>246</v>
       </c>
@@ -11914,7 +11914,7 @@
       </c>
       <c r="L97" s="10"/>
     </row>
-    <row r="98" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="10" t="s">
         <v>244</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="17" t="s">
         <v>182</v>
       </c>
@@ -11969,7 +11969,7 @@
       </c>
       <c r="L99" s="18"/>
     </row>
-    <row r="100" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="17" t="s">
         <v>192</v>
       </c>
@@ -11996,7 +11996,7 @@
       </c>
       <c r="L100" s="18"/>
     </row>
-    <row r="101" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="17" t="s">
         <v>202</v>
       </c>
@@ -12023,7 +12023,7 @@
       </c>
       <c r="L101" s="18"/>
     </row>
-    <row r="102" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="17" t="s">
         <v>214</v>
       </c>
@@ -12050,7 +12050,7 @@
       </c>
       <c r="L102" s="18"/>
     </row>
-    <row r="103" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="17" t="s">
         <v>223</v>
       </c>
@@ -12077,7 +12077,7 @@
       </c>
       <c r="L103" s="18"/>
     </row>
-    <row r="104" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="17" t="s">
         <v>232</v>
       </c>
@@ -12104,7 +12104,7 @@
       </c>
       <c r="L104" s="18"/>
     </row>
-    <row r="105" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="17" t="s">
         <v>631</v>
       </c>
@@ -12132,7 +12132,7 @@
       </c>
       <c r="L105" s="18"/>
     </row>
-    <row r="106" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="17" t="s">
         <v>185</v>
       </c>
@@ -12158,7 +12158,7 @@
       <c r="K106" s="18"/>
       <c r="L106" s="18"/>
     </row>
-    <row r="107" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="17" t="s">
         <v>217</v>
       </c>
@@ -12184,7 +12184,7 @@
       <c r="K107" s="18"/>
       <c r="L107" s="18"/>
     </row>
-    <row r="108" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="17" t="s">
         <v>636</v>
       </c>
@@ -12214,7 +12214,7 @@
       </c>
       <c r="L108" s="18"/>
     </row>
-    <row r="109" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="17" t="s">
         <v>638</v>
       </c>
@@ -12246,7 +12246,7 @@
       </c>
       <c r="L109" s="18"/>
     </row>
-    <row r="110" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="17" t="s">
         <v>640</v>
       </c>
@@ -12278,7 +12278,7 @@
       </c>
       <c r="L110" s="18"/>
     </row>
-    <row r="111" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="17" t="s">
         <v>642</v>
       </c>
@@ -12310,7 +12310,7 @@
       </c>
       <c r="L111" s="18"/>
     </row>
-    <row r="112" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="17" t="s">
         <v>644</v>
       </c>
@@ -12342,7 +12342,7 @@
       </c>
       <c r="L112" s="18"/>
     </row>
-    <row r="113" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="17" t="s">
         <v>646</v>
       </c>
@@ -12374,7 +12374,7 @@
       </c>
       <c r="L113" s="18"/>
     </row>
-    <row r="114" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="17" t="s">
         <v>186</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="115" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="28" t="s">
         <v>187</v>
       </c>
@@ -12426,7 +12426,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="116" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="28" t="s">
         <v>188</v>
       </c>
@@ -12454,7 +12454,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="117" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="28" t="s">
         <v>189</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="118" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="28" t="s">
         <v>190</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="119" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="28" t="s">
         <v>191</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="120" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="28" t="s">
         <v>218</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="121" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="28" t="s">
         <v>219</v>
       </c>
@@ -12594,7 +12594,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="122" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="28" t="s">
         <v>220</v>
       </c>
@@ -12622,7 +12622,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="123" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="28" t="s">
         <v>221</v>
       </c>
@@ -12650,7 +12650,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="124" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="28" t="s">
         <v>222</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="125" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="17" t="s">
         <v>660</v>
       </c>
@@ -12706,7 +12706,7 @@
       </c>
       <c r="L125" s="18"/>
     </row>
-    <row r="126" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="17" t="s">
         <v>195</v>
       </c>
@@ -12732,7 +12732,7 @@
       <c r="K126" s="18"/>
       <c r="L126" s="18"/>
     </row>
-    <row r="127" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="17" t="s">
         <v>226</v>
       </c>
@@ -12758,7 +12758,7 @@
       <c r="K127" s="18"/>
       <c r="L127" s="18"/>
     </row>
-    <row r="128" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="17" t="s">
         <v>666</v>
       </c>
@@ -12788,7 +12788,7 @@
       </c>
       <c r="L128" s="18"/>
     </row>
-    <row r="129" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="17" t="s">
         <v>668</v>
       </c>
@@ -12820,7 +12820,7 @@
       </c>
       <c r="L129" s="18"/>
     </row>
-    <row r="130" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="17" t="s">
         <v>670</v>
       </c>
@@ -12852,7 +12852,7 @@
       </c>
       <c r="L130" s="18"/>
     </row>
-    <row r="131" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="17" t="s">
         <v>672</v>
       </c>
@@ -12884,7 +12884,7 @@
       </c>
       <c r="L131" s="18"/>
     </row>
-    <row r="132" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="17" t="s">
         <v>674</v>
       </c>
@@ -12916,7 +12916,7 @@
       </c>
       <c r="L132" s="18"/>
     </row>
-    <row r="133" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="17" t="s">
         <v>676</v>
       </c>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="L133" s="18"/>
     </row>
-    <row r="134" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="17" t="s">
         <v>196</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="135" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="28" t="s">
         <v>197</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="136" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="28" t="s">
         <v>198</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="137" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="28" t="s">
         <v>199</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="138" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="28" t="s">
         <v>200</v>
       </c>
@@ -13084,7 +13084,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="139" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="28" t="s">
         <v>201</v>
       </c>
@@ -13112,7 +13112,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="140" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="28" t="s">
         <v>227</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="141" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="28" t="s">
         <v>228</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="142" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="28" t="s">
         <v>229</v>
       </c>
@@ -13196,7 +13196,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="143" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="28" t="s">
         <v>230</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="144" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="28" t="s">
         <v>231</v>
       </c>
@@ -13252,7 +13252,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="145" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="19" t="s">
         <v>690</v>
       </c>
@@ -13280,7 +13280,7 @@
       </c>
       <c r="L145" s="21"/>
     </row>
-    <row r="146" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="17" t="s">
         <v>205</v>
       </c>
@@ -13306,7 +13306,7 @@
       <c r="K146" s="18"/>
       <c r="L146" s="18"/>
     </row>
-    <row r="147" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="17" t="s">
         <v>235</v>
       </c>
@@ -13332,7 +13332,7 @@
       <c r="K147" s="18"/>
       <c r="L147" s="18"/>
     </row>
-    <row r="148" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="19" t="s">
         <v>696</v>
       </c>
@@ -13362,7 +13362,7 @@
       </c>
       <c r="L148" s="21"/>
     </row>
-    <row r="149" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="19" t="s">
         <v>698</v>
       </c>
@@ -13394,7 +13394,7 @@
       </c>
       <c r="L149" s="21"/>
     </row>
-    <row r="150" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="19" t="s">
         <v>700</v>
       </c>
@@ -13426,7 +13426,7 @@
       </c>
       <c r="L150" s="21"/>
     </row>
-    <row r="151" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="19" t="s">
         <v>702</v>
       </c>
@@ -13458,7 +13458,7 @@
       </c>
       <c r="L151" s="21"/>
     </row>
-    <row r="152" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="19" t="s">
         <v>704</v>
       </c>
@@ -13490,7 +13490,7 @@
       </c>
       <c r="L152" s="21"/>
     </row>
-    <row r="153" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="19" t="s">
         <v>206</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="154" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="28" t="s">
         <v>207</v>
       </c>
@@ -13544,7 +13544,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="155" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="28" t="s">
         <v>208</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="156" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="28" t="s">
         <v>209</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="157" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="28" t="s">
         <v>210</v>
       </c>
@@ -13628,7 +13628,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="158" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="28" t="s">
         <v>236</v>
       </c>
@@ -13656,7 +13656,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="159" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="28" t="s">
         <v>237</v>
       </c>
@@ -13684,7 +13684,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="160" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="28" t="s">
         <v>238</v>
       </c>
@@ -13712,7 +13712,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="161" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="28" t="s">
         <v>239</v>
       </c>
@@ -13740,7 +13740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
         <v>183</v>
       </c>
@@ -13768,7 +13768,7 @@
       </c>
       <c r="L162" s="6"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
         <v>193</v>
       </c>
@@ -13796,7 +13796,7 @@
       </c>
       <c r="L163" s="6"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
         <v>203</v>
       </c>
@@ -13824,7 +13824,7 @@
       </c>
       <c r="L164" s="6"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
         <v>215</v>
       </c>
@@ -13852,7 +13852,7 @@
       </c>
       <c r="L165" s="6"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
         <v>224</v>
       </c>
@@ -13880,7 +13880,7 @@
       </c>
       <c r="L166" s="6"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
         <v>233</v>
       </c>
@@ -13908,7 +13908,7 @@
       </c>
       <c r="L167" s="6"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
         <v>184</v>
       </c>
@@ -13936,7 +13936,7 @@
       </c>
       <c r="L168" s="6"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
         <v>194</v>
       </c>
@@ -13964,7 +13964,7 @@
       </c>
       <c r="L169" s="6"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
         <v>204</v>
       </c>
@@ -13992,7 +13992,7 @@
       </c>
       <c r="L170" s="6"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
         <v>216</v>
       </c>
@@ -14020,7 +14020,7 @@
       </c>
       <c r="L171" s="6"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
         <v>225</v>
       </c>
@@ -14048,7 +14048,7 @@
       </c>
       <c r="L172" s="6"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
         <v>234</v>
       </c>
@@ -14076,14 +14076,14 @@
       </c>
       <c r="L173" s="6"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C174" s="1"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
       <c r="I174" s="35"/>
       <c r="J174" s="35"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
         <v>819</v>
       </c>
@@ -14101,7 +14101,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
         <v>813</v>
       </c>
@@ -14120,7 +14120,7 @@
       <c r="I176" s="35"/>
       <c r="J176" s="35"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
         <v>808</v>
       </c>
@@ -14141,7 +14141,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
         <v>814</v>
       </c>
@@ -14159,7 +14159,7 @@
       <c r="I178" s="35"/>
       <c r="J178" s="35"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
         <v>815</v>
       </c>
@@ -14173,7 +14173,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" s="23" t="s">
         <v>824</v>
       </c>
@@ -14195,7 +14195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="23" t="s">
         <v>823</v>
       </c>
@@ -14217,7 +14217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="23" t="s">
         <v>825</v>
       </c>
@@ -14239,7 +14239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184" s="23" t="s">
         <v>1110</v>
       </c>
@@ -14261,7 +14261,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A185" s="23" t="s">
         <v>1112</v>
       </c>
@@ -14283,7 +14283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A186" s="23" t="s">
         <v>1114</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A187" s="23" t="s">
         <v>1064</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188" s="23" t="s">
         <v>829</v>
       </c>
@@ -14336,7 +14336,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189" s="23" t="s">
         <v>832</v>
       </c>
@@ -14350,7 +14350,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A190" s="23" t="s">
         <v>1040</v>
       </c>
@@ -14364,7 +14364,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A191" s="23" t="s">
         <v>834</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="23" t="s">
         <v>845</v>
       </c>
@@ -14392,7 +14392,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="23" t="s">
         <v>848</v>
       </c>
@@ -14406,7 +14406,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="23" t="s">
         <v>846</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="23" t="s">
         <v>844</v>
       </c>
@@ -14434,7 +14434,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="23" t="s">
         <v>847</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="23" t="s">
         <v>843</v>
       </c>
@@ -14462,7 +14462,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="23" t="s">
         <v>849</v>
       </c>
@@ -14476,7 +14476,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="23" t="s">
         <v>850</v>
       </c>
@@ -14490,7 +14490,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="23" t="s">
         <v>853</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="23" t="s">
         <v>859</v>
       </c>
@@ -14518,7 +14518,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="23" t="s">
         <v>860</v>
       </c>
@@ -14532,7 +14532,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="23" t="s">
         <v>861</v>
       </c>
@@ -14546,7 +14546,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="23" t="s">
         <v>862</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="23" t="s">
         <v>863</v>
       </c>
@@ -14574,7 +14574,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="23" t="s">
         <v>864</v>
       </c>
@@ -14588,7 +14588,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="23" t="s">
         <v>865</v>
       </c>
@@ -14602,7 +14602,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="23" t="s">
         <v>867</v>
       </c>
@@ -14616,7 +14616,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="23" t="s">
         <v>869</v>
       </c>
@@ -14630,11 +14630,11 @@
         <v>870</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="23"/>
       <c r="C211" s="6"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="23" t="s">
         <v>898</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="23" t="s">
         <v>899</v>
       </c>
@@ -14662,7 +14662,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" s="23" t="s">
         <v>900</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="23" t="s">
         <v>901</v>
       </c>
@@ -14690,7 +14690,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" s="23" t="s">
         <v>902</v>
       </c>
@@ -14704,7 +14704,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="23" t="s">
         <v>903</v>
       </c>
@@ -14718,7 +14718,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" s="23" t="s">
         <v>904</v>
       </c>
@@ -14732,7 +14732,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" s="23" t="s">
         <v>906</v>
       </c>
@@ -14746,7 +14746,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="23" t="s">
         <v>908</v>
       </c>
@@ -14760,7 +14760,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="23" t="s">
         <v>910</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" s="23" t="s">
         <v>911</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" s="23" t="s">
         <v>912</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" s="23" t="s">
         <v>913</v>
       </c>
@@ -14816,7 +14816,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="23" t="s">
         <v>914</v>
       </c>
@@ -14830,7 +14830,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="23" t="s">
         <v>915</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" s="23" t="s">
         <v>916</v>
       </c>
@@ -14858,7 +14858,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" s="23" t="s">
         <v>918</v>
       </c>
@@ -14872,7 +14872,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="23" t="s">
         <v>920</v>
       </c>
@@ -14886,11 +14886,11 @@
         <v>921</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="23"/>
       <c r="C230" s="6"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="23" t="s">
         <v>934</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="23" t="s">
         <v>935</v>
       </c>
@@ -14918,7 +14918,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" s="23" t="s">
         <v>936</v>
       </c>
@@ -14932,7 +14932,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" s="23" t="s">
         <v>937</v>
       </c>
@@ -14946,7 +14946,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" s="23" t="s">
         <v>938</v>
       </c>
@@ -14960,7 +14960,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="23" t="s">
         <v>939</v>
       </c>
@@ -14974,7 +14974,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="23" t="s">
         <v>940</v>
       </c>
@@ -14988,7 +14988,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" s="23" t="s">
         <v>942</v>
       </c>
@@ -15002,7 +15002,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="23" t="s">
         <v>944</v>
       </c>
@@ -15016,7 +15016,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="23" t="s">
         <v>922</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" s="23" t="s">
         <v>923</v>
       </c>
@@ -15044,7 +15044,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" s="23" t="s">
         <v>924</v>
       </c>
@@ -15058,7 +15058,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="23" t="s">
         <v>925</v>
       </c>
@@ -15072,7 +15072,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="23" t="s">
         <v>926</v>
       </c>
@@ -15086,7 +15086,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="23" t="s">
         <v>927</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="23" t="s">
         <v>928</v>
       </c>
@@ -15114,7 +15114,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="23" t="s">
         <v>930</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="23" t="s">
         <v>932</v>
       </c>
@@ -15142,11 +15142,11 @@
         <v>933</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="23"/>
       <c r="C249" s="6"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="23" t="s">
         <v>964</v>
       </c>
@@ -15160,7 +15160,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="23" t="s">
         <v>965</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" s="23" t="s">
         <v>966</v>
       </c>
@@ -15188,7 +15188,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="23" t="s">
         <v>967</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="23" t="s">
         <v>968</v>
       </c>
@@ -15216,7 +15216,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" s="23" t="s">
         <v>969</v>
       </c>
@@ -15230,7 +15230,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" s="23" t="s">
         <v>970</v>
       </c>
@@ -15244,7 +15244,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" s="23" t="s">
         <v>971</v>
       </c>
@@ -15258,7 +15258,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" s="23" t="s">
         <v>972</v>
       </c>
@@ -15272,7 +15272,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" s="23" t="s">
         <v>992</v>
       </c>
@@ -15286,7 +15286,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" s="23" t="s">
         <v>991</v>
       </c>
@@ -15300,11 +15300,11 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" s="23"/>
       <c r="C261" s="6"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" s="23" t="s">
         <v>1033</v>
       </c>
@@ -15318,7 +15318,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" s="23" t="s">
         <v>1034</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" s="23" t="s">
         <v>1035</v>
       </c>
@@ -15346,7 +15346,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" s="23" t="s">
         <v>1036</v>
       </c>
@@ -15360,7 +15360,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" s="23" t="s">
         <v>1045</v>
       </c>
@@ -15374,7 +15374,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" s="23" t="s">
         <v>1054</v>
       </c>
@@ -15388,7 +15388,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" s="24" t="s">
         <v>1053</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" s="24" t="s">
         <v>1055</v>
       </c>
@@ -15416,7 +15416,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" s="24" t="s">
         <v>1060</v>
       </c>
@@ -15430,7 +15430,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A274" s="17" t="s">
         <v>1073</v>
       </c>
@@ -15450,7 +15450,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A275" s="17" t="s">
         <v>1074</v>
       </c>
@@ -15470,7 +15470,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A276" s="17" t="s">
         <v>1075</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A277" s="17" t="s">
         <v>1076</v>
       </c>
@@ -15510,7 +15510,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A278" s="17" t="s">
         <v>1077</v>
       </c>
@@ -15530,7 +15530,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A279" s="17" t="s">
         <v>1078</v>
       </c>
@@ -15550,7 +15550,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A280" s="17" t="s">
         <v>1079</v>
       </c>
@@ -15570,7 +15570,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A281" s="17" t="s">
         <v>1080</v>
       </c>
@@ -15590,7 +15590,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A282" s="17" t="s">
         <v>1081</v>
       </c>
@@ -15610,7 +15610,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A283" s="17" t="s">
         <v>1082</v>
       </c>
@@ -15630,7 +15630,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A284" s="17" t="s">
         <v>1083</v>
       </c>
@@ -15650,7 +15650,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A285" s="17" t="s">
         <v>1084</v>
       </c>
@@ -15759,13 +15759,13 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.81640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>728</v>
       </c>
@@ -15773,7 +15773,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>730</v>
       </c>
@@ -15781,7 +15781,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>731</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>732</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>733</v>
       </c>
@@ -15805,7 +15805,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>734</v>
       </c>
@@ -15813,7 +15813,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>731</v>
       </c>
@@ -15821,7 +15821,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>732</v>
       </c>
@@ -15829,7 +15829,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>737</v>
       </c>
@@ -15838,7 +15838,7 @@
       </c>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>738</v>
       </c>
@@ -15847,7 +15847,7 @@
       </c>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>731</v>
       </c>
@@ -15856,7 +15856,7 @@
       </c>
       <c r="E13" s="23"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>732</v>
       </c>
@@ -15865,21 +15865,21 @@
       </c>
       <c r="E14" s="23"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="E16" s="23"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="23"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
     </row>
   </sheetData>
@@ -15896,14 +15896,14 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.1796875" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="24" customWidth="1"/>
-    <col min="3" max="3" width="104.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104.26953125" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15917,7 +15917,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>335</v>
       </c>
@@ -15931,7 +15931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>745</v>
       </c>
@@ -15945,7 +15945,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>730</v>
       </c>
@@ -15959,7 +15959,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>746</v>
       </c>
@@ -15973,7 +15973,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>747</v>
       </c>
@@ -15987,7 +15987,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>748</v>
       </c>
@@ -16001,7 +16001,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>749</v>
       </c>
@@ -16015,7 +16015,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>751</v>
       </c>
@@ -16029,7 +16029,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>753</v>
       </c>
@@ -16043,7 +16043,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>754</v>
       </c>
@@ -16057,7 +16057,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>755</v>
       </c>
@@ -16071,7 +16071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>757</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>759</v>
       </c>
@@ -16113,7 +16113,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>760</v>
       </c>
@@ -16127,7 +16127,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>762</v>
       </c>
@@ -16141,7 +16141,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>763</v>
       </c>
@@ -16155,7 +16155,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>764</v>
       </c>
@@ -16169,7 +16169,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>765</v>
       </c>
@@ -16183,7 +16183,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>767</v>
       </c>
@@ -16197,7 +16197,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>769</v>
       </c>
@@ -16211,7 +16211,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>771</v>
       </c>
@@ -16225,7 +16225,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>773</v>
       </c>
@@ -16239,7 +16239,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>775</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>777</v>
       </c>
@@ -16267,7 +16267,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>779</v>
       </c>
@@ -16281,7 +16281,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>781</v>
       </c>
@@ -16295,7 +16295,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="24" t="s">
         <v>1086</v>
       </c>
